--- a/BARU/2023/07 JULI/KELUAR 07.xlsx
+++ b/BARU/2023/07 JULI/KELUAR 07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId6"/>
+    <pivotCache cacheId="175" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="270">
   <si>
     <t>Column1</t>
   </si>
@@ -836,6 +836,12 @@
   </si>
   <si>
     <t>2366</t>
+  </si>
+  <si>
+    <t>4964</t>
+  </si>
+  <si>
+    <t>GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRU</t>
   </si>
 </sst>
 </file>
@@ -2019,38 +2025,104 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2118,111 +2190,45 @@
     <xf numFmtId="166" fontId="24" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="100">
     <dxf>
       <alignment horizontal="left" readingOrder="0"/>
     </dxf>
@@ -3205,18 +3211,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -4039,7 +4033,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="totalRow" dxfId="103"/>
+      <tableStyleElement type="totalRow" dxfId="99"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4903,13 +4897,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45122.614254166663" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="257">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45124.676555324077" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="257">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="32">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="85" count="24">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="87" count="25">
         <n v="3"/>
         <s v=""/>
         <n v="6"/>
@@ -4934,10 +4928,11 @@
         <n v="78"/>
         <n v="80"/>
         <n v="85"/>
+        <n v="87"/>
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23070001" maxValue="23070023"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23070001" maxValue="23070024"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
       <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-07-04T00:00:00" maxDate="2023-07-16T00:00:00"/>
@@ -5000,7 +4995,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="85"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="87"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
@@ -7897,38 +7892,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="24"/>
+    <n v="23070024"/>
+    <d v="2023-07-15T00:00:00"/>
+    <n v="15"/>
+    <s v="G"/>
+    <s v="4964"/>
+    <s v="UTAMA"/>
+    <s v="AM 23070024"/>
+    <s v="G 4964"/>
+    <s v="CV UTAMA PUTRA TULUNG AGUNG"/>
+    <n v="144"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="PENKENKE303"/>
+    <s v="GEL PEN KENKO KE-303 T-GEL TRIANGULAR"/>
+    <s v="GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRU"/>
+    <n v="21600"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2721600"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="87"/>
+    <n v="1"/>
+    <n v="3110400"/>
+    <n v="388800"/>
+    <n v="0"/>
+    <n v="388800"/>
+    <n v="2721600"/>
+    <n v="2721600"/>
+    <m/>
+    <s v="GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRULSN21600"/>
   </r>
   <r>
     <x v="1"/>
@@ -13782,11 +13777,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="175" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="25">
+      <items count="26">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
@@ -13810,6 +13805,7 @@
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
+        <item x="24"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -13849,7 +13845,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="26">
     <i>
       <x/>
     </i>
@@ -13922,6 +13918,9 @@
     <i>
       <x v="23"/>
     </i>
+    <i>
+      <x v="24"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -13930,7 +13929,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="65">
+    <format dxfId="61">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -13944,73 +13943,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF260" totalsRowCount="1" headerRowDxfId="102" dataDxfId="101" totalsRowDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF260" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
   <autoFilter ref="A2:AF259"/>
   <tableColumns count="32">
-    <tableColumn id="16" name="//" dataDxfId="99" totalsRowDxfId="32">
+    <tableColumn id="16" name="//" dataDxfId="95" totalsRowDxfId="32">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="98" totalsRowDxfId="31">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="94" totalsRowDxfId="31">
       <calculatedColumnFormula>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="97" totalsRowDxfId="30">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="93" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="H_TGL" dataDxfId="96" totalsRowDxfId="29"/>
-    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="95" totalsRowDxfId="28"/>
-    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="94" totalsRowDxfId="27"/>
-    <tableColumn id="20" name="h_toko" dataDxfId="93" totalsRowDxfId="26"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="92" totalsRowDxfId="25">
+    <tableColumn id="32" name="H_TGL" dataDxfId="92" totalsRowDxfId="29"/>
+    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="91" totalsRowDxfId="28"/>
+    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="90" totalsRowDxfId="27"/>
+    <tableColumn id="20" name="h_toko" dataDxfId="89" totalsRowDxfId="26"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="88" totalsRowDxfId="25">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="91" totalsRowDxfId="24">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="87" totalsRowDxfId="24">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="90" totalsRowDxfId="23">
+    <tableColumn id="4" name="Toko" dataDxfId="86" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="89" totalsRowDxfId="22"/>
-    <tableColumn id="6" name="Unit" dataDxfId="88" totalsRowDxfId="21"/>
-    <tableColumn id="7" name="C" dataDxfId="87" totalsRowDxfId="20"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="86" totalsRowDxfId="19"/>
-    <tableColumn id="10" name="Column1" dataDxfId="85" totalsRowDxfId="18">
+    <tableColumn id="5" name="Qty" dataDxfId="85" totalsRowDxfId="22"/>
+    <tableColumn id="6" name="Unit" dataDxfId="84" totalsRowDxfId="21"/>
+    <tableColumn id="7" name="C" dataDxfId="83" totalsRowDxfId="20"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="82" totalsRowDxfId="19"/>
+    <tableColumn id="10" name="Column1" dataDxfId="81" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="84" totalsRowDxfId="17"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="83" totalsRowDxfId="16"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="82" totalsRowDxfId="15"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="81" totalsRowDxfId="14"/>
-    <tableColumn id="23" name="Amount" dataDxfId="80" totalsRowDxfId="13">
+    <tableColumn id="9" name="Item Description" dataDxfId="80" totalsRowDxfId="17"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="79" totalsRowDxfId="16"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="78" totalsRowDxfId="15"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="77" totalsRowDxfId="14"/>
+    <tableColumn id="23" name="Amount" dataDxfId="76" totalsRowDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="79" totalsRowDxfId="12"/>
-    <tableColumn id="15" name="edited :" dataDxfId="78" totalsRowDxfId="11"/>
-    <tableColumn id="21" name="h_id" dataDxfId="77" totalsRowDxfId="10">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="75" totalsRowDxfId="12"/>
+    <tableColumn id="15" name="edited :" dataDxfId="74" totalsRowDxfId="11"/>
+    <tableColumn id="21" name="h_id" dataDxfId="73" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="76" totalsRowDxfId="9">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="72" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="75" totalsRowDxfId="8">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="71" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="h_disc 1" dataDxfId="74" totalsRowDxfId="7">
+    <tableColumn id="31" name="h_disc 1" dataDxfId="70" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="h_disc 2" dataDxfId="73" totalsRowDxfId="6">
+    <tableColumn id="30" name="h_disc 2" dataDxfId="69" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="72" totalsRowDxfId="5">
+    <tableColumn id="25" name="h_diskon" dataDxfId="68" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="71" totalsRowDxfId="4">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="67" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="70" totalsRowDxfId="3">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="66" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="69" totalsRowDxfId="2"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="68" totalsRowDxfId="1">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="65" totalsRowDxfId="2"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="64" totalsRowDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14019,74 +14018,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="60">
   <autoFilter ref="C4:O57"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="63">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="59">
       <calculatedColumnFormula>IF(ROW()-(COUNTBLANK($C$1:$C$3)+1)&lt;=jNota,A5,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="62">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="58">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="61">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="57">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="60">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="56">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="59">
+    <tableColumn id="5" name="Toko" dataDxfId="55">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="48">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="44">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="47">
+    <tableColumn id="15" name="edited" dataDxfId="43">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="4" dataDxfId="46"/>
+    <tableColumn id="12" name="4" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="Q4:W57"/>
   <tableColumns count="7">
-    <tableColumn id="8" name="AM" dataDxfId="44">
+    <tableColumn id="8" name="AM" dataDxfId="40">
       <calculatedColumnFormula>Table4[[#Headers],[AM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="---" dataDxfId="43">
+    <tableColumn id="2" name="---" dataDxfId="39">
       <calculatedColumnFormula>R$3+ROW()-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No. Invoice :" dataDxfId="42">
+    <tableColumn id="7" name="No. Invoice :" dataDxfId="38">
       <calculatedColumnFormula>IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kode Sales :" dataDxfId="41">
+    <tableColumn id="9" name="Kode Sales :" dataDxfId="37">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="40">
+    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="36">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total Invoice" dataDxfId="39">
+    <tableColumn id="4" name="Total Invoice" dataDxfId="35">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pembuat nota" dataDxfId="38">
+    <tableColumn id="3" name="pembuat nota" dataDxfId="34">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14105,7 +14104,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="37">
+    <tableColumn id="5" name="e" dataDxfId="33">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14403,8 +14402,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF260"/>
   <sheetViews>
-    <sheetView topLeftCell="O64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T85" sqref="T85"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22131,76 +22130,110 @@
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A87" s="288" t="str">
+      <c r="A87" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B87" s="288" t="str">
+        <v>87</v>
+      </c>
+      <c r="B87" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B86))</f>
-        <v/>
-      </c>
-      <c r="C87" s="282" t="str">
+        <v>23070024</v>
+      </c>
+      <c r="C87" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45122</v>
+      </c>
+      <c r="D87" s="293">
+        <v>15</v>
+      </c>
+      <c r="E87" s="281" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="283" t="s">
+        <v>268</v>
+      </c>
+      <c r="G87" s="281" t="s">
+        <v>92</v>
       </c>
       <c r="H87" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070024</v>
       </c>
       <c r="I87" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 4964</v>
       </c>
       <c r="J87" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV UTAMA PUTRA TULUNG AGUNG</v>
+      </c>
+      <c r="K87" s="281">
+        <v>144</v>
+      </c>
+      <c r="L87" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M87" s="281">
+        <v>1</v>
+      </c>
+      <c r="N87" s="281" t="s">
+        <v>143</v>
       </c>
       <c r="O87" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q87" s="284"/>
-      <c r="R87" s="285"/>
-      <c r="T87" s="284" t="str">
+        <v>GEL PEN KENKO KE-303 T-GEL TRIANGULAR</v>
+      </c>
+      <c r="P87" s="281" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q87" s="284">
+        <v>21600</v>
+      </c>
+      <c r="R87" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T87" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W87" s="288" t="str">
+        <v>2721600</v>
+      </c>
+      <c r="U87" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W87" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X87" s="288" t="str">
+        <v>87</v>
+      </c>
+      <c r="X87" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y87" s="284" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z87" s="284" t="str">
+        <v>3110400</v>
+      </c>
+      <c r="Z87" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA87" s="284" t="str">
+        <v>388800</v>
+      </c>
+      <c r="AA87" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB87" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC87" s="284" t="str">
+        <v>388800</v>
+      </c>
+      <c r="AC87" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD87" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>2721600</v>
+      </c>
+      <c r="AD87" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>2721600</v>
       </c>
       <c r="AE87" s="284"/>
       <c r="AF87" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRULSN21600</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
@@ -34761,38 +34794,38 @@
       </c>
     </row>
     <row r="260" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A260" s="356"/>
-      <c r="B260" s="356"/>
-      <c r="C260" s="357"/>
-      <c r="D260" s="358"/>
-      <c r="E260" s="359"/>
-      <c r="F260" s="360"/>
-      <c r="G260" s="359"/>
-      <c r="H260" s="356"/>
-      <c r="I260" s="361"/>
-      <c r="J260" s="356"/>
-      <c r="K260" s="359"/>
-      <c r="L260" s="359"/>
-      <c r="M260" s="359"/>
-      <c r="N260" s="359"/>
-      <c r="O260" s="356"/>
-      <c r="P260" s="359"/>
-      <c r="Q260" s="362"/>
-      <c r="R260" s="363"/>
-      <c r="S260" s="363"/>
-      <c r="T260" s="362"/>
-      <c r="U260" s="362"/>
-      <c r="V260" s="359"/>
-      <c r="W260" s="356"/>
-      <c r="X260" s="356"/>
-      <c r="Y260" s="362"/>
-      <c r="Z260" s="362"/>
-      <c r="AA260" s="362"/>
-      <c r="AB260" s="362"/>
-      <c r="AC260" s="362"/>
-      <c r="AD260" s="362"/>
-      <c r="AE260" s="362"/>
-      <c r="AF260" s="362"/>
+      <c r="A260" s="298"/>
+      <c r="B260" s="298"/>
+      <c r="C260" s="299"/>
+      <c r="D260" s="300"/>
+      <c r="E260" s="301"/>
+      <c r="F260" s="302"/>
+      <c r="G260" s="301"/>
+      <c r="H260" s="298"/>
+      <c r="I260" s="303"/>
+      <c r="J260" s="298"/>
+      <c r="K260" s="301"/>
+      <c r="L260" s="301"/>
+      <c r="M260" s="301"/>
+      <c r="N260" s="301"/>
+      <c r="O260" s="298"/>
+      <c r="P260" s="301"/>
+      <c r="Q260" s="304"/>
+      <c r="R260" s="305"/>
+      <c r="S260" s="305"/>
+      <c r="T260" s="304"/>
+      <c r="U260" s="304"/>
+      <c r="V260" s="301"/>
+      <c r="W260" s="298"/>
+      <c r="X260" s="298"/>
+      <c r="Y260" s="304"/>
+      <c r="Z260" s="304"/>
+      <c r="AA260" s="304"/>
+      <c r="AB260" s="304"/>
+      <c r="AC260" s="304"/>
+      <c r="AD260" s="304"/>
+      <c r="AE260" s="304"/>
+      <c r="AF260" s="304"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34809,7 +34842,7 @@
   <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34877,7 +34910,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>COUNT(Table1[//])</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="295" t="str">
         <f>"["&amp;G2&amp;".xlsx]Invoice"</f>
@@ -34987,7 +35020,7 @@
       </c>
       <c r="Z4" s="279">
         <f ca="1">SUM(pajak[Total Invoice])</f>
-        <v>256503034.5</v>
+        <v>259224634.5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -35076,7 +35109,7 @@
       </c>
       <c r="Z5" s="87">
         <f ca="1">SUM(pajak[PPN 11%])</f>
-        <v>25419219.635135133</v>
+        <v>25688927.74324324</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -35162,7 +35195,7 @@
       </c>
       <c r="Z6" s="87">
         <f ca="1">(Z4/1.11)*11%</f>
-        <v>25419219.635135133</v>
+        <v>25688927.74324324</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -36889,50 +36922,52 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="292"/>
-      <c r="C28" s="85" t="str">
+      <c r="A28" s="292">
+        <v>87</v>
+      </c>
+      <c r="C28" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>87</v>
       </c>
       <c r="D28" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E28" s="88" t="str">
+        <v>AM 23070024</v>
+      </c>
+      <c r="E28" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45122</v>
       </c>
       <c r="F28" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>G 4964</v>
       </c>
       <c r="G28" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H28" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I28" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J28" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K28" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L28" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>CV UTAMA PUTRA TULUNG AGUNG</v>
+      </c>
+      <c r="H28" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>3110400</v>
+      </c>
+      <c r="I28" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>388800</v>
+      </c>
+      <c r="J28" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>2721600</v>
+      </c>
+      <c r="K28" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>269708.10810810811</v>
+      </c>
+      <c r="L28" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>2721600</v>
       </c>
       <c r="M28" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N28" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -36947,9 +36982,9 @@
         <f t="shared" si="1"/>
         <v>23070024</v>
       </c>
-      <c r="S28" s="184" t="b">
+      <c r="S28" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="T28" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -36969,9 +37004,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="292" t="s">
-        <v>55</v>
-      </c>
+      <c r="A29" s="292"/>
       <c r="C29" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -37051,6 +37084,9 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="292" t="s">
+        <v>55</v>
+      </c>
       <c r="C30" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -39270,23 +39306,23 @@
       <c r="E58"/>
       <c r="H58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total])</f>
-        <v>291935000</v>
+        <v>295045400</v>
       </c>
       <c r="I58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Diskon])</f>
-        <v>35431965.5</v>
+        <v>35820765.5</v>
       </c>
       <c r="J58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>256503034.5</v>
+        <v>259224634.5</v>
       </c>
       <c r="K58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>25419219.635135133</v>
+        <v>25688927.74324324</v>
       </c>
       <c r="L58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>256503034.5</v>
+        <v>259224634.5</v>
       </c>
       <c r="M58"/>
       <c r="N58"/>
@@ -39294,10 +39330,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F59:F1048576 F3:F57">
-    <cfRule type="duplicateValues" dxfId="67" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:W2 S4:W1048576">
-    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39315,8 +39351,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -39336,7 +39372,7 @@
     <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -39350,7 +39386,7 @@
       </c>
       <c r="E1" t="str">
         <f>INDEX(Table1[h_toko],newestIdRow-offset)</f>
-        <v>ANUGERAH</v>
+        <v>UTAMA</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
@@ -39359,10 +39395,10 @@
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
         <v>1</v>
       </c>
-      <c r="I1" s="298" t="s">
+      <c r="I1" s="353" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="298"/>
+      <c r="J1" s="353"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -39386,18 +39422,18 @@
       </c>
       <c r="E3" s="8">
         <f>INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23070023</v>
+        <v>23070024</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="305" t="str">
+      <c r="H3" s="360" t="str">
         <f>INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
-        <v>CV PELITA JAYA</v>
-      </c>
-      <c r="I3" s="305"/>
-      <c r="J3" s="305"/>
-      <c r="K3" s="306"/>
+        <v>CV UTAMA PUTRA</v>
+      </c>
+      <c r="I3" s="360"/>
+      <c r="J3" s="360"/>
+      <c r="K3" s="361"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39406,14 +39442,14 @@
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="309" t="s">
+      <c r="F4" s="331" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
-      <c r="K4" s="308"/>
+      <c r="H4" s="362"/>
+      <c r="I4" s="362"/>
+      <c r="J4" s="362"/>
+      <c r="K4" s="363"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39422,20 +39458,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="310">
+      <c r="D5" s="332">
         <f>INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
         <v>45122</v>
       </c>
-      <c r="E5" s="311"/>
-      <c r="F5" s="309"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="331"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="312" t="str">
+      <c r="H5" s="334" t="str">
         <f>IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
-      </c>
-      <c r="I5" s="312"/>
-      <c r="J5" s="312"/>
-      <c r="K5" s="313"/>
+        <v/>
+      </c>
+      <c r="I5" s="334"/>
+      <c r="J5" s="334"/>
+      <c r="K5" s="335"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39444,15 +39480,15 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="309"/>
+      <c r="F6" s="331"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="314" t="str">
+      <c r="H6" s="336" t="str">
         <f>INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
-        <v>PURWOKERTO</v>
-      </c>
-      <c r="I6" s="314"/>
-      <c r="J6" s="314"/>
-      <c r="K6" s="315"/>
+        <v>TULUNG AGUNG</v>
+      </c>
+      <c r="I6" s="336"/>
+      <c r="J6" s="336"/>
+      <c r="K6" s="337"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -39463,15 +39499,15 @@
       <c r="C7" s="7"/>
       <c r="D7" s="19" t="str">
         <f>INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>KO 2366</v>
+        <v>G 4964</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="317"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="339"/>
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -39534,11 +39570,11 @@
       </c>
       <c r="B11" s="45">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="C11" s="45" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A11-1))</f>
-        <v>BOX</v>
+        <v>LSN</v>
       </c>
       <c r="D11" s="46">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
@@ -39546,17 +39582,17 @@
       </c>
       <c r="E11" s="47" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
+        <v>GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRU</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="H11" s="50">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>72000</v>
+        <v>21600</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)))</f>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J11" s="51" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)))</f>
@@ -39564,7 +39600,7 @@
       </c>
       <c r="K11" s="52">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>2242080</v>
+        <v>2721600</v>
       </c>
       <c r="L11" s="35"/>
     </row>
@@ -40192,8 +40228,8 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="304"/>
-      <c r="K28" s="304"/>
+      <c r="J28" s="359"/>
+      <c r="K28" s="359"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -40203,11 +40239,11 @@
       <c r="I29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="301">
+      <c r="J29" s="356">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>2242080</v>
-      </c>
-      <c r="K29" s="302"/>
+        <v>2721600</v>
+      </c>
+      <c r="K29" s="357"/>
       <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -40216,8 +40252,8 @@
       <c r="C30" s="65"/>
       <c r="D30" s="24"/>
       <c r="I30" s="67"/>
-      <c r="J30" s="303"/>
-      <c r="K30" s="303"/>
+      <c r="J30" s="358"/>
+      <c r="K30" s="358"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -40240,8 +40276,8 @@
       <c r="C32" s="65"/>
       <c r="D32" s="24"/>
       <c r="I32" s="67"/>
-      <c r="J32" s="304"/>
-      <c r="K32" s="304"/>
+      <c r="J32" s="359"/>
+      <c r="K32" s="359"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -40256,11 +40292,11 @@
       <c r="I33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="301">
+      <c r="J33" s="356">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>222188.10810810808</v>
-      </c>
-      <c r="K33" s="302"/>
+        <v>269708.10810810811</v>
+      </c>
+      <c r="K33" s="357"/>
       <c r="L33" s="72"/>
     </row>
     <row r="34" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -40269,8 +40305,8 @@
       <c r="C34" s="65"/>
       <c r="D34" s="24"/>
       <c r="I34" s="67"/>
-      <c r="J34" s="304"/>
-      <c r="K34" s="304"/>
+      <c r="J34" s="359"/>
+      <c r="K34" s="359"/>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -40284,7 +40320,7 @@
       <c r="J35" s="75"/>
       <c r="K35" s="76">
         <f ca="1">INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>2242080</v>
+        <v>2721600</v>
       </c>
       <c r="L35" s="72"/>
     </row>
@@ -40311,11 +40347,11 @@
       <c r="I37" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="299" t="str">
+      <c r="J37" s="354" t="str">
         <f>INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K37" s="300"/>
+      <c r="K37" s="355"/>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77"/>
@@ -40325,11 +40361,11 @@
       <c r="I38" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="299" t="str">
+      <c r="J38" s="354" t="str">
         <f>INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="300"/>
+      <c r="K38" s="355"/>
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -40368,19 +40404,19 @@
       </c>
       <c r="E41" s="194">
         <f>E3</f>
-        <v>23070023</v>
+        <v>23070024</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="318" t="str">
+      <c r="H41" s="340" t="str">
         <f>H3</f>
-        <v>CV PELITA JAYA</v>
-      </c>
-      <c r="I41" s="318"/>
-      <c r="J41" s="318"/>
-      <c r="K41" s="319"/>
+        <v>CV UTAMA PUTRA</v>
+      </c>
+      <c r="I41" s="340"/>
+      <c r="J41" s="340"/>
+      <c r="K41" s="341"/>
       <c r="L41" s="197"/>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40389,14 +40425,14 @@
       <c r="C42" s="199"/>
       <c r="D42" s="200"/>
       <c r="E42" s="201"/>
-      <c r="F42" s="322" t="s">
+      <c r="F42" s="344" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="202"/>
-      <c r="H42" s="320"/>
-      <c r="I42" s="320"/>
-      <c r="J42" s="320"/>
-      <c r="K42" s="321"/>
+      <c r="H42" s="342"/>
+      <c r="I42" s="342"/>
+      <c r="J42" s="342"/>
+      <c r="K42" s="343"/>
       <c r="L42" s="197"/>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40405,20 +40441,20 @@
         <v>2</v>
       </c>
       <c r="C43" s="192"/>
-      <c r="D43" s="323">
+      <c r="D43" s="345">
         <f>D5</f>
         <v>45122</v>
       </c>
-      <c r="E43" s="324"/>
-      <c r="F43" s="322"/>
+      <c r="E43" s="346"/>
+      <c r="F43" s="344"/>
       <c r="G43" s="203"/>
-      <c r="H43" s="325" t="str">
+      <c r="H43" s="347" t="str">
         <f>H5</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
-      </c>
-      <c r="I43" s="325"/>
-      <c r="J43" s="325"/>
-      <c r="K43" s="326"/>
+        <v/>
+      </c>
+      <c r="I43" s="347"/>
+      <c r="J43" s="347"/>
+      <c r="K43" s="348"/>
       <c r="L43" s="204"/>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40427,15 +40463,15 @@
       <c r="C44" s="199"/>
       <c r="D44" s="200"/>
       <c r="E44" s="201"/>
-      <c r="F44" s="322"/>
+      <c r="F44" s="344"/>
       <c r="G44" s="203"/>
-      <c r="H44" s="327" t="str">
+      <c r="H44" s="349" t="str">
         <f>H6</f>
-        <v>PURWOKERTO</v>
-      </c>
-      <c r="I44" s="327"/>
-      <c r="J44" s="327"/>
-      <c r="K44" s="328"/>
+        <v>TULUNG AGUNG</v>
+      </c>
+      <c r="I44" s="349"/>
+      <c r="J44" s="349"/>
+      <c r="K44" s="350"/>
       <c r="L44" s="205"/>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -40446,15 +40482,15 @@
       <c r="C45" s="192"/>
       <c r="D45" s="206" t="str">
         <f>D7</f>
-        <v>KO 2366</v>
+        <v>G 4964</v>
       </c>
       <c r="E45" s="194"/>
       <c r="F45" s="207"/>
       <c r="G45" s="208"/>
-      <c r="H45" s="329"/>
-      <c r="I45" s="329"/>
-      <c r="J45" s="329"/>
-      <c r="K45" s="330"/>
+      <c r="H45" s="351"/>
+      <c r="I45" s="351"/>
+      <c r="J45" s="351"/>
+      <c r="K45" s="352"/>
       <c r="L45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -40521,11 +40557,11 @@
       </c>
       <c r="B49" s="233">
         <f t="shared" ref="B49:E64" ca="1" si="0">B11</f>
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="C49" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BOX</v>
+        <v>LSN</v>
       </c>
       <c r="D49" s="235">
         <f t="shared" ca="1" si="0"/>
@@ -40533,17 +40569,17 @@
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
+        <v>GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRU</v>
       </c>
       <c r="F49" s="237"/>
       <c r="G49" s="238"/>
       <c r="H49" s="239">
         <f t="shared" ref="H49:K64" ca="1" si="1">H11</f>
-        <v>72000</v>
+        <v>21600</v>
       </c>
       <c r="I49" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J49" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -40551,7 +40587,7 @@
       </c>
       <c r="K49" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>2242080</v>
+        <v>2721600</v>
       </c>
       <c r="L49" s="223"/>
     </row>
@@ -41179,8 +41215,8 @@
       <c r="G66" s="252"/>
       <c r="H66" s="252"/>
       <c r="I66" s="253"/>
-      <c r="J66" s="331"/>
-      <c r="K66" s="331"/>
+      <c r="J66" s="320"/>
+      <c r="K66" s="320"/>
       <c r="L66" s="215"/>
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41195,11 +41231,11 @@
       <c r="I67" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="332">
+      <c r="J67" s="328">
         <f ca="1">J29</f>
-        <v>2242080</v>
-      </c>
-      <c r="K67" s="333"/>
+        <v>2721600</v>
+      </c>
+      <c r="K67" s="329"/>
       <c r="L67" s="223"/>
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41212,8 +41248,8 @@
       <c r="G68" s="212"/>
       <c r="H68" s="212"/>
       <c r="I68" s="256"/>
-      <c r="J68" s="334"/>
-      <c r="K68" s="334"/>
+      <c r="J68" s="330"/>
+      <c r="K68" s="330"/>
       <c r="L68" s="215"/>
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41248,8 +41284,8 @@
       <c r="G70" s="212"/>
       <c r="H70" s="212"/>
       <c r="I70" s="256"/>
-      <c r="J70" s="331"/>
-      <c r="K70" s="331"/>
+      <c r="J70" s="320"/>
+      <c r="K70" s="320"/>
       <c r="L70" s="215"/>
     </row>
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41268,11 +41304,11 @@
       <c r="I71" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="332">
+      <c r="J71" s="328">
         <f ca="1">J33</f>
-        <v>222188.10810810808</v>
-      </c>
-      <c r="K71" s="333"/>
+        <v>269708.10810810811</v>
+      </c>
+      <c r="K71" s="329"/>
       <c r="L71" s="261"/>
     </row>
     <row r="72" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41285,8 +41321,8 @@
       <c r="G72" s="212"/>
       <c r="H72" s="212"/>
       <c r="I72" s="256"/>
-      <c r="J72" s="331"/>
-      <c r="K72" s="331"/>
+      <c r="J72" s="320"/>
+      <c r="K72" s="320"/>
       <c r="L72" s="215"/>
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41304,7 +41340,7 @@
       <c r="J73" s="264"/>
       <c r="K73" s="265">
         <f ca="1">K35</f>
-        <v>2242080</v>
+        <v>2721600</v>
       </c>
       <c r="L73" s="261"/>
     </row>
@@ -41336,11 +41372,11 @@
       <c r="I75" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="335" t="str">
+      <c r="J75" s="321" t="str">
         <f>J37</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K75" s="336"/>
+      <c r="K75" s="322"/>
       <c r="L75" s="215"/>
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41355,11 +41391,11 @@
       <c r="I76" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="335" t="str">
+      <c r="J76" s="321" t="str">
         <f>J38</f>
         <v/>
       </c>
-      <c r="K76" s="336"/>
+      <c r="K76" s="322"/>
       <c r="L76" s="269"/>
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41402,19 +41438,19 @@
       </c>
       <c r="E79" s="99">
         <f>E41</f>
-        <v>23070023</v>
+        <v>23070024</v>
       </c>
       <c r="F79" s="100"/>
       <c r="G79" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="337" t="str">
+      <c r="H79" s="323" t="str">
         <f>H41</f>
-        <v>CV PELITA JAYA</v>
-      </c>
-      <c r="I79" s="337"/>
-      <c r="J79" s="337"/>
-      <c r="K79" s="338"/>
+        <v>CV UTAMA PUTRA</v>
+      </c>
+      <c r="I79" s="323"/>
+      <c r="J79" s="323"/>
+      <c r="K79" s="324"/>
       <c r="L79" s="102"/>
     </row>
     <row r="80" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41423,14 +41459,14 @@
       <c r="C80" s="104"/>
       <c r="D80" s="105"/>
       <c r="E80" s="106"/>
-      <c r="F80" s="341" t="s">
+      <c r="F80" s="327" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="107"/>
-      <c r="H80" s="339"/>
-      <c r="I80" s="339"/>
-      <c r="J80" s="339"/>
-      <c r="K80" s="340"/>
+      <c r="H80" s="325"/>
+      <c r="I80" s="325"/>
+      <c r="J80" s="325"/>
+      <c r="K80" s="326"/>
       <c r="L80" s="102"/>
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41439,20 +41475,20 @@
         <v>2</v>
       </c>
       <c r="C81" s="97"/>
-      <c r="D81" s="342">
+      <c r="D81" s="312">
         <f>D43</f>
         <v>45122</v>
       </c>
-      <c r="E81" s="343"/>
-      <c r="F81" s="341"/>
+      <c r="E81" s="313"/>
+      <c r="F81" s="327"/>
       <c r="G81" s="108"/>
-      <c r="H81" s="344" t="str">
+      <c r="H81" s="314" t="str">
         <f>H43</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
-      </c>
-      <c r="I81" s="344"/>
-      <c r="J81" s="344"/>
-      <c r="K81" s="345"/>
+        <v/>
+      </c>
+      <c r="I81" s="314"/>
+      <c r="J81" s="314"/>
+      <c r="K81" s="315"/>
       <c r="L81" s="109"/>
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41461,15 +41497,15 @@
       <c r="C82" s="104"/>
       <c r="D82" s="105"/>
       <c r="E82" s="106"/>
-      <c r="F82" s="341"/>
+      <c r="F82" s="327"/>
       <c r="G82" s="108"/>
-      <c r="H82" s="346" t="str">
+      <c r="H82" s="316" t="str">
         <f>H44</f>
-        <v>PURWOKERTO</v>
-      </c>
-      <c r="I82" s="346"/>
-      <c r="J82" s="346"/>
-      <c r="K82" s="347"/>
+        <v>TULUNG AGUNG</v>
+      </c>
+      <c r="I82" s="316"/>
+      <c r="J82" s="316"/>
+      <c r="K82" s="317"/>
       <c r="L82" s="110"/>
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -41480,15 +41516,15 @@
       <c r="C83" s="97"/>
       <c r="D83" s="111" t="str">
         <f>D45</f>
-        <v>KO 2366</v>
+        <v>G 4964</v>
       </c>
       <c r="E83" s="99"/>
       <c r="F83" s="112"/>
       <c r="G83" s="113"/>
-      <c r="H83" s="348"/>
-      <c r="I83" s="348"/>
-      <c r="J83" s="348"/>
-      <c r="K83" s="349"/>
+      <c r="H83" s="318"/>
+      <c r="I83" s="318"/>
+      <c r="J83" s="318"/>
+      <c r="K83" s="319"/>
       <c r="L83" s="110"/>
     </row>
     <row r="84" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -41555,11 +41591,11 @@
       </c>
       <c r="B87" s="138">
         <f t="shared" ref="B87:E102" ca="1" si="2">B49</f>
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="C87" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BOX</v>
+        <v>LSN</v>
       </c>
       <c r="D87" s="140">
         <f t="shared" ca="1" si="2"/>
@@ -41567,17 +41603,17 @@
       </c>
       <c r="E87" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
+        <v>GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRU</v>
       </c>
       <c r="F87" s="142"/>
       <c r="G87" s="143"/>
       <c r="H87" s="144">
         <f t="shared" ref="H87:K102" ca="1" si="3">H49</f>
-        <v>72000</v>
+        <v>21600</v>
       </c>
       <c r="I87" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J87" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -41585,7 +41621,7 @@
       </c>
       <c r="K87" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>2242080</v>
+        <v>2721600</v>
       </c>
       <c r="L87" s="128"/>
     </row>
@@ -42213,8 +42249,8 @@
       <c r="G104" s="157"/>
       <c r="H104" s="157"/>
       <c r="I104" s="158"/>
-      <c r="J104" s="350"/>
-      <c r="K104" s="350"/>
+      <c r="J104" s="309"/>
+      <c r="K104" s="309"/>
       <c r="L104" s="120"/>
     </row>
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42229,11 +42265,11 @@
       <c r="I105" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="351">
+      <c r="J105" s="310">
         <f ca="1">J67</f>
-        <v>2242080</v>
-      </c>
-      <c r="K105" s="352"/>
+        <v>2721600</v>
+      </c>
+      <c r="K105" s="311"/>
       <c r="L105" s="128"/>
     </row>
     <row r="106" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42246,8 +42282,8 @@
       <c r="G106" s="117"/>
       <c r="H106" s="117"/>
       <c r="I106" s="161"/>
-      <c r="J106" s="355"/>
-      <c r="K106" s="355"/>
+      <c r="J106" s="308"/>
+      <c r="K106" s="308"/>
       <c r="L106" s="120"/>
     </row>
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42282,8 +42318,8 @@
       <c r="G108" s="117"/>
       <c r="H108" s="117"/>
       <c r="I108" s="161"/>
-      <c r="J108" s="350"/>
-      <c r="K108" s="350"/>
+      <c r="J108" s="309"/>
+      <c r="K108" s="309"/>
       <c r="L108" s="120"/>
     </row>
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42302,11 +42338,11 @@
       <c r="I109" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="351">
+      <c r="J109" s="310">
         <f ca="1">J71</f>
-        <v>222188.10810810808</v>
-      </c>
-      <c r="K109" s="352"/>
+        <v>269708.10810810811</v>
+      </c>
+      <c r="K109" s="311"/>
       <c r="L109" s="166"/>
     </row>
     <row r="110" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42319,8 +42355,8 @@
       <c r="G110" s="117"/>
       <c r="H110" s="117"/>
       <c r="I110" s="161"/>
-      <c r="J110" s="350"/>
-      <c r="K110" s="350"/>
+      <c r="J110" s="309"/>
+      <c r="K110" s="309"/>
       <c r="L110" s="120"/>
     </row>
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42338,7 +42374,7 @@
       <c r="J111" s="169"/>
       <c r="K111" s="170">
         <f ca="1">K73</f>
-        <v>2242080</v>
+        <v>2721600</v>
       </c>
       <c r="L111" s="166"/>
     </row>
@@ -42370,11 +42406,11 @@
       <c r="I113" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="353" t="str">
+      <c r="J113" s="306" t="str">
         <f>J75</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K113" s="354"/>
+      <c r="K113" s="307"/>
       <c r="L113" s="120"/>
     </row>
     <row r="114" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42389,11 +42425,11 @@
       <c r="I114" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="353" t="str">
+      <c r="J114" s="306" t="str">
         <f>J76</f>
         <v/>
       </c>
-      <c r="K114" s="354"/>
+      <c r="K114" s="307"/>
       <c r="L114" s="174"/>
     </row>
     <row r="115" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42412,36 +42448,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K83"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="H79:K80"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H41:K42"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K45"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J29:K29"/>
@@ -42452,6 +42458,36 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="H3:K4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H41:K42"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="H79:K80"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K83"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J113:K113"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="6.59375" header="0" footer="0"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/BARU/2023/07 JULI/KELUAR 07.xlsx
+++ b/BARU/2023/07 JULI/KELUAR 07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="175" r:id="rId6"/>
+    <pivotCache cacheId="21" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="280">
   <si>
     <t>Column1</t>
   </si>
@@ -843,6 +843,36 @@
   <si>
     <t>GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRU</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2378</t>
+  </si>
+  <si>
+    <t>MESJKMX5500M</t>
+  </si>
+  <si>
+    <t>MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)</t>
+  </si>
+  <si>
+    <t>4835</t>
+  </si>
+  <si>
+    <t>STAJKHD10CL</t>
+  </si>
+  <si>
+    <t>GUNJKSC848</t>
+  </si>
+  <si>
+    <t>STAPLER JOYKO HD-10CL</t>
+  </si>
+  <si>
+    <t>GUNTING JOYKO SC-848</t>
+  </si>
+  <si>
+    <t>2380</t>
+  </si>
 </sst>
 </file>
 
@@ -856,7 +886,7 @@
     <numFmt numFmtId="166" formatCode="\ "/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,11 +1112,6 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1400,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="364">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2025,30 +2050,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2228,10 +2229,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <font>
         <b val="0"/>
@@ -4033,7 +4031,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="totalRow" dxfId="99"/>
+      <tableStyleElement type="totalRow" dxfId="98"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4897,13 +4895,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45124.676555324077" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="257">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45128.45907060185" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="257">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="32">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="87" count="25">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="97" count="29">
         <n v="3"/>
         <s v=""/>
         <n v="6"/>
@@ -4929,16 +4927,20 @@
         <n v="80"/>
         <n v="85"/>
         <n v="87"/>
+        <n v="89"/>
+        <n v="91"/>
+        <n v="94"/>
+        <n v="97"/>
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23070001" maxValue="23070024"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23070001" maxValue="23070028"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-07-04T00:00:00" maxDate="2023-07-16T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-06-30T00:00:00" maxDate="2023-07-22T00:00:00"/>
     </cacheField>
     <cacheField name="H_TGL" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="15"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="21"/>
     </cacheField>
     <cacheField name="h_Kode Sales :_1" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4959,7 +4961,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="1000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="1200"/>
     </cacheField>
     <cacheField name="Unit" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4995,7 +4997,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="87"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="97"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
@@ -5016,7 +5018,7 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="38880" maxValue="31500000"/>
     </cacheField>
     <cacheField name="Total Invoice" numFmtId="43">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="578880" maxValue="43944768"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="43944768"/>
     </cacheField>
     <cacheField name="KETERANGAN" numFmtId="43">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -7960,36 +7962,36 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
+    <x v="25"/>
+    <n v="23070025"/>
+    <d v="2023-06-30T00:00:00"/>
+    <n v="0"/>
     <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
+    <s v=" "/>
+    <s v=" "/>
+    <s v="AM 23070025"/>
+    <s v="   "/>
+    <e v="#N/A"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=""/>
+    <s v=""/>
+    <s v=""/>
+    <s v=""/>
+    <s v=""/>
+    <s v=""/>
+    <n v="0"/>
     <m/>
     <s v=""/>
   </r>
@@ -8028,38 +8030,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="26"/>
+    <n v="23070026"/>
+    <d v="2023-07-20T00:00:00"/>
+    <n v="20"/>
+    <s v="G"/>
+    <s v="2378"/>
+    <s v="REJOAGUNG"/>
+    <s v="AM 23070026"/>
+    <s v="G 2378"/>
+    <s v="LILY JULIAWATI (REJO AGUNG) JOMBANG"/>
+    <n v="300"/>
+    <s v="GRS"/>
+    <n v="10"/>
+    <s v="PENJKP88"/>
+    <s v="PENSIL JOYKO 2B P-88"/>
+    <s v="PENSIL JOYKO 2B P-88"/>
+    <n v="104400"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="27405000"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="91"/>
+    <n v="2"/>
+    <n v="31320000"/>
+    <n v="3915000"/>
+    <n v="0"/>
+    <n v="3915000"/>
+    <n v="27405000"/>
+    <n v="28113750"/>
+    <m/>
+    <s v="PENSIL JOYKO 2B P-88GRS104400"/>
   </r>
   <r>
     <x v="1"/>
@@ -8072,28 +8074,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="20"/>
+    <s v="PCS"/>
+    <n v="1"/>
+    <s v="MESJKMX5500M"/>
+    <s v="MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)"/>
+    <s v="MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)"/>
+    <n v="40500"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="708750"/>
+    <m/>
+    <m/>
+    <n v="91"/>
+    <n v="2"/>
+    <n v="810000"/>
+    <n v="101250"/>
+    <n v="0"/>
+    <n v="101250"/>
+    <n v="708750"/>
+    <s v=""/>
+    <m/>
+    <s v="MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)PCS40500"/>
   </r>
   <r>
     <x v="1"/>
@@ -8130,38 +8132,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="27"/>
+    <n v="23070027"/>
+    <d v="2023-07-20T00:00:00"/>
+    <n v="20"/>
+    <s v="KO"/>
+    <s v="4835"/>
+    <s v="LANCAR"/>
+    <s v="AM 23070027"/>
+    <s v="KO 4835"/>
+    <s v="CV LANCAR JAYA SENTOSA MALANG"/>
+    <n v="1200"/>
+    <s v="PCS"/>
+    <n v="5"/>
+    <s v="STAJKHD10CL"/>
+    <s v="STAPLER JOYKO HD-10CL"/>
+    <s v="STAPLER JOYKO HD-10CL"/>
+    <n v="7000"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="7350000"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="94"/>
+    <n v="2"/>
+    <n v="8400000"/>
+    <n v="1050000"/>
+    <n v="0"/>
+    <n v="1050000"/>
+    <n v="7350000"/>
+    <n v="8578500"/>
+    <m/>
+    <s v="STAPLER JOYKO HD-10CLPCS7000"/>
   </r>
   <r>
     <x v="1"/>
@@ -8174,28 +8176,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="144"/>
+    <s v="PCS"/>
+    <n v="1"/>
+    <s v="GUNJKSC848"/>
+    <s v="GUNTING JOYKO SC-848"/>
+    <s v="GUNTING JOYKO SC-848"/>
+    <n v="9750"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="1228500"/>
+    <m/>
+    <m/>
+    <n v="94"/>
+    <n v="2"/>
+    <n v="1404000"/>
+    <n v="175500"/>
+    <n v="0"/>
+    <n v="175500"/>
+    <n v="1228500"/>
+    <s v=""/>
+    <m/>
+    <s v="GUNTING JOYKO SC-848PCS9750"/>
   </r>
   <r>
     <x v="1"/>
@@ -8232,38 +8234,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="28"/>
+    <n v="23070028"/>
+    <d v="2023-07-21T00:00:00"/>
+    <n v="21"/>
+    <s v="KO"/>
+    <s v="2380"/>
+    <s v="ANUGERAH"/>
+    <s v="AM 23070028"/>
+    <s v="KO 2380"/>
+    <s v="CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO"/>
+    <n v="20"/>
+    <s v="LSN"/>
+    <n v="2"/>
+    <s v="STAKENHD50"/>
+    <s v="STAPLER KENKO HD-50"/>
+    <s v="STAPLER KENKO HD-50"/>
+    <n v="228000"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="3944400"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="97"/>
+    <n v="1"/>
+    <n v="4560000"/>
+    <n v="615600"/>
+    <n v="0"/>
+    <n v="615600"/>
+    <n v="3944400"/>
+    <n v="3944400"/>
+    <m/>
+    <s v="STAPLER KENKO HD-50LSN228000"/>
   </r>
   <r>
     <x v="1"/>
@@ -13777,11 +13779,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="175" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="26">
+      <items count="30">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
@@ -13806,6 +13808,10 @@
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -13845,7 +13851,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="26">
+  <rowItems count="30">
     <i>
       <x/>
     </i>
@@ -13921,6 +13927,18 @@
     <i>
       <x v="24"/>
     </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -13929,7 +13947,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="61">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -13943,73 +13961,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF260" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF260" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="95">
   <autoFilter ref="A2:AF259"/>
   <tableColumns count="32">
-    <tableColumn id="16" name="//" dataDxfId="95" totalsRowDxfId="32">
+    <tableColumn id="16" name="//" dataDxfId="94" totalsRowDxfId="31">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="94" totalsRowDxfId="31">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="93" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="93" totalsRowDxfId="30">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="92" totalsRowDxfId="29">
       <calculatedColumnFormula>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="H_TGL" dataDxfId="92" totalsRowDxfId="29"/>
-    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="91" totalsRowDxfId="28"/>
-    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="90" totalsRowDxfId="27"/>
-    <tableColumn id="20" name="h_toko" dataDxfId="89" totalsRowDxfId="26"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="88" totalsRowDxfId="25">
+    <tableColumn id="32" name="H_TGL" dataDxfId="91" totalsRowDxfId="28"/>
+    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="90" totalsRowDxfId="27"/>
+    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="89" totalsRowDxfId="26"/>
+    <tableColumn id="20" name="h_toko" dataDxfId="88" totalsRowDxfId="25"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="87" totalsRowDxfId="24">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="87" totalsRowDxfId="24">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="86" totalsRowDxfId="23">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="86" totalsRowDxfId="23">
+    <tableColumn id="4" name="Toko" dataDxfId="85" totalsRowDxfId="22">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="85" totalsRowDxfId="22"/>
-    <tableColumn id="6" name="Unit" dataDxfId="84" totalsRowDxfId="21"/>
-    <tableColumn id="7" name="C" dataDxfId="83" totalsRowDxfId="20"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="82" totalsRowDxfId="19"/>
-    <tableColumn id="10" name="Column1" dataDxfId="81" totalsRowDxfId="18">
+    <tableColumn id="5" name="Qty" dataDxfId="84" totalsRowDxfId="21"/>
+    <tableColumn id="6" name="Unit" dataDxfId="83" totalsRowDxfId="20"/>
+    <tableColumn id="7" name="C" dataDxfId="82" totalsRowDxfId="19"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="81" totalsRowDxfId="18"/>
+    <tableColumn id="10" name="Column1" dataDxfId="80" totalsRowDxfId="17">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="80" totalsRowDxfId="17"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="79" totalsRowDxfId="16"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="78" totalsRowDxfId="15"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="77" totalsRowDxfId="14"/>
-    <tableColumn id="23" name="Amount" dataDxfId="76" totalsRowDxfId="13">
+    <tableColumn id="9" name="Item Description" dataDxfId="79" totalsRowDxfId="16"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="78" totalsRowDxfId="15"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="77" totalsRowDxfId="14"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="76" totalsRowDxfId="13"/>
+    <tableColumn id="23" name="Amount" dataDxfId="75" totalsRowDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="75" totalsRowDxfId="12"/>
-    <tableColumn id="15" name="edited :" dataDxfId="74" totalsRowDxfId="11"/>
-    <tableColumn id="21" name="h_id" dataDxfId="73" totalsRowDxfId="10">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="74" totalsRowDxfId="11"/>
+    <tableColumn id="15" name="edited :" dataDxfId="73" totalsRowDxfId="10"/>
+    <tableColumn id="21" name="h_id" dataDxfId="72" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="72" totalsRowDxfId="9">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="71" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="71" totalsRowDxfId="8">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="70" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="h_disc 1" dataDxfId="70" totalsRowDxfId="7">
+    <tableColumn id="31" name="h_disc 1" dataDxfId="69" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="h_disc 2" dataDxfId="69" totalsRowDxfId="6">
+    <tableColumn id="30" name="h_disc 2" dataDxfId="68" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="68" totalsRowDxfId="5">
+    <tableColumn id="25" name="h_diskon" dataDxfId="67" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="67" totalsRowDxfId="4">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="66" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="66" totalsRowDxfId="3">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="65" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="65" totalsRowDxfId="2"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="64" totalsRowDxfId="1">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="64" totalsRowDxfId="1"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="63" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14018,74 +14036,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="59">
   <autoFilter ref="C4:O57"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="59">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="58">
       <calculatedColumnFormula>IF(ROW()-(COUNTBLANK($C$1:$C$3)+1)&lt;=jNota,A5,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="58">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="57">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="57">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="56">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="56">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="55">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="55">
+    <tableColumn id="5" name="Toko" dataDxfId="54">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="44">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="43">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="43">
+    <tableColumn id="15" name="edited" dataDxfId="42">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="4" dataDxfId="42"/>
+    <tableColumn id="12" name="4" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="Q4:W57"/>
   <tableColumns count="7">
-    <tableColumn id="8" name="AM" dataDxfId="40">
+    <tableColumn id="8" name="AM" dataDxfId="39">
       <calculatedColumnFormula>Table4[[#Headers],[AM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="---" dataDxfId="39">
+    <tableColumn id="2" name="---" dataDxfId="38">
       <calculatedColumnFormula>R$3+ROW()-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No. Invoice :" dataDxfId="38">
+    <tableColumn id="7" name="No. Invoice :" dataDxfId="37">
       <calculatedColumnFormula>IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kode Sales :" dataDxfId="37">
+    <tableColumn id="9" name="Kode Sales :" dataDxfId="36">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="36">
+    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="35">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total Invoice" dataDxfId="35">
+    <tableColumn id="4" name="Total Invoice" dataDxfId="34">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pembuat nota" dataDxfId="34">
+    <tableColumn id="3" name="pembuat nota" dataDxfId="33">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14104,7 +14122,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="33">
+    <tableColumn id="5" name="e" dataDxfId="32">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14402,8 +14420,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T97" sqref="T97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22310,29 +22328,41 @@
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A89" s="288" t="str">
+      <c r="A89" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B89" s="288" t="str">
+        <v>89</v>
+      </c>
+      <c r="B89" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B88))</f>
-        <v/>
-      </c>
-      <c r="C89" s="282" t="str">
+        <v>23070025</v>
+      </c>
+      <c r="C89" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45107</v>
+      </c>
+      <c r="D89" s="293">
+        <v>0</v>
+      </c>
+      <c r="E89" s="281" t="s">
+        <v>270</v>
+      </c>
+      <c r="F89" s="283" t="s">
+        <v>270</v>
+      </c>
+      <c r="G89" s="281" t="s">
+        <v>270</v>
       </c>
       <c r="H89" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070025</v>
       </c>
       <c r="I89" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J89" s="288" t="str">
+        <v xml:space="preserve">   </v>
+      </c>
+      <c r="J89" s="288" t="e">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="O89" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
@@ -22372,9 +22402,9 @@
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
         <v/>
       </c>
-      <c r="AD89" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+      <c r="AD89" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>0</v>
       </c>
       <c r="AE89" s="284"/>
       <c r="AF89" s="284" t="str">
@@ -22456,76 +22486,110 @@
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A91" s="288" t="str">
+      <c r="A91" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B91" s="288" t="str">
+        <v>91</v>
+      </c>
+      <c r="B91" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B90))</f>
-        <v/>
-      </c>
-      <c r="C91" s="282" t="str">
+        <v>23070026</v>
+      </c>
+      <c r="C91" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45127</v>
+      </c>
+      <c r="D91" s="293">
+        <v>20</v>
+      </c>
+      <c r="E91" s="281" t="s">
+        <v>129</v>
+      </c>
+      <c r="F91" s="283" t="s">
+        <v>271</v>
+      </c>
+      <c r="G91" s="281" t="s">
+        <v>93</v>
       </c>
       <c r="H91" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070026</v>
       </c>
       <c r="I91" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 2378</v>
       </c>
       <c r="J91" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="K91" s="281">
+        <v>300</v>
+      </c>
+      <c r="L91" s="281" t="s">
+        <v>158</v>
+      </c>
+      <c r="M91" s="281">
+        <v>10</v>
+      </c>
+      <c r="N91" s="281" t="s">
+        <v>232</v>
       </c>
       <c r="O91" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q91" s="284"/>
-      <c r="R91" s="285"/>
-      <c r="T91" s="284" t="str">
+        <v>PENSIL JOYKO 2B P-88</v>
+      </c>
+      <c r="P91" s="281" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q91" s="284">
+        <v>104400</v>
+      </c>
+      <c r="R91" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T91" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W91" s="288" t="str">
+        <v>27405000</v>
+      </c>
+      <c r="U91" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W91" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X91" s="288" t="str">
+        <v>91</v>
+      </c>
+      <c r="X91" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y91" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y91" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z91" s="284" t="str">
+        <v>31320000</v>
+      </c>
+      <c r="Z91" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA91" s="284" t="str">
+        <v>3915000</v>
+      </c>
+      <c r="AA91" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB91" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC91" s="284" t="str">
+        <v>3915000</v>
+      </c>
+      <c r="AC91" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD91" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>27405000</v>
+      </c>
+      <c r="AD91" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>28113750</v>
       </c>
       <c r="AE91" s="284"/>
       <c r="AF91" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL JOYKO 2B P-88GRS104400</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
@@ -22553,43 +22617,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K92" s="281">
+        <v>20</v>
+      </c>
+      <c r="L92" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="M92" s="281">
+        <v>1</v>
+      </c>
+      <c r="N92" s="281" t="s">
+        <v>272</v>
+      </c>
       <c r="O92" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q92" s="284"/>
-      <c r="R92" s="285"/>
-      <c r="T92" s="284" t="str">
+        <v>MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)</v>
+      </c>
+      <c r="P92" s="281" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q92" s="284">
+        <v>40500</v>
+      </c>
+      <c r="R92" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T92" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W92" s="288" t="str">
+        <v>708750</v>
+      </c>
+      <c r="W92" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X92" s="288" t="str">
+        <v>91</v>
+      </c>
+      <c r="X92" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y92" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y92" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z92" s="284" t="str">
+        <v>810000</v>
+      </c>
+      <c r="Z92" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA92" s="284" t="str">
+        <v>101250</v>
+      </c>
+      <c r="AA92" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB92" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC92" s="284" t="str">
+        <v>101250</v>
+      </c>
+      <c r="AC92" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>708750</v>
       </c>
       <c r="AD92" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22598,7 +22681,7 @@
       <c r="AE92" s="284"/>
       <c r="AF92" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)PCS40500</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
@@ -22675,76 +22758,110 @@
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A94" s="288" t="str">
+      <c r="A94" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B94" s="288" t="str">
+        <v>94</v>
+      </c>
+      <c r="B94" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B93))</f>
-        <v/>
-      </c>
-      <c r="C94" s="282" t="str">
+        <v>23070027</v>
+      </c>
+      <c r="C94" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45127</v>
+      </c>
+      <c r="D94" s="293">
+        <v>20</v>
+      </c>
+      <c r="E94" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="283" t="s">
+        <v>274</v>
+      </c>
+      <c r="G94" s="281" t="s">
+        <v>94</v>
       </c>
       <c r="H94" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070027</v>
       </c>
       <c r="I94" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 4835</v>
       </c>
       <c r="J94" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV LANCAR JAYA SENTOSA MALANG</v>
+      </c>
+      <c r="K94" s="281">
+        <v>1200</v>
+      </c>
+      <c r="L94" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="M94" s="281">
+        <v>5</v>
+      </c>
+      <c r="N94" s="281" t="s">
+        <v>275</v>
       </c>
       <c r="O94" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q94" s="284"/>
-      <c r="R94" s="285"/>
-      <c r="T94" s="284" t="str">
+        <v>STAPLER JOYKO HD-10CL</v>
+      </c>
+      <c r="P94" s="281" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q94" s="284">
+        <v>7000</v>
+      </c>
+      <c r="R94" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T94" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W94" s="288" t="str">
+        <v>7350000</v>
+      </c>
+      <c r="U94" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W94" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X94" s="288" t="str">
+        <v>94</v>
+      </c>
+      <c r="X94" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y94" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y94" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z94" s="284" t="str">
+        <v>8400000</v>
+      </c>
+      <c r="Z94" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA94" s="284" t="str">
+        <v>1050000</v>
+      </c>
+      <c r="AA94" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB94" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC94" s="284" t="str">
+        <v>1050000</v>
+      </c>
+      <c r="AC94" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD94" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>7350000</v>
+      </c>
+      <c r="AD94" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>8578500</v>
       </c>
       <c r="AE94" s="284"/>
       <c r="AF94" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STAPLER JOYKO HD-10CLPCS7000</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
@@ -22772,43 +22889,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K95" s="281">
+        <v>144</v>
+      </c>
+      <c r="L95" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="M95" s="281">
+        <v>1</v>
+      </c>
+      <c r="N95" s="281" t="s">
+        <v>276</v>
+      </c>
       <c r="O95" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q95" s="284"/>
-      <c r="R95" s="285"/>
-      <c r="T95" s="284" t="str">
+        <v>GUNTING JOYKO SC-848</v>
+      </c>
+      <c r="P95" s="281" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q95" s="284">
+        <v>9750</v>
+      </c>
+      <c r="R95" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T95" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W95" s="288" t="str">
+        <v>1228500</v>
+      </c>
+      <c r="W95" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X95" s="288" t="str">
+        <v>94</v>
+      </c>
+      <c r="X95" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y95" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y95" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z95" s="284" t="str">
+        <v>1404000</v>
+      </c>
+      <c r="Z95" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA95" s="284" t="str">
+        <v>175500</v>
+      </c>
+      <c r="AA95" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB95" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC95" s="284" t="str">
+        <v>175500</v>
+      </c>
+      <c r="AC95" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>1228500</v>
       </c>
       <c r="AD95" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22817,7 +22953,7 @@
       <c r="AE95" s="284"/>
       <c r="AF95" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GUNTING JOYKO SC-848PCS9750</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
@@ -22894,76 +23030,110 @@
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A97" s="288" t="str">
+      <c r="A97" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B97" s="288" t="str">
+        <v>97</v>
+      </c>
+      <c r="B97" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B96))</f>
-        <v/>
-      </c>
-      <c r="C97" s="282" t="str">
+        <v>23070028</v>
+      </c>
+      <c r="C97" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45128</v>
+      </c>
+      <c r="D97" s="293">
+        <v>21</v>
+      </c>
+      <c r="E97" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="F97" s="283" t="s">
+        <v>279</v>
+      </c>
+      <c r="G97" s="281" t="s">
+        <v>84</v>
       </c>
       <c r="H97" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070028</v>
       </c>
       <c r="I97" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 2380</v>
       </c>
       <c r="J97" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="K97" s="281">
+        <v>20</v>
+      </c>
+      <c r="L97" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M97" s="281">
+        <v>2</v>
+      </c>
+      <c r="N97" s="281" t="s">
+        <v>171</v>
       </c>
       <c r="O97" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q97" s="284"/>
-      <c r="R97" s="285"/>
-      <c r="T97" s="284" t="str">
+        <v>STAPLER KENKO HD-50</v>
+      </c>
+      <c r="P97" s="281" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q97" s="284">
+        <v>228000</v>
+      </c>
+      <c r="R97" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T97" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W97" s="288" t="str">
+        <v>3944400</v>
+      </c>
+      <c r="U97" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W97" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X97" s="288" t="str">
+        <v>97</v>
+      </c>
+      <c r="X97" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y97" s="284" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y97" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z97" s="284" t="str">
+        <v>4560000</v>
+      </c>
+      <c r="Z97" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA97" s="284" t="str">
+        <v>615600</v>
+      </c>
+      <c r="AA97" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB97" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC97" s="284" t="str">
+        <v>615600</v>
+      </c>
+      <c r="AC97" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD97" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>3944400</v>
+      </c>
+      <c r="AD97" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>3944400</v>
       </c>
       <c r="AE97" s="284"/>
       <c r="AF97" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STAPLER KENKO HD-50LSN228000</v>
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
@@ -34794,38 +34964,22 @@
       </c>
     </row>
     <row r="260" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A260" s="298"/>
-      <c r="B260" s="298"/>
-      <c r="C260" s="299"/>
-      <c r="D260" s="300"/>
-      <c r="E260" s="301"/>
-      <c r="F260" s="302"/>
-      <c r="G260" s="301"/>
-      <c r="H260" s="298"/>
-      <c r="I260" s="303"/>
-      <c r="J260" s="298"/>
-      <c r="K260" s="301"/>
-      <c r="L260" s="301"/>
-      <c r="M260" s="301"/>
-      <c r="N260" s="301"/>
-      <c r="O260" s="298"/>
-      <c r="P260" s="301"/>
-      <c r="Q260" s="304"/>
-      <c r="R260" s="305"/>
-      <c r="S260" s="305"/>
-      <c r="T260" s="304"/>
-      <c r="U260" s="304"/>
-      <c r="V260" s="301"/>
-      <c r="W260" s="298"/>
-      <c r="X260" s="298"/>
-      <c r="Y260" s="304"/>
-      <c r="Z260" s="304"/>
-      <c r="AA260" s="304"/>
-      <c r="AB260" s="304"/>
-      <c r="AC260" s="304"/>
-      <c r="AD260" s="304"/>
-      <c r="AE260" s="304"/>
-      <c r="AF260" s="304"/>
+      <c r="A260" s="288"/>
+      <c r="B260" s="288"/>
+      <c r="H260" s="288"/>
+      <c r="I260" s="289"/>
+      <c r="J260" s="288"/>
+      <c r="O260" s="288"/>
+      <c r="Q260" s="284"/>
+      <c r="R260" s="285"/>
+      <c r="T260" s="284"/>
+      <c r="W260" s="288"/>
+      <c r="X260" s="288"/>
+      <c r="Y260" s="284"/>
+      <c r="Z260" s="284"/>
+      <c r="AA260" s="284"/>
+      <c r="AE260" s="284"/>
+      <c r="AF260" s="284"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34842,7 +34996,7 @@
   <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34910,7 +35064,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>COUNT(Table1[//])</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" s="295" t="str">
         <f>"["&amp;G2&amp;".xlsx]Invoice"</f>
@@ -34919,7 +35073,7 @@
       <c r="H3" s="297"/>
       <c r="N3" s="85">
         <f>preview!K1</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="Q3" t="str">
         <f>"'"&amp;pointer&amp;"'"&amp;"!$"&amp;1:1&amp;":$"&amp;1:1</f>
@@ -35020,7 +35174,7 @@
       </c>
       <c r="Z4" s="279">
         <f ca="1">SUM(pajak[Total Invoice])</f>
-        <v>259224634.5</v>
+        <v>299861284.5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -35084,32 +35238,32 @@
         <f t="shared" ref="R5:R36" si="1">R$3+ROW()-5</f>
         <v>23070001</v>
       </c>
-      <c r="S5" s="183" t="e">
+      <c r="S5" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T5" s="183" t="e">
+        <v>2</v>
+      </c>
+      <c r="T5" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U5" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U5" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V5" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V5" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W5" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="W5" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="s">
         <v>25</v>
       </c>
       <c r="Z5" s="87">
         <f ca="1">SUM(pajak[PPN 11%])</f>
-        <v>25688927.74324324</v>
+        <v>29715983.148648646</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -35173,29 +35327,29 @@
         <f t="shared" si="1"/>
         <v>23070002</v>
       </c>
-      <c r="S6" s="183" t="e">
+      <c r="S6" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T6" s="183" t="e">
+        <v>116</v>
+      </c>
+      <c r="T6" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U6" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U6" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V6" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V6" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W6" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W6" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="87">
         <f ca="1">(Z4/1.11)*11%</f>
-        <v>25688927.74324324</v>
+        <v>29715983.148648646</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -35259,25 +35413,25 @@
         <f t="shared" si="1"/>
         <v>23070003</v>
       </c>
-      <c r="S7" s="183" t="e">
+      <c r="S7" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T7" s="183" t="e">
+        <v>230</v>
+      </c>
+      <c r="T7" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U7" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U7" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V7" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V7" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W7" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W7" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -35341,25 +35495,25 @@
         <f t="shared" si="1"/>
         <v>23070004</v>
       </c>
-      <c r="S8" s="183" t="e">
+      <c r="S8" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T8" s="183" t="e">
+        <v>344</v>
+      </c>
+      <c r="T8" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U8" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U8" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V8" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V8" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W8" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W8" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -35423,25 +35577,25 @@
         <f t="shared" si="1"/>
         <v>23070005</v>
       </c>
-      <c r="S9" s="183" t="e">
+      <c r="S9" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T9" s="183" t="e">
+        <v>458</v>
+      </c>
+      <c r="T9" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U9" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U9" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V9" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V9" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W9" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W9" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -35505,25 +35659,25 @@
         <f t="shared" si="1"/>
         <v>23070006</v>
       </c>
-      <c r="S10" s="183" t="e">
+      <c r="S10" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T10" s="183" t="e">
+        <v>572</v>
+      </c>
+      <c r="T10" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U10" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U10" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V10" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V10" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W10" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W10" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -35587,25 +35741,25 @@
         <f t="shared" si="1"/>
         <v>23070007</v>
       </c>
-      <c r="S11" s="183" t="e">
+      <c r="S11" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T11" s="183" t="e">
+        <v>686</v>
+      </c>
+      <c r="T11" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U11" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U11" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V11" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V11" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W11" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W11" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -35669,25 +35823,25 @@
         <f t="shared" si="1"/>
         <v>23070008</v>
       </c>
-      <c r="S12" s="183" t="e">
+      <c r="S12" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T12" s="183" t="e">
+        <v>800</v>
+      </c>
+      <c r="T12" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U12" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U12" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V12" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V12" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W12" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W12" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -35751,25 +35905,25 @@
         <f t="shared" si="1"/>
         <v>23070009</v>
       </c>
-      <c r="S13" s="183" t="e">
+      <c r="S13" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T13" s="183" t="e">
+        <v>914</v>
+      </c>
+      <c r="T13" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U13" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U13" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V13" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V13" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W13" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W13" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -35833,25 +35987,25 @@
         <f t="shared" si="1"/>
         <v>23070010</v>
       </c>
-      <c r="S14" s="183" t="e">
+      <c r="S14" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T14" s="183" t="e">
+        <v>1028</v>
+      </c>
+      <c r="T14" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U14" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U14" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V14" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V14" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W14" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W14" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -35915,25 +36069,25 @@
         <f t="shared" si="1"/>
         <v>23070011</v>
       </c>
-      <c r="S15" s="183" t="e">
+      <c r="S15" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T15" s="183" t="e">
+        <v>1142</v>
+      </c>
+      <c r="T15" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U15" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U15" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V15" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V15" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W15" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W15" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -35997,25 +36151,25 @@
         <f t="shared" si="1"/>
         <v>23070012</v>
       </c>
-      <c r="S16" s="183" t="e">
+      <c r="S16" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T16" s="183" t="e">
+        <v>1256</v>
+      </c>
+      <c r="T16" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U16" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U16" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V16" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V16" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W16" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W16" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -36079,25 +36233,25 @@
         <f t="shared" si="1"/>
         <v>23070013</v>
       </c>
-      <c r="S17" s="183" t="e">
+      <c r="S17" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T17" s="183" t="e">
+        <v>1370</v>
+      </c>
+      <c r="T17" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U17" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U17" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V17" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V17" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W17" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W17" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -36161,25 +36315,25 @@
         <f t="shared" si="1"/>
         <v>23070014</v>
       </c>
-      <c r="S18" s="183" t="e">
+      <c r="S18" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T18" s="183" t="e">
+        <v>1484</v>
+      </c>
+      <c r="T18" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U18" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U18" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V18" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V18" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W18" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W18" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -36243,25 +36397,25 @@
         <f t="shared" si="1"/>
         <v>23070015</v>
       </c>
-      <c r="S19" s="183" t="e">
+      <c r="S19" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T19" s="183" t="e">
+        <v>1598</v>
+      </c>
+      <c r="T19" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U19" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U19" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V19" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V19" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W19" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W19" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -36325,25 +36479,25 @@
         <f t="shared" si="1"/>
         <v>23070016</v>
       </c>
-      <c r="S20" s="183" t="e">
+      <c r="S20" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T20" s="183" t="e">
+        <v>1712</v>
+      </c>
+      <c r="T20" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U20" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U20" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V20" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V20" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W20" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W20" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -36408,25 +36562,25 @@
         <f t="shared" si="1"/>
         <v>23070017</v>
       </c>
-      <c r="S21" s="183" t="e">
+      <c r="S21" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T21" s="183" t="e">
+        <v>1826</v>
+      </c>
+      <c r="T21" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U21" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U21" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V21" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V21" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W21" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W21" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -36490,25 +36644,25 @@
         <f t="shared" si="1"/>
         <v>23070018</v>
       </c>
-      <c r="S22" s="183" t="e">
+      <c r="S22" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T22" s="183" t="e">
+        <v>1940</v>
+      </c>
+      <c r="T22" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U22" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U22" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V22" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V22" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W22" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W22" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -36572,25 +36726,25 @@
         <f t="shared" si="1"/>
         <v>23070019</v>
       </c>
-      <c r="S23" s="183" t="e">
+      <c r="S23" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T23" s="183" t="e">
+        <v>2054</v>
+      </c>
+      <c r="T23" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U23" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U23" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V23" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V23" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W23" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W23" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -36654,25 +36808,25 @@
         <f t="shared" si="1"/>
         <v>23070020</v>
       </c>
-      <c r="S24" s="183" t="e">
+      <c r="S24" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T24" s="183" t="e">
+        <v>2168</v>
+      </c>
+      <c r="T24" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U24" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U24" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V24" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V24" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W24" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W24" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -36736,25 +36890,25 @@
         <f t="shared" si="1"/>
         <v>23070021</v>
       </c>
-      <c r="S25" s="183" t="e">
+      <c r="S25" s="183">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T25" s="183" t="e">
+        <v>2282</v>
+      </c>
+      <c r="T25" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U25" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="U25" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V25" s="183" t="e">
+        <v>1</v>
+      </c>
+      <c r="V25" s="183">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W25" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W25" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -36818,25 +36972,25 @@
         <f t="shared" si="1"/>
         <v>23070022</v>
       </c>
-      <c r="S26" s="184" t="e">
+      <c r="S26" s="184">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T26" s="184" t="e">
+        <v>2396</v>
+      </c>
+      <c r="T26" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U26" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="U26" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V26" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="V26" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W26" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W26" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -36900,25 +37054,25 @@
         <f t="shared" si="1"/>
         <v>23070023</v>
       </c>
-      <c r="S27" s="184" t="e">
+      <c r="S27" s="184">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T27" s="184" t="e">
+        <v>2510</v>
+      </c>
+      <c r="T27" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U27" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="U27" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V27" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="V27" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W27" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W27" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -36982,72 +37136,74 @@
         <f t="shared" si="1"/>
         <v>23070024</v>
       </c>
-      <c r="S28" s="184" t="e">
+      <c r="S28" s="184">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T28" s="184" t="e">
+        <v>2624</v>
+      </c>
+      <c r="T28" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U28" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="U28" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V28" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="V28" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W28" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W28" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="292"/>
-      <c r="C29" s="85" t="str">
+      <c r="A29" s="292">
+        <v>89</v>
+      </c>
+      <c r="C29" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>89</v>
       </c>
       <c r="D29" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E29" s="88" t="str">
+        <v>AM 23070025</v>
+      </c>
+      <c r="E29" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45107</v>
       </c>
       <c r="F29" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="G29" s="85" t="str">
+        <v xml:space="preserve">   </v>
+      </c>
+      <c r="G29" s="85" t="e">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H29" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I29" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J29" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K29" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L29" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
-      </c>
-      <c r="M29" s="85" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="85">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N29" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37062,74 +37218,74 @@
         <f t="shared" si="1"/>
         <v>23070025</v>
       </c>
-      <c r="S29" s="184" t="b">
+      <c r="S29" s="184">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
+        <v>2738</v>
+      </c>
+      <c r="T29" s="184" t="b">
+        <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
         <v>0</v>
       </c>
-      <c r="T29" s="184" t="e">
+      <c r="U29" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U29" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V29" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V29" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="W29" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W29" s="184" t="e">
-        <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="292" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="85" t="str">
+      <c r="A30" s="292">
+        <v>91</v>
+      </c>
+      <c r="C30" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>91</v>
       </c>
       <c r="D30" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E30" s="88" t="str">
+        <v>AM 23070026</v>
+      </c>
+      <c r="E30" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45127</v>
       </c>
       <c r="F30" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>G 2378</v>
       </c>
       <c r="G30" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H30" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I30" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J30" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K30" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L30" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="H30" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>32130000</v>
+      </c>
+      <c r="I30" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>4016250</v>
+      </c>
+      <c r="J30" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>28113750</v>
+      </c>
+      <c r="K30" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>2786047.297297297</v>
+      </c>
+      <c r="L30" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>28113750</v>
       </c>
       <c r="M30" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N30" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37145,71 +37301,74 @@
         <f t="shared" si="1"/>
         <v>23070026</v>
       </c>
-      <c r="S30" s="184" t="b">
+      <c r="S30" s="184">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="184" t="e">
+        <v>2852</v>
+      </c>
+      <c r="T30" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U30" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="U30" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V30" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="V30" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W30" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W30" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C31" s="85" t="str">
+      <c r="A31" s="292">
+        <v>94</v>
+      </c>
+      <c r="C31" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>94</v>
       </c>
       <c r="D31" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E31" s="88" t="str">
+        <v>AM 23070027</v>
+      </c>
+      <c r="E31" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45127</v>
       </c>
       <c r="F31" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 4835</v>
       </c>
       <c r="G31" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H31" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I31" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J31" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K31" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L31" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>CV LANCAR JAYA SENTOSA MALANG</v>
+      </c>
+      <c r="H31" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>9804000</v>
+      </c>
+      <c r="I31" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>1225500</v>
+      </c>
+      <c r="J31" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>8578500</v>
+      </c>
+      <c r="K31" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>850121.62162162154</v>
+      </c>
+      <c r="L31" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>8578500</v>
       </c>
       <c r="M31" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N31" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37224,71 +37383,74 @@
         <f t="shared" si="1"/>
         <v>23070027</v>
       </c>
-      <c r="S31" s="184" t="b">
+      <c r="S31" s="184">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="184" t="e">
+        <v>2966</v>
+      </c>
+      <c r="T31" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U31" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="U31" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V31" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="V31" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W31" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W31" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="85" t="str">
+      <c r="A32" s="292">
+        <v>97</v>
+      </c>
+      <c r="C32" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>97</v>
       </c>
       <c r="D32" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E32" s="88" t="str">
+        <v>AM 23070028</v>
+      </c>
+      <c r="E32" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45128</v>
       </c>
       <c r="F32" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 2380</v>
       </c>
       <c r="G32" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H32" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I32" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J32" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K32" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L32" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="H32" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>4560000</v>
+      </c>
+      <c r="I32" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>615600</v>
+      </c>
+      <c r="J32" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>3944400</v>
+      </c>
+      <c r="K32" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>390886.48648648645</v>
+      </c>
+      <c r="L32" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>3944400</v>
       </c>
       <c r="M32" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N32" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37303,28 +37465,29 @@
         <f t="shared" si="1"/>
         <v>23070028</v>
       </c>
-      <c r="S32" s="184" t="b">
+      <c r="S32" s="184">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="184" t="e">
+        <v>3080</v>
+      </c>
+      <c r="T32" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U32" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="U32" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V32" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="V32" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W32" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W32" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="292"/>
       <c r="C33" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -37386,24 +37549,27 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T33" s="184" t="e">
+      <c r="T33" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U33" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U33" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V33" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V33" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W33" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W33" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="292" t="s">
+        <v>55</v>
+      </c>
       <c r="C34" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -37465,24 +37631,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T34" s="184" t="e">
+      <c r="T34" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U34" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U34" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V34" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V34" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W34" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W34" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C35" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -37544,24 +37710,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T35" s="184" t="e">
+      <c r="T35" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U35" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U35" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V35" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V35" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W35" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W35" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C36" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -37623,24 +37789,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T36" s="184" t="e">
+      <c r="T36" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U36" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U36" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V36" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V36" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W36" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W36" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C37" s="85" t="str">
         <f t="shared" ref="C37:C57" si="2">IF(ROW()-(COUNTBLANK($C$1:$C$3)+1)&lt;=jNota,A37,"")</f>
         <v/>
@@ -37702,24 +37868,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T37" s="184" t="e">
+      <c r="T37" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U37" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U37" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V37" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V37" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W37" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W37" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C38" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37781,24 +37947,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T38" s="184" t="e">
+      <c r="T38" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U38" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U38" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V38" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V38" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W38" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W38" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C39" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37860,24 +38026,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T39" s="184" t="e">
+      <c r="T39" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U39" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U39" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V39" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V39" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W39" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W39" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C40" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37939,24 +38105,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T40" s="184" t="e">
+      <c r="T40" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U40" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U40" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V40" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V40" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W40" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W40" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C41" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38018,24 +38184,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T41" s="184" t="e">
+      <c r="T41" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U41" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U41" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V41" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V41" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W41" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W41" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C42" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38097,24 +38263,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T42" s="184" t="e">
+      <c r="T42" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U42" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U42" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V42" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V42" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W42" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W42" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C43" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38176,24 +38342,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T43" s="184" t="e">
+      <c r="T43" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U43" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U43" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V43" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V43" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W43" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W43" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C44" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38255,24 +38421,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T44" s="184" t="e">
+      <c r="T44" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U44" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U44" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V44" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V44" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W44" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W44" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C45" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38334,24 +38500,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T45" s="184" t="e">
+      <c r="T45" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U45" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U45" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V45" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V45" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W45" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W45" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C46" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38413,24 +38579,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T46" s="184" t="e">
+      <c r="T46" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U46" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U46" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V46" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V46" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W46" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W46" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C47" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38492,24 +38658,24 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T47" s="184" t="e">
+      <c r="T47" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U47" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U47" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V47" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V47" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W47" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W47" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C48" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38571,21 +38737,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T48" s="184" t="e">
+      <c r="T48" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U48" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U48" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V48" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V48" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W48" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W48" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="3:23" x14ac:dyDescent="0.25">
@@ -38650,21 +38816,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T49" s="184" t="e">
+      <c r="T49" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U49" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U49" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V49" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V49" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W49" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W49" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.25">
@@ -38729,21 +38895,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T50" s="184" t="e">
+      <c r="T50" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U50" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U50" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V50" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V50" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W50" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W50" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.25">
@@ -38808,21 +38974,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T51" s="184" t="e">
+      <c r="T51" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U51" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U51" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V51" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V51" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W51" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W51" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="3:23" x14ac:dyDescent="0.25">
@@ -38887,21 +39053,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T52" s="184" t="e">
+      <c r="T52" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U52" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U52" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V52" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V52" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W52" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W52" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:23" x14ac:dyDescent="0.25">
@@ -38966,21 +39132,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T53" s="184" t="e">
+      <c r="T53" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U53" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U53" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V53" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V53" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W53" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W53" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="3:23" x14ac:dyDescent="0.25">
@@ -39045,21 +39211,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T54" s="184" t="e">
+      <c r="T54" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U54" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U54" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V54" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V54" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W54" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W54" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="3:23" x14ac:dyDescent="0.25">
@@ -39124,21 +39290,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T55" s="184" t="e">
+      <c r="T55" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U55" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U55" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V55" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V55" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W55" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W55" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="3:23" x14ac:dyDescent="0.25">
@@ -39203,21 +39369,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T56" s="184" t="e">
+      <c r="T56" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U56" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U56" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V56" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V56" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W56" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W56" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="3:23" x14ac:dyDescent="0.25">
@@ -39282,21 +39448,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T57" s="184" t="e">
+      <c r="T57" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U57" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="U57" s="184" t="b">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V57" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="V57" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W57" s="184" t="e">
+        <v>1</v>
+      </c>
+      <c r="W57" s="184">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.25">
@@ -39306,23 +39472,23 @@
       <c r="E58"/>
       <c r="H58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total])</f>
-        <v>295045400</v>
+        <v>341539400</v>
       </c>
       <c r="I58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Diskon])</f>
-        <v>35820765.5</v>
+        <v>41678115.5</v>
       </c>
       <c r="J58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>259224634.5</v>
+        <v>299861284.5</v>
       </c>
       <c r="K58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>25688927.74324324</v>
+        <v>29715983.148648646</v>
       </c>
       <c r="L58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>259224634.5</v>
+        <v>299861284.5</v>
       </c>
       <c r="M58"/>
       <c r="N58"/>
@@ -39330,10 +39496,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F59:F1048576 F3:F57">
-    <cfRule type="duplicateValues" dxfId="63" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:W2 S4:W1048576">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39351,7 +39517,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J37" sqref="J37:K37"/>
     </sheetView>
   </sheetViews>
@@ -39369,10 +39535,10 @@
     <col min="12" max="12" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -39386,7 +39552,7 @@
       </c>
       <c r="E1" t="str">
         <f>INDEX(Table1[h_toko],newestIdRow-offset)</f>
-        <v>UTAMA</v>
+        <v>ANUGERAH</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
@@ -39395,12 +39561,15 @@
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
         <v>1</v>
       </c>
-      <c r="I1" s="353" t="s">
+      <c r="I1" s="345" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="353"/>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="345"/>
+      <c r="K1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="D2" s="4"/>
       <c r="I2" s="5"/>
@@ -39422,18 +39591,18 @@
       </c>
       <c r="E3" s="8">
         <f>INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23070024</v>
+        <v>23070028</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="360" t="str">
+      <c r="H3" s="352" t="str">
         <f>INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
-        <v>CV UTAMA PUTRA</v>
-      </c>
-      <c r="I3" s="360"/>
-      <c r="J3" s="360"/>
-      <c r="K3" s="361"/>
+        <v>CV PELITA JAYA</v>
+      </c>
+      <c r="I3" s="352"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="353"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39442,14 +39611,14 @@
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="331" t="s">
+      <c r="F4" s="323" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="363"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="354"/>
+      <c r="J4" s="354"/>
+      <c r="K4" s="355"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39458,20 +39627,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="332">
+      <c r="D5" s="324">
         <f>INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
-        <v>45122</v>
-      </c>
-      <c r="E5" s="333"/>
-      <c r="F5" s="331"/>
+        <v>45128</v>
+      </c>
+      <c r="E5" s="325"/>
+      <c r="F5" s="323"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="334" t="str">
+      <c r="H5" s="326" t="str">
         <f>IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
-        <v/>
-      </c>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
-      <c r="K5" s="335"/>
+        <v>(ANUGERAH SEJAHTERA)</v>
+      </c>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="327"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39480,15 +39649,15 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="331"/>
+      <c r="F6" s="323"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="336" t="str">
+      <c r="H6" s="328" t="str">
         <f>INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
-        <v>TULUNG AGUNG</v>
-      </c>
-      <c r="I6" s="336"/>
-      <c r="J6" s="336"/>
-      <c r="K6" s="337"/>
+        <v>PURWOKERTO</v>
+      </c>
+      <c r="I6" s="328"/>
+      <c r="J6" s="328"/>
+      <c r="K6" s="329"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -39499,15 +39668,15 @@
       <c r="C7" s="7"/>
       <c r="D7" s="19" t="str">
         <f>INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>G 4964</v>
+        <v>KO 2380</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="338"/>
-      <c r="I7" s="338"/>
-      <c r="J7" s="338"/>
-      <c r="K7" s="339"/>
+      <c r="H7" s="330"/>
+      <c r="I7" s="330"/>
+      <c r="J7" s="330"/>
+      <c r="K7" s="331"/>
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -39570,7 +39739,7 @@
       </c>
       <c r="B11" s="45">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="C11" s="45" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A11-1))</f>
@@ -39578,21 +39747,21 @@
       </c>
       <c r="D11" s="46">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="47" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRU</v>
+        <v>STAPLER KENKO HD-50</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="H11" s="50">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>21600</v>
+        <v>228000</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)))</f>
-        <v>0.125</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J11" s="51" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)))</f>
@@ -39600,7 +39769,7 @@
       </c>
       <c r="K11" s="52">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>2721600</v>
+        <v>3944400</v>
       </c>
       <c r="L11" s="35"/>
     </row>
@@ -40228,8 +40397,8 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="359"/>
-      <c r="K28" s="359"/>
+      <c r="J28" s="351"/>
+      <c r="K28" s="351"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -40239,11 +40408,11 @@
       <c r="I29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="356">
+      <c r="J29" s="348">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>2721600</v>
-      </c>
-      <c r="K29" s="357"/>
+        <v>3944400</v>
+      </c>
+      <c r="K29" s="349"/>
       <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -40252,8 +40421,8 @@
       <c r="C30" s="65"/>
       <c r="D30" s="24"/>
       <c r="I30" s="67"/>
-      <c r="J30" s="358"/>
-      <c r="K30" s="358"/>
+      <c r="J30" s="350"/>
+      <c r="K30" s="350"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -40276,8 +40445,8 @@
       <c r="C32" s="65"/>
       <c r="D32" s="24"/>
       <c r="I32" s="67"/>
-      <c r="J32" s="359"/>
-      <c r="K32" s="359"/>
+      <c r="J32" s="351"/>
+      <c r="K32" s="351"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -40292,11 +40461,11 @@
       <c r="I33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="356">
+      <c r="J33" s="348">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>269708.10810810811</v>
-      </c>
-      <c r="K33" s="357"/>
+        <v>390886.48648648645</v>
+      </c>
+      <c r="K33" s="349"/>
       <c r="L33" s="72"/>
     </row>
     <row r="34" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -40305,8 +40474,8 @@
       <c r="C34" s="65"/>
       <c r="D34" s="24"/>
       <c r="I34" s="67"/>
-      <c r="J34" s="359"/>
-      <c r="K34" s="359"/>
+      <c r="J34" s="351"/>
+      <c r="K34" s="351"/>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -40320,7 +40489,7 @@
       <c r="J35" s="75"/>
       <c r="K35" s="76">
         <f ca="1">INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>2721600</v>
+        <v>3944400</v>
       </c>
       <c r="L35" s="72"/>
     </row>
@@ -40347,11 +40516,11 @@
       <c r="I37" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="354" t="str">
+      <c r="J37" s="346" t="str">
         <f>INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K37" s="355"/>
+      <c r="K37" s="347"/>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77"/>
@@ -40361,11 +40530,11 @@
       <c r="I38" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="354" t="str">
+      <c r="J38" s="346" t="str">
         <f>INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="355"/>
+      <c r="K38" s="347"/>
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -40404,19 +40573,19 @@
       </c>
       <c r="E41" s="194">
         <f>E3</f>
-        <v>23070024</v>
+        <v>23070028</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="340" t="str">
+      <c r="H41" s="332" t="str">
         <f>H3</f>
-        <v>CV UTAMA PUTRA</v>
-      </c>
-      <c r="I41" s="340"/>
-      <c r="J41" s="340"/>
-      <c r="K41" s="341"/>
+        <v>CV PELITA JAYA</v>
+      </c>
+      <c r="I41" s="332"/>
+      <c r="J41" s="332"/>
+      <c r="K41" s="333"/>
       <c r="L41" s="197"/>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40425,14 +40594,14 @@
       <c r="C42" s="199"/>
       <c r="D42" s="200"/>
       <c r="E42" s="201"/>
-      <c r="F42" s="344" t="s">
+      <c r="F42" s="336" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="202"/>
-      <c r="H42" s="342"/>
-      <c r="I42" s="342"/>
-      <c r="J42" s="342"/>
-      <c r="K42" s="343"/>
+      <c r="H42" s="334"/>
+      <c r="I42" s="334"/>
+      <c r="J42" s="334"/>
+      <c r="K42" s="335"/>
       <c r="L42" s="197"/>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40441,20 +40610,20 @@
         <v>2</v>
       </c>
       <c r="C43" s="192"/>
-      <c r="D43" s="345">
+      <c r="D43" s="337">
         <f>D5</f>
-        <v>45122</v>
-      </c>
-      <c r="E43" s="346"/>
-      <c r="F43" s="344"/>
+        <v>45128</v>
+      </c>
+      <c r="E43" s="338"/>
+      <c r="F43" s="336"/>
       <c r="G43" s="203"/>
-      <c r="H43" s="347" t="str">
+      <c r="H43" s="339" t="str">
         <f>H5</f>
-        <v/>
-      </c>
-      <c r="I43" s="347"/>
-      <c r="J43" s="347"/>
-      <c r="K43" s="348"/>
+        <v>(ANUGERAH SEJAHTERA)</v>
+      </c>
+      <c r="I43" s="339"/>
+      <c r="J43" s="339"/>
+      <c r="K43" s="340"/>
       <c r="L43" s="204"/>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40463,15 +40632,15 @@
       <c r="C44" s="199"/>
       <c r="D44" s="200"/>
       <c r="E44" s="201"/>
-      <c r="F44" s="344"/>
+      <c r="F44" s="336"/>
       <c r="G44" s="203"/>
-      <c r="H44" s="349" t="str">
+      <c r="H44" s="341" t="str">
         <f>H6</f>
-        <v>TULUNG AGUNG</v>
-      </c>
-      <c r="I44" s="349"/>
-      <c r="J44" s="349"/>
-      <c r="K44" s="350"/>
+        <v>PURWOKERTO</v>
+      </c>
+      <c r="I44" s="341"/>
+      <c r="J44" s="341"/>
+      <c r="K44" s="342"/>
       <c r="L44" s="205"/>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -40482,15 +40651,15 @@
       <c r="C45" s="192"/>
       <c r="D45" s="206" t="str">
         <f>D7</f>
-        <v>G 4964</v>
+        <v>KO 2380</v>
       </c>
       <c r="E45" s="194"/>
       <c r="F45" s="207"/>
       <c r="G45" s="208"/>
-      <c r="H45" s="351"/>
-      <c r="I45" s="351"/>
-      <c r="J45" s="351"/>
-      <c r="K45" s="352"/>
+      <c r="H45" s="343"/>
+      <c r="I45" s="343"/>
+      <c r="J45" s="343"/>
+      <c r="K45" s="344"/>
       <c r="L45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -40557,7 +40726,7 @@
       </c>
       <c r="B49" s="233">
         <f t="shared" ref="B49:E64" ca="1" si="0">B11</f>
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="C49" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -40565,21 +40734,21 @@
       </c>
       <c r="D49" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRU</v>
+        <v>STAPLER KENKO HD-50</v>
       </c>
       <c r="F49" s="237"/>
       <c r="G49" s="238"/>
       <c r="H49" s="239">
         <f t="shared" ref="H49:K64" ca="1" si="1">H11</f>
-        <v>21600</v>
+        <v>228000</v>
       </c>
       <c r="I49" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.125</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J49" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -40587,7 +40756,7 @@
       </c>
       <c r="K49" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>2721600</v>
+        <v>3944400</v>
       </c>
       <c r="L49" s="223"/>
     </row>
@@ -41215,8 +41384,8 @@
       <c r="G66" s="252"/>
       <c r="H66" s="252"/>
       <c r="I66" s="253"/>
-      <c r="J66" s="320"/>
-      <c r="K66" s="320"/>
+      <c r="J66" s="312"/>
+      <c r="K66" s="312"/>
       <c r="L66" s="215"/>
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41231,11 +41400,11 @@
       <c r="I67" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="328">
+      <c r="J67" s="320">
         <f ca="1">J29</f>
-        <v>2721600</v>
-      </c>
-      <c r="K67" s="329"/>
+        <v>3944400</v>
+      </c>
+      <c r="K67" s="321"/>
       <c r="L67" s="223"/>
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41248,8 +41417,8 @@
       <c r="G68" s="212"/>
       <c r="H68" s="212"/>
       <c r="I68" s="256"/>
-      <c r="J68" s="330"/>
-      <c r="K68" s="330"/>
+      <c r="J68" s="322"/>
+      <c r="K68" s="322"/>
       <c r="L68" s="215"/>
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41284,8 +41453,8 @@
       <c r="G70" s="212"/>
       <c r="H70" s="212"/>
       <c r="I70" s="256"/>
-      <c r="J70" s="320"/>
-      <c r="K70" s="320"/>
+      <c r="J70" s="312"/>
+      <c r="K70" s="312"/>
       <c r="L70" s="215"/>
     </row>
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41304,11 +41473,11 @@
       <c r="I71" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="328">
+      <c r="J71" s="320">
         <f ca="1">J33</f>
-        <v>269708.10810810811</v>
-      </c>
-      <c r="K71" s="329"/>
+        <v>390886.48648648645</v>
+      </c>
+      <c r="K71" s="321"/>
       <c r="L71" s="261"/>
     </row>
     <row r="72" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41321,8 +41490,8 @@
       <c r="G72" s="212"/>
       <c r="H72" s="212"/>
       <c r="I72" s="256"/>
-      <c r="J72" s="320"/>
-      <c r="K72" s="320"/>
+      <c r="J72" s="312"/>
+      <c r="K72" s="312"/>
       <c r="L72" s="215"/>
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41340,7 +41509,7 @@
       <c r="J73" s="264"/>
       <c r="K73" s="265">
         <f ca="1">K35</f>
-        <v>2721600</v>
+        <v>3944400</v>
       </c>
       <c r="L73" s="261"/>
     </row>
@@ -41372,11 +41541,11 @@
       <c r="I75" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="321" t="str">
+      <c r="J75" s="313" t="str">
         <f>J37</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K75" s="322"/>
+      <c r="K75" s="314"/>
       <c r="L75" s="215"/>
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41391,11 +41560,11 @@
       <c r="I76" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="321" t="str">
+      <c r="J76" s="313" t="str">
         <f>J38</f>
         <v/>
       </c>
-      <c r="K76" s="322"/>
+      <c r="K76" s="314"/>
       <c r="L76" s="269"/>
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41438,19 +41607,19 @@
       </c>
       <c r="E79" s="99">
         <f>E41</f>
-        <v>23070024</v>
+        <v>23070028</v>
       </c>
       <c r="F79" s="100"/>
       <c r="G79" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="323" t="str">
+      <c r="H79" s="315" t="str">
         <f>H41</f>
-        <v>CV UTAMA PUTRA</v>
-      </c>
-      <c r="I79" s="323"/>
-      <c r="J79" s="323"/>
-      <c r="K79" s="324"/>
+        <v>CV PELITA JAYA</v>
+      </c>
+      <c r="I79" s="315"/>
+      <c r="J79" s="315"/>
+      <c r="K79" s="316"/>
       <c r="L79" s="102"/>
     </row>
     <row r="80" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41459,14 +41628,14 @@
       <c r="C80" s="104"/>
       <c r="D80" s="105"/>
       <c r="E80" s="106"/>
-      <c r="F80" s="327" t="s">
+      <c r="F80" s="319" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="107"/>
-      <c r="H80" s="325"/>
-      <c r="I80" s="325"/>
-      <c r="J80" s="325"/>
-      <c r="K80" s="326"/>
+      <c r="H80" s="317"/>
+      <c r="I80" s="317"/>
+      <c r="J80" s="317"/>
+      <c r="K80" s="318"/>
       <c r="L80" s="102"/>
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41475,20 +41644,20 @@
         <v>2</v>
       </c>
       <c r="C81" s="97"/>
-      <c r="D81" s="312">
+      <c r="D81" s="304">
         <f>D43</f>
-        <v>45122</v>
-      </c>
-      <c r="E81" s="313"/>
-      <c r="F81" s="327"/>
+        <v>45128</v>
+      </c>
+      <c r="E81" s="305"/>
+      <c r="F81" s="319"/>
       <c r="G81" s="108"/>
-      <c r="H81" s="314" t="str">
+      <c r="H81" s="306" t="str">
         <f>H43</f>
-        <v/>
-      </c>
-      <c r="I81" s="314"/>
-      <c r="J81" s="314"/>
-      <c r="K81" s="315"/>
+        <v>(ANUGERAH SEJAHTERA)</v>
+      </c>
+      <c r="I81" s="306"/>
+      <c r="J81" s="306"/>
+      <c r="K81" s="307"/>
       <c r="L81" s="109"/>
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41497,15 +41666,15 @@
       <c r="C82" s="104"/>
       <c r="D82" s="105"/>
       <c r="E82" s="106"/>
-      <c r="F82" s="327"/>
+      <c r="F82" s="319"/>
       <c r="G82" s="108"/>
-      <c r="H82" s="316" t="str">
+      <c r="H82" s="308" t="str">
         <f>H44</f>
-        <v>TULUNG AGUNG</v>
-      </c>
-      <c r="I82" s="316"/>
-      <c r="J82" s="316"/>
-      <c r="K82" s="317"/>
+        <v>PURWOKERTO</v>
+      </c>
+      <c r="I82" s="308"/>
+      <c r="J82" s="308"/>
+      <c r="K82" s="309"/>
       <c r="L82" s="110"/>
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -41516,15 +41685,15 @@
       <c r="C83" s="97"/>
       <c r="D83" s="111" t="str">
         <f>D45</f>
-        <v>G 4964</v>
+        <v>KO 2380</v>
       </c>
       <c r="E83" s="99"/>
       <c r="F83" s="112"/>
       <c r="G83" s="113"/>
-      <c r="H83" s="318"/>
-      <c r="I83" s="318"/>
-      <c r="J83" s="318"/>
-      <c r="K83" s="319"/>
+      <c r="H83" s="310"/>
+      <c r="I83" s="310"/>
+      <c r="J83" s="310"/>
+      <c r="K83" s="311"/>
       <c r="L83" s="110"/>
     </row>
     <row r="84" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -41591,7 +41760,7 @@
       </c>
       <c r="B87" s="138">
         <f t="shared" ref="B87:E102" ca="1" si="2">B49</f>
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="C87" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -41599,21 +41768,21 @@
       </c>
       <c r="D87" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRU</v>
+        <v>STAPLER KENKO HD-50</v>
       </c>
       <c r="F87" s="142"/>
       <c r="G87" s="143"/>
       <c r="H87" s="144">
         <f t="shared" ref="H87:K102" ca="1" si="3">H49</f>
-        <v>21600</v>
+        <v>228000</v>
       </c>
       <c r="I87" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J87" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -41621,7 +41790,7 @@
       </c>
       <c r="K87" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>2721600</v>
+        <v>3944400</v>
       </c>
       <c r="L87" s="128"/>
     </row>
@@ -42249,8 +42418,8 @@
       <c r="G104" s="157"/>
       <c r="H104" s="157"/>
       <c r="I104" s="158"/>
-      <c r="J104" s="309"/>
-      <c r="K104" s="309"/>
+      <c r="J104" s="301"/>
+      <c r="K104" s="301"/>
       <c r="L104" s="120"/>
     </row>
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42265,11 +42434,11 @@
       <c r="I105" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="310">
+      <c r="J105" s="302">
         <f ca="1">J67</f>
-        <v>2721600</v>
-      </c>
-      <c r="K105" s="311"/>
+        <v>3944400</v>
+      </c>
+      <c r="K105" s="303"/>
       <c r="L105" s="128"/>
     </row>
     <row r="106" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42282,8 +42451,8 @@
       <c r="G106" s="117"/>
       <c r="H106" s="117"/>
       <c r="I106" s="161"/>
-      <c r="J106" s="308"/>
-      <c r="K106" s="308"/>
+      <c r="J106" s="300"/>
+      <c r="K106" s="300"/>
       <c r="L106" s="120"/>
     </row>
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42318,8 +42487,8 @@
       <c r="G108" s="117"/>
       <c r="H108" s="117"/>
       <c r="I108" s="161"/>
-      <c r="J108" s="309"/>
-      <c r="K108" s="309"/>
+      <c r="J108" s="301"/>
+      <c r="K108" s="301"/>
       <c r="L108" s="120"/>
     </row>
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42338,11 +42507,11 @@
       <c r="I109" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="310">
+      <c r="J109" s="302">
         <f ca="1">J71</f>
-        <v>269708.10810810811</v>
-      </c>
-      <c r="K109" s="311"/>
+        <v>390886.48648648645</v>
+      </c>
+      <c r="K109" s="303"/>
       <c r="L109" s="166"/>
     </row>
     <row r="110" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42355,8 +42524,8 @@
       <c r="G110" s="117"/>
       <c r="H110" s="117"/>
       <c r="I110" s="161"/>
-      <c r="J110" s="309"/>
-      <c r="K110" s="309"/>
+      <c r="J110" s="301"/>
+      <c r="K110" s="301"/>
       <c r="L110" s="120"/>
     </row>
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42374,7 +42543,7 @@
       <c r="J111" s="169"/>
       <c r="K111" s="170">
         <f ca="1">K73</f>
-        <v>2721600</v>
+        <v>3944400</v>
       </c>
       <c r="L111" s="166"/>
     </row>
@@ -42406,11 +42575,11 @@
       <c r="I113" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="306" t="str">
+      <c r="J113" s="298" t="str">
         <f>J75</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K113" s="307"/>
+      <c r="K113" s="299"/>
       <c r="L113" s="120"/>
     </row>
     <row r="114" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42425,11 +42594,11 @@
       <c r="I114" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="306" t="str">
+      <c r="J114" s="298" t="str">
         <f>J76</f>
         <v/>
       </c>
-      <c r="K114" s="307"/>
+      <c r="K114" s="299"/>
       <c r="L114" s="174"/>
     </row>
     <row r="115" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/BARU/2023/07 JULI/KELUAR 07.xlsx
+++ b/BARU/2023/07 JULI/KELUAR 07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId6"/>
+    <pivotCache cacheId="35" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="307">
   <si>
     <t>Column1</t>
   </si>
@@ -844,9 +844,6 @@
     <t>GEL PEN KENKO KE-303 T-GEL TRIANGULAR BIRU</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>2378</t>
   </si>
   <si>
@@ -872,6 +869,90 @@
   </si>
   <si>
     <t>2380</t>
+  </si>
+  <si>
+    <t>4840</t>
+  </si>
+  <si>
+    <t>ISIJKPL11</t>
+  </si>
+  <si>
+    <t>ISI PENSIL 2B 2.0 MM JOYKO PL-11</t>
+  </si>
+  <si>
+    <t>ISIJKPL10</t>
+  </si>
+  <si>
+    <t>ISI PENSIL 2B 2.0 MM JOYKO PL-10</t>
+  </si>
+  <si>
+    <t>2388</t>
+  </si>
+  <si>
+    <t>TIPKENKE01</t>
+  </si>
+  <si>
+    <t>CORRECTION FLUID KENKO KE-01</t>
+  </si>
+  <si>
+    <t>PENKENK1HITAM</t>
+  </si>
+  <si>
+    <t>GEL PEN KENKO K-1 HITAM</t>
+  </si>
+  <si>
+    <t>4993</t>
+  </si>
+  <si>
+    <t>STASDI1123</t>
+  </si>
+  <si>
+    <t>STAPLER SDI 1123</t>
+  </si>
+  <si>
+    <t>TIPKENKE108</t>
+  </si>
+  <si>
+    <t>CORRECTION FLUID KENKO KE-108</t>
+  </si>
+  <si>
+    <t>LEMJKGS104</t>
+  </si>
+  <si>
+    <t>LEM STICK JOYKO 15 GR GS-104 TG (ANIMAL KINGDOM) isi 24 pc</t>
+  </si>
+  <si>
+    <t>2397</t>
+  </si>
+  <si>
+    <t>2653</t>
+  </si>
+  <si>
+    <t>PENJKGP212</t>
+  </si>
+  <si>
+    <t>GEL PEN JOYKO GP-212 I-DIAMOND</t>
+  </si>
+  <si>
+    <t>2655</t>
+  </si>
+  <si>
+    <t>STAKENHD10</t>
+  </si>
+  <si>
+    <t>STAPLER KENKO HD-10</t>
+  </si>
+  <si>
+    <t>PENJKBP338</t>
+  </si>
+  <si>
+    <t>BALLPEN JOYKO BP-338 VOCUS HITAM</t>
+  </si>
+  <si>
+    <t>CUTKENA300A</t>
+  </si>
+  <si>
+    <t>CUTTER 9 MM KENKO A-300 (KECIL)</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2310,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="104">
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3209,6 +3293,18 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -4031,7 +4127,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="totalRow" dxfId="98"/>
+      <tableStyleElement type="totalRow" dxfId="103"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4895,13 +4991,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45128.45907060185" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="257">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45131.686477314812" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="260">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="32">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="97" count="29">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="113" count="39">
         <n v="3"/>
         <s v=""/>
         <n v="6"/>
@@ -4928,19 +5024,29 @@
         <n v="85"/>
         <n v="87"/>
         <n v="89"/>
-        <n v="91"/>
-        <n v="94"/>
-        <n v="97"/>
+        <n v="92"/>
+        <n v="95"/>
+        <n v="98"/>
+        <n v="100"/>
+        <n v="104"/>
+        <n v="107"/>
+        <n v="110"/>
+        <n v="113"/>
+        <n v="91" u="1"/>
+        <n v="99" u="1"/>
+        <n v="94" u="1"/>
+        <n v="97" u="1"/>
+        <n v="101" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23070001" maxValue="23070028"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23070001" maxValue="23070033"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-06-30T00:00:00" maxDate="2023-07-22T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-07-04T00:00:00" maxDate="2023-07-25T00:00:00"/>
     </cacheField>
     <cacheField name="H_TGL" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="21"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="24"/>
     </cacheField>
     <cacheField name="h_Kode Sales :_1" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4961,7 +5067,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="1200"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="7776"/>
     </cacheField>
     <cacheField name="Unit" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4979,7 +5085,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Unit Price" numFmtId="43">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2050" maxValue="228000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2050" maxValue="300000"/>
     </cacheField>
     <cacheField name="Disc 1" numFmtId="10">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.1" maxValue="0.14000000000000001"/>
@@ -4997,7 +5103,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="97"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="113"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
@@ -5018,7 +5124,7 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="38880" maxValue="31500000"/>
     </cacheField>
     <cacheField name="Total Invoice" numFmtId="43">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="43944768"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="578880" maxValue="43944768"/>
     </cacheField>
     <cacheField name="KETERANGAN" numFmtId="43">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -5036,7 +5142,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="257">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="260">
   <r>
     <x v="0"/>
     <n v="23070001"/>
@@ -7964,36 +8070,70 @@
   <r>
     <x v="25"/>
     <n v="23070025"/>
-    <d v="2023-06-30T00:00:00"/>
+    <d v="2023-07-17T00:00:00"/>
+    <n v="17"/>
+    <s v="KO"/>
+    <s v="4993"/>
+    <s v="ANUGERAH"/>
+    <s v="AM 23070025"/>
+    <s v="KO 4993"/>
+    <s v="CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO"/>
+    <n v="20"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="STASDI1123"/>
+    <s v="STAPLER SDI 1123"/>
+    <s v="STAPLER SDI 1123"/>
+    <n v="300000"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="5250000"/>
+    <s v="NOVI / YO"/>
+    <m/>
+    <n v="89"/>
+    <n v="2"/>
+    <n v="6000000"/>
+    <n v="750000"/>
     <n v="0"/>
+    <n v="750000"/>
+    <n v="5250000"/>
+    <n v="8217300"/>
+    <m/>
+    <s v="STAPLER SDI 1123LSN300000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
     <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v="AM 23070025"/>
-    <s v="   "/>
-    <e v="#N/A"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
+    <s v=""/>
+    <n v="72"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="TIPKENKE108"/>
+    <s v="CORRECTION FLUID KENKO KE-108"/>
+    <s v="CORRECTION FLUID KENKO KE-108"/>
+    <n v="47100"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2967300"/>
+    <m/>
+    <m/>
+    <n v="89"/>
+    <n v="2"/>
+    <n v="3391200"/>
+    <n v="423900"/>
     <n v="0"/>
-    <m/>
-    <s v=""/>
+    <n v="423900"/>
+    <n v="2967300"/>
+    <s v=""/>
+    <m/>
+    <s v="CORRECTION FLUID KENKO KE-108LSN47100"/>
   </r>
   <r>
     <x v="1"/>
@@ -8052,7 +8192,7 @@
     <n v="27405000"/>
     <s v="NOVI / CONDRO"/>
     <m/>
-    <n v="91"/>
+    <n v="92"/>
     <n v="2"/>
     <n v="31320000"/>
     <n v="3915000"/>
@@ -8086,7 +8226,7 @@
     <n v="708750"/>
     <m/>
     <m/>
-    <n v="91"/>
+    <n v="92"/>
     <n v="2"/>
     <n v="810000"/>
     <n v="101250"/>
@@ -8154,7 +8294,7 @@
     <n v="7350000"/>
     <s v="NOVI / CONDRO"/>
     <m/>
-    <n v="94"/>
+    <n v="95"/>
     <n v="2"/>
     <n v="8400000"/>
     <n v="1050000"/>
@@ -8188,7 +8328,7 @@
     <n v="1228500"/>
     <m/>
     <m/>
-    <n v="94"/>
+    <n v="95"/>
     <n v="2"/>
     <n v="1404000"/>
     <n v="175500"/>
@@ -8256,7 +8396,7 @@
     <n v="3944400"/>
     <s v="NOVI / CONDRO"/>
     <m/>
-    <n v="97"/>
+    <n v="98"/>
     <n v="1"/>
     <n v="4560000"/>
     <n v="615600"/>
@@ -8302,38 +8442,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="29"/>
+    <n v="23070029"/>
+    <d v="2023-07-22T00:00:00"/>
+    <n v="22"/>
+    <s v="KO"/>
+    <s v="2388"/>
+    <s v="BENDAN"/>
+    <s v="AM 23070029"/>
+    <s v="KO 2388"/>
+    <s v="HARNOYO (BENDAN) PEKALONGAN"/>
+    <n v="36"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="TIPKENKE01"/>
+    <s v="CORRECTION FLUID KENKO KE-01"/>
+    <s v="CORRECTION FLUID KENKO KE-01"/>
+    <n v="54300"/>
+    <n v="0.14000000000000001"/>
+    <m/>
+    <n v="1681128"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="100"/>
+    <n v="2"/>
+    <n v="1954800"/>
+    <n v="273672"/>
+    <n v="0"/>
+    <n v="273672"/>
+    <n v="1681128"/>
+    <n v="6585192"/>
+    <m/>
+    <s v="CORRECTION FLUID KENKO KE-01LSN54300"/>
   </r>
   <r>
     <x v="1"/>
@@ -8346,28 +8486,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="144"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="PENKENK1HITAM"/>
+    <s v="GEL PEN KENKO K-1 HITAM"/>
+    <s v="GEL PEN KENKO K-1 HITAM"/>
+    <n v="39600"/>
+    <n v="0.14000000000000001"/>
+    <m/>
+    <n v="4904064"/>
+    <m/>
+    <m/>
+    <n v="100"/>
+    <n v="2"/>
+    <n v="5702400"/>
+    <n v="798336.00000000012"/>
+    <n v="0"/>
+    <n v="798336.00000000012"/>
+    <n v="4904064"/>
+    <s v=""/>
+    <m/>
+    <s v="GEL PEN KENKO K-1 HITAMLSN39600"/>
   </r>
   <r>
     <x v="1"/>
@@ -8438,38 +8578,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="30"/>
+    <n v="23070030"/>
+    <d v="2023-07-24T00:00:00"/>
+    <n v="24"/>
+    <s v="KO"/>
+    <s v="4840"/>
+    <s v="LANCAR"/>
+    <s v="AM 23070030"/>
+    <s v="KO 4840"/>
+    <s v="CV LANCAR JAYA SENTOSA MALANG"/>
+    <n v="144"/>
+    <s v="LSN"/>
+    <n v="2"/>
+    <s v="ISIJKPL11"/>
+    <s v="ISI PENSIL 2B 2.0 MM JOYKO PL-11"/>
+    <s v="ISI PENSIL 2B 2.0 MM JOYKO PL-11"/>
+    <n v="37200"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="4687200"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="104"/>
+    <n v="2"/>
+    <n v="5356800"/>
+    <n v="669600"/>
+    <n v="0"/>
+    <n v="669600"/>
+    <n v="4687200"/>
+    <n v="7182000"/>
+    <m/>
+    <s v="ISI PENSIL 2B 2.0 MM JOYKO PL-11LSN37200"/>
   </r>
   <r>
     <x v="1"/>
@@ -8482,28 +8622,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="144"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="ISIJKPL10"/>
+    <s v="ISI PENSIL 2B 2.0 MM JOYKO PL-10"/>
+    <s v="ISI PENSIL 2B 2.0 MM JOYKO PL-10"/>
+    <n v="19800"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2494800"/>
+    <m/>
+    <m/>
+    <n v="104"/>
+    <n v="2"/>
+    <n v="2851200"/>
+    <n v="356400"/>
+    <n v="0"/>
+    <n v="356400"/>
+    <n v="2494800"/>
+    <s v=""/>
+    <m/>
+    <s v="ISI PENSIL 2B 2.0 MM JOYKO PL-10LSN19800"/>
   </r>
   <r>
     <x v="1"/>
@@ -8540,38 +8680,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="31"/>
+    <n v="23070031"/>
+    <d v="2023-07-24T00:00:00"/>
+    <n v="24"/>
+    <s v="G"/>
+    <s v="2397"/>
+    <s v="REJOAGUNG"/>
+    <s v="AM 23070031"/>
+    <s v="G 2397"/>
+    <s v="LILY JULIAWATI (REJO AGUNG) JOMBANG"/>
+    <n v="7776"/>
+    <s v="PCS"/>
+    <n v="9"/>
+    <s v="LEMJKGS104"/>
+    <s v="LEM STICK JOYKO 15 GR GS-104 TG (ANIMAL KINGDOM) isi 24 pc"/>
+    <s v="LEM STICK JOYKO 15 GR GS-104 TG (ANIMAL KINGDOM) isi 24 pc"/>
+    <n v="2450"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="16669800"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="107"/>
+    <n v="2"/>
+    <n v="19051200"/>
+    <n v="2381400"/>
+    <n v="0"/>
+    <n v="2381400"/>
+    <n v="16669800"/>
+    <n v="18463550"/>
+    <m/>
+    <s v="LEM STICK JOYKO 15 GR GS-104 TG (ANIMAL KINGDOM) isi 24 pcPCS2450"/>
   </r>
   <r>
     <x v="1"/>
@@ -8584,28 +8724,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="1000"/>
+    <s v="PCS"/>
+    <n v="1"/>
+    <s v="LABJK1LINEPUTIH"/>
+    <s v="LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)"/>
+    <s v="LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)"/>
+    <n v="2050"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="1793750"/>
+    <m/>
+    <m/>
+    <n v="107"/>
+    <n v="2"/>
+    <n v="2050000"/>
+    <n v="256250"/>
+    <n v="0"/>
+    <n v="256250"/>
+    <n v="1793750"/>
+    <s v=""/>
+    <m/>
+    <s v="LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)PCS2050"/>
   </r>
   <r>
     <x v="1"/>
@@ -8642,38 +8782,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="32"/>
+    <n v="23070032"/>
+    <d v="2023-07-24T00:00:00"/>
+    <n v="24"/>
+    <s v="G"/>
+    <s v="2653"/>
+    <s v="nikisae"/>
+    <s v="AM 23070032"/>
+    <s v="G 2653"/>
+    <s v="GUNAWAN HARTONO KUSUMA ( NIKI SAE ) TULUNG AGUNG"/>
+    <n v="144"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="PENJKGP212"/>
+    <s v="GEL PEN JOYKO GP-212 I-DIAMOND"/>
+    <s v="GEL PEN JOYKO GP-212 I-DIAMOND"/>
+    <n v="21600"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2721600"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="110"/>
+    <n v="2"/>
+    <n v="3110400"/>
+    <n v="388800"/>
+    <n v="0"/>
+    <n v="388800"/>
+    <n v="2721600"/>
+    <n v="7172550"/>
+    <m/>
+    <s v="GEL PEN JOYKO GP-212 I-DIAMONDLSN21600"/>
   </r>
   <r>
     <x v="1"/>
@@ -8686,28 +8826,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="108"/>
+    <s v="LSN"/>
+    <n v="3"/>
+    <s v="TIPKENKE108"/>
+    <s v="CORRECTION FLUID KENKO KE-108"/>
+    <s v="CORRECTION FLUID KENKO KE-108"/>
+    <n v="47100"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="4450950"/>
+    <m/>
+    <m/>
+    <n v="110"/>
+    <n v="2"/>
+    <n v="5086800"/>
+    <n v="635850"/>
+    <n v="0"/>
+    <n v="635850"/>
+    <n v="4450950"/>
+    <s v=""/>
+    <m/>
+    <s v="CORRECTION FLUID KENKO KE-108LSN47100"/>
   </r>
   <r>
     <x v="1"/>
@@ -8744,38 +8884,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="33"/>
+    <n v="23070033"/>
+    <d v="2023-07-24T00:00:00"/>
+    <n v="24"/>
+    <s v="KO"/>
+    <s v="2655"/>
+    <s v="ANUGERAH"/>
+    <s v="AM 23070033"/>
+    <s v="KO 2655"/>
+    <s v="CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO"/>
+    <n v="432"/>
+    <s v="LSN"/>
+    <n v="3"/>
+    <s v="PWJK12WPANJANG"/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)"/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)"/>
+    <n v="10600"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="3961008"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="113"/>
+    <n v="5"/>
+    <n v="4579200"/>
+    <n v="618192"/>
+    <n v="0"/>
+    <n v="618192"/>
+    <n v="3961008"/>
+    <n v="16248852"/>
+    <m/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)LSN10600"/>
   </r>
   <r>
     <x v="1"/>
@@ -8788,28 +8928,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="60"/>
+    <s v="LSN"/>
+    <n v="3"/>
+    <s v="STAKENHD10"/>
+    <s v="STAPLER KENKO HD-10"/>
+    <s v="STAPLER KENKO HD-10"/>
+    <n v="93000"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="4826700"/>
+    <m/>
+    <m/>
+    <n v="113"/>
+    <n v="5"/>
+    <n v="5580000"/>
+    <n v="753300"/>
+    <n v="0"/>
+    <n v="753300"/>
+    <n v="4826700"/>
+    <s v=""/>
+    <m/>
+    <s v="STAPLER KENKO HD-10LSN93000"/>
   </r>
   <r>
     <x v="1"/>
@@ -8822,28 +8962,96 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="60"/>
+    <s v="LSN"/>
+    <n v="2"/>
+    <s v="CUTKENA300A"/>
+    <s v="CUTTER 9 MM KENKO A-300 (KECIL)"/>
+    <s v="CUTTER 9 MM KENKO A-300 (KECIL)"/>
+    <n v="57000"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="2958300"/>
+    <m/>
+    <m/>
+    <n v="113"/>
+    <n v="5"/>
+    <n v="3420000"/>
+    <n v="461700.00000000006"/>
+    <n v="0"/>
+    <n v="461700.00000000006"/>
+    <n v="2958300"/>
+    <s v=""/>
+    <m/>
+    <s v="CUTTER 9 MM KENKO A-300 (KECIL)LSN57000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=" "/>
+    <s v=""/>
+    <n v="144"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="PENJKBP338"/>
+    <s v="BALLPEN JOYKO BP-338 VOCUS HITAM"/>
+    <s v="BALLPEN JOYKO BP-338 VOCUS HITAM"/>
+    <n v="12600"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="1569456"/>
+    <m/>
+    <m/>
+    <n v="113"/>
+    <n v="5"/>
+    <n v="1814400"/>
+    <n v="244944.00000000003"/>
+    <n v="0"/>
+    <n v="244944.00000000003"/>
+    <n v="1569456"/>
+    <s v=""/>
+    <m/>
+    <s v="BALLPEN JOYKO BP-338 VOCUS HITAMLSN12600"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=" "/>
+    <s v=""/>
+    <n v="72"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="TIPKENKE108"/>
+    <s v="CORRECTION FLUID KENKO KE-108"/>
+    <s v="CORRECTION FLUID KENKO KE-108"/>
+    <n v="47100"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="2933388"/>
+    <m/>
+    <m/>
+    <n v="113"/>
+    <n v="5"/>
+    <n v="3391200"/>
+    <n v="457812.00000000006"/>
+    <n v="0"/>
+    <n v="457812.00000000006"/>
+    <n v="2933388"/>
+    <s v=""/>
+    <m/>
+    <s v="CORRECTION FLUID KENKO KE-108LSN47100"/>
   </r>
   <r>
     <x v="1"/>
@@ -13779,11 +13987,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="30">
+      <items count="40">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
@@ -13809,9 +14017,19 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="34"/>
         <item x="26"/>
+        <item m="1" x="36"/>
         <item x="27"/>
+        <item m="1" x="37"/>
         <item x="28"/>
+        <item m="1" x="35"/>
+        <item x="29"/>
+        <item m="1" x="38"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -13851,7 +14069,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="30">
+  <rowItems count="35">
     <i>
       <x/>
     </i>
@@ -13928,16 +14146,31 @@
       <x v="24"/>
     </i>
     <i>
-      <x v="25"/>
-    </i>
-    <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="28"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
     </i>
     <i t="grand">
       <x/>
@@ -13947,7 +14180,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="60">
+    <format dxfId="65">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -13961,73 +14194,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF260" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="95">
-  <autoFilter ref="A2:AF259"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF263" totalsRowCount="1" headerRowDxfId="102" dataDxfId="101" totalsRowDxfId="100">
+  <autoFilter ref="A2:AF262"/>
   <tableColumns count="32">
-    <tableColumn id="16" name="//" dataDxfId="94" totalsRowDxfId="31">
+    <tableColumn id="16" name="//" dataDxfId="99" totalsRowDxfId="32">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="93" totalsRowDxfId="30">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="98" totalsRowDxfId="31">
       <calculatedColumnFormula>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="92" totalsRowDxfId="29">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="97" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="H_TGL" dataDxfId="91" totalsRowDxfId="28"/>
-    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="90" totalsRowDxfId="27"/>
-    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="89" totalsRowDxfId="26"/>
-    <tableColumn id="20" name="h_toko" dataDxfId="88" totalsRowDxfId="25"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="87" totalsRowDxfId="24">
+    <tableColumn id="32" name="H_TGL" dataDxfId="96" totalsRowDxfId="29"/>
+    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="95" totalsRowDxfId="28"/>
+    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="94" totalsRowDxfId="27"/>
+    <tableColumn id="20" name="h_toko" dataDxfId="93" totalsRowDxfId="26"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="92" totalsRowDxfId="25">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="86" totalsRowDxfId="23">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="91" totalsRowDxfId="24">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="85" totalsRowDxfId="22">
+    <tableColumn id="4" name="Toko" dataDxfId="90" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="84" totalsRowDxfId="21"/>
-    <tableColumn id="6" name="Unit" dataDxfId="83" totalsRowDxfId="20"/>
-    <tableColumn id="7" name="C" dataDxfId="82" totalsRowDxfId="19"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="81" totalsRowDxfId="18"/>
-    <tableColumn id="10" name="Column1" dataDxfId="80" totalsRowDxfId="17">
+    <tableColumn id="5" name="Qty" dataDxfId="89" totalsRowDxfId="22"/>
+    <tableColumn id="6" name="Unit" dataDxfId="88" totalsRowDxfId="21"/>
+    <tableColumn id="7" name="C" dataDxfId="87" totalsRowDxfId="20"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="86" totalsRowDxfId="19"/>
+    <tableColumn id="10" name="Column1" dataDxfId="85" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="79" totalsRowDxfId="16"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="78" totalsRowDxfId="15"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="77" totalsRowDxfId="14"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="76" totalsRowDxfId="13"/>
-    <tableColumn id="23" name="Amount" dataDxfId="75" totalsRowDxfId="12">
+    <tableColumn id="9" name="Item Description" dataDxfId="84" totalsRowDxfId="17"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="83" totalsRowDxfId="16"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="82" totalsRowDxfId="15"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="81" totalsRowDxfId="14"/>
+    <tableColumn id="23" name="Amount" dataDxfId="80" totalsRowDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="74" totalsRowDxfId="11"/>
-    <tableColumn id="15" name="edited :" dataDxfId="73" totalsRowDxfId="10"/>
-    <tableColumn id="21" name="h_id" dataDxfId="72" totalsRowDxfId="9">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="79" totalsRowDxfId="12"/>
+    <tableColumn id="15" name="edited :" dataDxfId="78" totalsRowDxfId="11"/>
+    <tableColumn id="21" name="h_id" dataDxfId="77" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="71" totalsRowDxfId="8">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="76" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="70" totalsRowDxfId="7">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="75" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="h_disc 1" dataDxfId="69" totalsRowDxfId="6">
+    <tableColumn id="31" name="h_disc 1" dataDxfId="74" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="h_disc 2" dataDxfId="68" totalsRowDxfId="5">
+    <tableColumn id="30" name="h_disc 2" dataDxfId="73" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="67" totalsRowDxfId="4">
+    <tableColumn id="25" name="h_diskon" dataDxfId="72" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="66" totalsRowDxfId="3">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="71" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="65" totalsRowDxfId="2">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="70" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="64" totalsRowDxfId="1"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="63" totalsRowDxfId="0">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="69" totalsRowDxfId="2"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="68" totalsRowDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14036,74 +14269,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="64">
   <autoFilter ref="C4:O57"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="58">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="63">
       <calculatedColumnFormula>IF(ROW()-(COUNTBLANK($C$1:$C$3)+1)&lt;=jNota,A5,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="57">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="62">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="56">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="61">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="55">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="60">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="54">
+    <tableColumn id="5" name="Toko" dataDxfId="59">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="43">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="48">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="42">
+    <tableColumn id="15" name="edited" dataDxfId="47">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="4" dataDxfId="41"/>
+    <tableColumn id="12" name="4" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="Q4:W57"/>
   <tableColumns count="7">
-    <tableColumn id="8" name="AM" dataDxfId="39">
+    <tableColumn id="8" name="AM" dataDxfId="44">
       <calculatedColumnFormula>Table4[[#Headers],[AM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="---" dataDxfId="38">
+    <tableColumn id="2" name="---" dataDxfId="43">
       <calculatedColumnFormula>R$3+ROW()-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No. Invoice :" dataDxfId="37">
+    <tableColumn id="7" name="No. Invoice :" dataDxfId="42">
       <calculatedColumnFormula>IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kode Sales :" dataDxfId="36">
+    <tableColumn id="9" name="Kode Sales :" dataDxfId="41">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="35">
+    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="40">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total Invoice" dataDxfId="34">
+    <tableColumn id="4" name="Total Invoice" dataDxfId="39">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pembuat nota" dataDxfId="33">
+    <tableColumn id="3" name="pembuat nota" dataDxfId="38">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14122,7 +14355,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="32">
+    <tableColumn id="5" name="e" dataDxfId="37">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14418,10 +14651,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF260"/>
+  <dimension ref="A1:AF263"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T97" sqref="T97"/>
+    <sheetView topLeftCell="K100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q115" sqref="Q115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22338,19 +22571,19 @@
       </c>
       <c r="C89" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v>45107</v>
+        <v>45124</v>
       </c>
       <c r="D89" s="293">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E89" s="281" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="F89" s="283" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="G89" s="281" t="s">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="H89" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
@@ -22358,58 +22591,80 @@
       </c>
       <c r="I89" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve">   </v>
-      </c>
-      <c r="J89" s="288" t="e">
+        <v>KO 4993</v>
+      </c>
+      <c r="J89" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v>#N/A</v>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="K89" s="281">
+        <v>20</v>
+      </c>
+      <c r="L89" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M89" s="281">
+        <v>1</v>
+      </c>
+      <c r="N89" s="281" t="s">
+        <v>290</v>
       </c>
       <c r="O89" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q89" s="284"/>
-      <c r="R89" s="285"/>
-      <c r="T89" s="284" t="str">
+        <v>STAPLER SDI 1123</v>
+      </c>
+      <c r="P89" s="281" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q89" s="284">
+        <v>300000</v>
+      </c>
+      <c r="R89" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T89" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W89" s="288" t="str">
+        <v>5250000</v>
+      </c>
+      <c r="U89" s="284" t="s">
+        <v>134</v>
+      </c>
+      <c r="W89" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X89" s="288" t="str">
+        <v>89</v>
+      </c>
+      <c r="X89" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y89" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y89" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z89" s="284" t="str">
+        <v>6000000</v>
+      </c>
+      <c r="Z89" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA89" s="284" t="str">
+        <v>750000</v>
+      </c>
+      <c r="AA89" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB89" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC89" s="284" t="str">
+        <v>750000</v>
+      </c>
+      <c r="AC89" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>5250000</v>
       </c>
       <c r="AD89" s="284">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v>0</v>
+        <v>8217300</v>
       </c>
       <c r="AE89" s="284"/>
       <c r="AF89" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STAPLER SDI 1123LSN300000</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.25">
@@ -22437,43 +22692,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K90" s="281">
+        <v>72</v>
+      </c>
+      <c r="L90" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M90" s="281">
+        <v>1</v>
+      </c>
+      <c r="N90" s="281" t="s">
+        <v>292</v>
+      </c>
       <c r="O90" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q90" s="284"/>
-      <c r="R90" s="285"/>
-      <c r="T90" s="284" t="str">
+        <v>CORRECTION FLUID KENKO KE-108</v>
+      </c>
+      <c r="P90" s="281" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q90" s="284">
+        <v>47100</v>
+      </c>
+      <c r="R90" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T90" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W90" s="288" t="str">
+        <v>2967300</v>
+      </c>
+      <c r="W90" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X90" s="288" t="str">
+        <v>89</v>
+      </c>
+      <c r="X90" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y90" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y90" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z90" s="284" t="str">
+        <v>3391200</v>
+      </c>
+      <c r="Z90" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA90" s="284" t="str">
+        <v>423900</v>
+      </c>
+      <c r="AA90" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB90" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC90" s="284" t="str">
+        <v>423900</v>
+      </c>
+      <c r="AC90" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2967300</v>
       </c>
       <c r="AD90" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22482,173 +22756,154 @@
       <c r="AE90" s="284"/>
       <c r="AF90" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-108LSN47100</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A91" s="288">
+      <c r="A91" s="288" t="str">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v>91</v>
-      </c>
-      <c r="B91" s="288">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B90))</f>
-        <v>23070026</v>
-      </c>
-      <c r="C91" s="282">
+        <v/>
+      </c>
+      <c r="B91" s="288" t="str">
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B89))</f>
+        <v/>
+      </c>
+      <c r="C91" s="282" t="str">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v>45127</v>
-      </c>
-      <c r="D91" s="293">
-        <v>20</v>
-      </c>
-      <c r="E91" s="281" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" s="283" t="s">
-        <v>271</v>
-      </c>
-      <c r="G91" s="281" t="s">
-        <v>93</v>
+        <v/>
       </c>
       <c r="H91" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v>AM 23070026</v>
+        <v/>
       </c>
       <c r="I91" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v>G 2378</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J91" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
-      </c>
-      <c r="K91" s="281">
-        <v>300</v>
-      </c>
-      <c r="L91" s="281" t="s">
-        <v>158</v>
-      </c>
-      <c r="M91" s="281">
-        <v>10</v>
-      </c>
-      <c r="N91" s="281" t="s">
-        <v>232</v>
+        <v/>
       </c>
       <c r="O91" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v>PENSIL JOYKO 2B P-88</v>
-      </c>
-      <c r="P91" s="281" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q91" s="284">
-        <v>104400</v>
-      </c>
-      <c r="R91" s="285">
-        <v>0.125</v>
-      </c>
-      <c r="T91" s="284">
+        <v/>
+      </c>
+      <c r="Q91" s="284"/>
+      <c r="R91" s="285"/>
+      <c r="T91" s="284" t="str">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v>27405000</v>
-      </c>
-      <c r="U91" s="284" t="s">
-        <v>149</v>
-      </c>
-      <c r="W91" s="288">
+        <v/>
+      </c>
+      <c r="W91" s="288" t="str">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v>91</v>
-      </c>
-      <c r="X91" s="288">
+        <v/>
+      </c>
+      <c r="X91" s="288" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v>2</v>
-      </c>
-      <c r="Y91" s="284">
+        <v/>
+      </c>
+      <c r="Y91" s="284" t="str">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v>31320000</v>
-      </c>
-      <c r="Z91" s="284">
+        <v/>
+      </c>
+      <c r="Z91" s="284" t="str">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v>3915000</v>
-      </c>
-      <c r="AA91" s="284">
+        <v/>
+      </c>
+      <c r="AA91" s="284" t="str">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v>0</v>
-      </c>
-      <c r="AB91" s="284">
+        <v/>
+      </c>
+      <c r="AB91" s="284" t="str">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v>3915000</v>
-      </c>
-      <c r="AC91" s="284">
+        <v/>
+      </c>
+      <c r="AC91" s="284" t="str">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v>27405000</v>
-      </c>
-      <c r="AD91" s="284">
-        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v>28113750</v>
+        <v/>
+      </c>
+      <c r="AD91" s="284" t="str">
+        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v/>
       </c>
       <c r="AE91" s="284"/>
       <c r="AF91" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v>PENSIL JOYKO 2B P-88GRS104400</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A92" s="288" t="str">
+      <c r="A92" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B92" s="288" t="str">
+        <v>92</v>
+      </c>
+      <c r="B92" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B91))</f>
-        <v/>
-      </c>
-      <c r="C92" s="282" t="str">
+        <v>23070026</v>
+      </c>
+      <c r="C92" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45127</v>
+      </c>
+      <c r="D92" s="293">
+        <v>20</v>
+      </c>
+      <c r="E92" s="281" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="283" t="s">
+        <v>270</v>
+      </c>
+      <c r="G92" s="281" t="s">
+        <v>93</v>
       </c>
       <c r="H92" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070026</v>
       </c>
       <c r="I92" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 2378</v>
       </c>
       <c r="J92" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
       </c>
       <c r="K92" s="281">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="L92" s="281" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M92" s="281">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N92" s="281" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="O92" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v>MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)</v>
+        <v>PENSIL JOYKO 2B P-88</v>
       </c>
       <c r="P92" s="281" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="Q92" s="284">
-        <v>40500</v>
+        <v>104400</v>
       </c>
       <c r="R92" s="285">
         <v>0.125</v>
       </c>
       <c r="T92" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v>708750</v>
+        <v>27405000</v>
+      </c>
+      <c r="U92" s="284" t="s">
+        <v>149</v>
       </c>
       <c r="W92" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X92" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
@@ -22656,11 +22911,11 @@
       </c>
       <c r="Y92" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v>810000</v>
+        <v>31320000</v>
       </c>
       <c r="Z92" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v>101250</v>
+        <v>3915000</v>
       </c>
       <c r="AA92" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
@@ -22668,20 +22923,20 @@
       </c>
       <c r="AB92" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v>101250</v>
+        <v>3915000</v>
       </c>
       <c r="AC92" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v>708750</v>
-      </c>
-      <c r="AD92" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>27405000</v>
+      </c>
+      <c r="AD92" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>28113750</v>
       </c>
       <c r="AE92" s="284"/>
       <c r="AF92" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v>MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)PCS40500</v>
+        <v>PENSIL JOYKO 2B P-88GRS104400</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
@@ -22709,43 +22964,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K93" s="281">
+        <v>20</v>
+      </c>
+      <c r="L93" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="M93" s="281">
+        <v>1</v>
+      </c>
+      <c r="N93" s="281" t="s">
+        <v>271</v>
+      </c>
       <c r="O93" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q93" s="284"/>
-      <c r="R93" s="285"/>
-      <c r="T93" s="284" t="str">
+        <v>MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)</v>
+      </c>
+      <c r="P93" s="281" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q93" s="284">
+        <v>40500</v>
+      </c>
+      <c r="R93" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T93" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W93" s="288" t="str">
+        <v>708750</v>
+      </c>
+      <c r="W93" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X93" s="288" t="str">
+        <v>92</v>
+      </c>
+      <c r="X93" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y93" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y93" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z93" s="284" t="str">
+        <v>810000</v>
+      </c>
+      <c r="Z93" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA93" s="284" t="str">
+        <v>101250</v>
+      </c>
+      <c r="AA93" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB93" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC93" s="284" t="str">
+        <v>101250</v>
+      </c>
+      <c r="AC93" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>708750</v>
       </c>
       <c r="AD93" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22754,173 +23028,154 @@
       <c r="AE93" s="284"/>
       <c r="AF93" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)PCS40500</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A94" s="288">
+      <c r="A94" s="288" t="str">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v>94</v>
-      </c>
-      <c r="B94" s="288">
+        <v/>
+      </c>
+      <c r="B94" s="288" t="str">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B93))</f>
-        <v>23070027</v>
-      </c>
-      <c r="C94" s="282">
+        <v/>
+      </c>
+      <c r="C94" s="282" t="str">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v>45127</v>
-      </c>
-      <c r="D94" s="293">
-        <v>20</v>
-      </c>
-      <c r="E94" s="281" t="s">
-        <v>122</v>
-      </c>
-      <c r="F94" s="283" t="s">
-        <v>274</v>
-      </c>
-      <c r="G94" s="281" t="s">
-        <v>94</v>
+        <v/>
       </c>
       <c r="H94" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v>AM 23070027</v>
+        <v/>
       </c>
       <c r="I94" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v>KO 4835</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J94" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v>CV LANCAR JAYA SENTOSA MALANG</v>
-      </c>
-      <c r="K94" s="281">
-        <v>1200</v>
-      </c>
-      <c r="L94" s="281" t="s">
-        <v>155</v>
-      </c>
-      <c r="M94" s="281">
-        <v>5</v>
-      </c>
-      <c r="N94" s="281" t="s">
-        <v>275</v>
+        <v/>
       </c>
       <c r="O94" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v>STAPLER JOYKO HD-10CL</v>
-      </c>
-      <c r="P94" s="281" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q94" s="284">
-        <v>7000</v>
-      </c>
-      <c r="R94" s="285">
-        <v>0.125</v>
-      </c>
-      <c r="T94" s="284">
+        <v/>
+      </c>
+      <c r="Q94" s="284"/>
+      <c r="R94" s="285"/>
+      <c r="T94" s="284" t="str">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v>7350000</v>
-      </c>
-      <c r="U94" s="284" t="s">
-        <v>149</v>
-      </c>
-      <c r="W94" s="288">
+        <v/>
+      </c>
+      <c r="W94" s="288" t="str">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v>94</v>
-      </c>
-      <c r="X94" s="288">
+        <v/>
+      </c>
+      <c r="X94" s="288" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v>2</v>
-      </c>
-      <c r="Y94" s="284">
+        <v/>
+      </c>
+      <c r="Y94" s="284" t="str">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v>8400000</v>
-      </c>
-      <c r="Z94" s="284">
+        <v/>
+      </c>
+      <c r="Z94" s="284" t="str">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v>1050000</v>
-      </c>
-      <c r="AA94" s="284">
+        <v/>
+      </c>
+      <c r="AA94" s="284" t="str">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v>0</v>
-      </c>
-      <c r="AB94" s="284">
+        <v/>
+      </c>
+      <c r="AB94" s="284" t="str">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v>1050000</v>
-      </c>
-      <c r="AC94" s="284">
+        <v/>
+      </c>
+      <c r="AC94" s="284" t="str">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v>7350000</v>
-      </c>
-      <c r="AD94" s="284">
-        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v>8578500</v>
+        <v/>
+      </c>
+      <c r="AD94" s="284" t="str">
+        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v/>
       </c>
       <c r="AE94" s="284"/>
       <c r="AF94" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v>STAPLER JOYKO HD-10CLPCS7000</v>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A95" s="288" t="str">
+      <c r="A95" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B95" s="288" t="str">
+        <v>95</v>
+      </c>
+      <c r="B95" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B94))</f>
-        <v/>
-      </c>
-      <c r="C95" s="282" t="str">
+        <v>23070027</v>
+      </c>
+      <c r="C95" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45127</v>
+      </c>
+      <c r="D95" s="293">
+        <v>20</v>
+      </c>
+      <c r="E95" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="283" t="s">
+        <v>273</v>
+      </c>
+      <c r="G95" s="281" t="s">
+        <v>94</v>
       </c>
       <c r="H95" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070027</v>
       </c>
       <c r="I95" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 4835</v>
       </c>
       <c r="J95" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV LANCAR JAYA SENTOSA MALANG</v>
       </c>
       <c r="K95" s="281">
-        <v>144</v>
+        <v>1200</v>
       </c>
       <c r="L95" s="281" t="s">
         <v>155</v>
       </c>
       <c r="M95" s="281">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N95" s="281" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O95" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v>GUNTING JOYKO SC-848</v>
+        <v>STAPLER JOYKO HD-10CL</v>
       </c>
       <c r="P95" s="281" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q95" s="284">
-        <v>9750</v>
+        <v>7000</v>
       </c>
       <c r="R95" s="285">
         <v>0.125</v>
       </c>
       <c r="T95" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v>1228500</v>
+        <v>7350000</v>
+      </c>
+      <c r="U95" s="284" t="s">
+        <v>149</v>
       </c>
       <c r="W95" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X95" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
@@ -22928,11 +23183,11 @@
       </c>
       <c r="Y95" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v>1404000</v>
+        <v>8400000</v>
       </c>
       <c r="Z95" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v>175500</v>
+        <v>1050000</v>
       </c>
       <c r="AA95" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
@@ -22940,20 +23195,20 @@
       </c>
       <c r="AB95" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v>175500</v>
+        <v>1050000</v>
       </c>
       <c r="AC95" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v>1228500</v>
-      </c>
-      <c r="AD95" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>7350000</v>
+      </c>
+      <c r="AD95" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>8578500</v>
       </c>
       <c r="AE95" s="284"/>
       <c r="AF95" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v>GUNTING JOYKO SC-848PCS9750</v>
+        <v>STAPLER JOYKO HD-10CLPCS7000</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
@@ -22981,43 +23236,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K96" s="281">
+        <v>144</v>
+      </c>
+      <c r="L96" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="M96" s="281">
+        <v>1</v>
+      </c>
+      <c r="N96" s="281" t="s">
+        <v>275</v>
+      </c>
       <c r="O96" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q96" s="284"/>
-      <c r="R96" s="285"/>
-      <c r="T96" s="284" t="str">
+        <v>GUNTING JOYKO SC-848</v>
+      </c>
+      <c r="P96" s="281" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q96" s="284">
+        <v>9750</v>
+      </c>
+      <c r="R96" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T96" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W96" s="288" t="str">
+        <v>1228500</v>
+      </c>
+      <c r="W96" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X96" s="288" t="str">
+        <v>95</v>
+      </c>
+      <c r="X96" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y96" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y96" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z96" s="284" t="str">
+        <v>1404000</v>
+      </c>
+      <c r="Z96" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA96" s="284" t="str">
+        <v>175500</v>
+      </c>
+      <c r="AA96" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB96" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC96" s="284" t="str">
+        <v>175500</v>
+      </c>
+      <c r="AC96" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>1228500</v>
       </c>
       <c r="AD96" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23026,187 +23300,187 @@
       <c r="AE96" s="284"/>
       <c r="AF96" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GUNTING JOYKO SC-848PCS9750</v>
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A97" s="288">
+      <c r="A97" s="288" t="str">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v>97</v>
-      </c>
-      <c r="B97" s="288">
+        <v/>
+      </c>
+      <c r="B97" s="288" t="str">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B96))</f>
-        <v>23070028</v>
-      </c>
-      <c r="C97" s="282">
+        <v/>
+      </c>
+      <c r="C97" s="282" t="str">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v>45128</v>
-      </c>
-      <c r="D97" s="293">
-        <v>21</v>
-      </c>
-      <c r="E97" s="281" t="s">
-        <v>122</v>
-      </c>
-      <c r="F97" s="283" t="s">
-        <v>279</v>
-      </c>
-      <c r="G97" s="281" t="s">
-        <v>84</v>
+        <v/>
       </c>
       <c r="H97" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v>AM 23070028</v>
+        <v/>
       </c>
       <c r="I97" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v>KO 2380</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J97" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
-      </c>
-      <c r="K97" s="281">
-        <v>20</v>
-      </c>
-      <c r="L97" s="281" t="s">
-        <v>142</v>
-      </c>
-      <c r="M97" s="281">
-        <v>2</v>
-      </c>
-      <c r="N97" s="281" t="s">
-        <v>171</v>
+        <v/>
       </c>
       <c r="O97" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v>STAPLER KENKO HD-50</v>
-      </c>
-      <c r="P97" s="281" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q97" s="284">
-        <v>228000</v>
-      </c>
-      <c r="R97" s="285">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="T97" s="284">
+        <v/>
+      </c>
+      <c r="Q97" s="284"/>
+      <c r="R97" s="285"/>
+      <c r="T97" s="284" t="str">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v>3944400</v>
-      </c>
-      <c r="U97" s="284" t="s">
-        <v>149</v>
-      </c>
-      <c r="W97" s="288">
+        <v/>
+      </c>
+      <c r="W97" s="288" t="str">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v>97</v>
-      </c>
-      <c r="X97" s="288">
+        <v/>
+      </c>
+      <c r="X97" s="288" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v>1</v>
-      </c>
-      <c r="Y97" s="284">
+        <v/>
+      </c>
+      <c r="Y97" s="284" t="str">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v>4560000</v>
-      </c>
-      <c r="Z97" s="284">
+        <v/>
+      </c>
+      <c r="Z97" s="284" t="str">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v>615600</v>
-      </c>
-      <c r="AA97" s="284">
+        <v/>
+      </c>
+      <c r="AA97" s="284" t="str">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v>0</v>
-      </c>
-      <c r="AB97" s="284">
+        <v/>
+      </c>
+      <c r="AB97" s="284" t="str">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v>615600</v>
-      </c>
-      <c r="AC97" s="284">
+        <v/>
+      </c>
+      <c r="AC97" s="284" t="str">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v>3944400</v>
-      </c>
-      <c r="AD97" s="284">
-        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v>3944400</v>
+        <v/>
+      </c>
+      <c r="AD97" s="284" t="str">
+        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v/>
       </c>
       <c r="AE97" s="284"/>
       <c r="AF97" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v>STAPLER KENKO HD-50LSN228000</v>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A98" s="288" t="str">
+      <c r="A98" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B98" s="288" t="str">
+        <v>98</v>
+      </c>
+      <c r="B98" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B97))</f>
-        <v/>
-      </c>
-      <c r="C98" s="282" t="str">
+        <v>23070028</v>
+      </c>
+      <c r="C98" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45128</v>
+      </c>
+      <c r="D98" s="293">
+        <v>21</v>
+      </c>
+      <c r="E98" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="283" t="s">
+        <v>278</v>
+      </c>
+      <c r="G98" s="281" t="s">
+        <v>84</v>
       </c>
       <c r="H98" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070028</v>
       </c>
       <c r="I98" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 2380</v>
       </c>
       <c r="J98" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="K98" s="281">
+        <v>20</v>
+      </c>
+      <c r="L98" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M98" s="281">
+        <v>2</v>
+      </c>
+      <c r="N98" s="281" t="s">
+        <v>171</v>
       </c>
       <c r="O98" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q98" s="284"/>
-      <c r="R98" s="285"/>
-      <c r="T98" s="284" t="str">
+        <v>STAPLER KENKO HD-50</v>
+      </c>
+      <c r="P98" s="281" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q98" s="284">
+        <v>228000</v>
+      </c>
+      <c r="R98" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T98" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W98" s="288" t="str">
+        <v>3944400</v>
+      </c>
+      <c r="U98" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W98" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X98" s="288" t="str">
+        <v>98</v>
+      </c>
+      <c r="X98" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y98" s="284" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y98" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z98" s="284" t="str">
+        <v>4560000</v>
+      </c>
+      <c r="Z98" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA98" s="284" t="str">
+        <v>615600</v>
+      </c>
+      <c r="AA98" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB98" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC98" s="284" t="str">
+        <v>615600</v>
+      </c>
+      <c r="AC98" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD98" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>3944400</v>
+      </c>
+      <c r="AD98" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>3944400</v>
       </c>
       <c r="AE98" s="284"/>
       <c r="AF98" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STAPLER KENKO HD-50LSN228000</v>
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.25">
@@ -23283,76 +23557,110 @@
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A100" s="288" t="str">
+      <c r="A100" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B100" s="288" t="str">
+        <v>100</v>
+      </c>
+      <c r="B100" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B99))</f>
-        <v/>
-      </c>
-      <c r="C100" s="282" t="str">
+        <v>23070029</v>
+      </c>
+      <c r="C100" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45129</v>
+      </c>
+      <c r="D100" s="293">
+        <v>22</v>
+      </c>
+      <c r="E100" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="F100" s="283" t="s">
+        <v>284</v>
+      </c>
+      <c r="G100" s="281" t="s">
+        <v>70</v>
       </c>
       <c r="H100" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070029</v>
       </c>
       <c r="I100" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 2388</v>
       </c>
       <c r="J100" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>HARNOYO (BENDAN) PEKALONGAN</v>
+      </c>
+      <c r="K100" s="281">
+        <v>36</v>
+      </c>
+      <c r="L100" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M100" s="281">
+        <v>1</v>
+      </c>
+      <c r="N100" s="281" t="s">
+        <v>285</v>
       </c>
       <c r="O100" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q100" s="284"/>
-      <c r="R100" s="285"/>
-      <c r="T100" s="284" t="str">
+        <v>CORRECTION FLUID KENKO KE-01</v>
+      </c>
+      <c r="P100" s="281" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q100" s="284">
+        <v>54300</v>
+      </c>
+      <c r="R100" s="285">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T100" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W100" s="288" t="str">
+        <v>1681128</v>
+      </c>
+      <c r="U100" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W100" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X100" s="288" t="str">
+        <v>100</v>
+      </c>
+      <c r="X100" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y100" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y100" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z100" s="284" t="str">
+        <v>1954800</v>
+      </c>
+      <c r="Z100" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA100" s="284" t="str">
+        <v>273672</v>
+      </c>
+      <c r="AA100" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB100" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC100" s="284" t="str">
+        <v>273672</v>
+      </c>
+      <c r="AC100" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD100" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>1681128</v>
+      </c>
+      <c r="AD100" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>6585192</v>
       </c>
       <c r="AE100" s="284"/>
       <c r="AF100" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-01LSN54300</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
@@ -23380,43 +23688,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K101" s="281">
+        <v>144</v>
+      </c>
+      <c r="L101" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M101" s="281">
+        <v>1</v>
+      </c>
+      <c r="N101" s="281" t="s">
+        <v>287</v>
+      </c>
       <c r="O101" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q101" s="284"/>
-      <c r="R101" s="285"/>
-      <c r="T101" s="284" t="str">
+        <v>GEL PEN KENKO K-1 HITAM</v>
+      </c>
+      <c r="P101" s="281" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q101" s="284">
+        <v>39600</v>
+      </c>
+      <c r="R101" s="285">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T101" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W101" s="288" t="str">
+        <v>4904064</v>
+      </c>
+      <c r="W101" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X101" s="288" t="str">
+        <v>100</v>
+      </c>
+      <c r="X101" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y101" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y101" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z101" s="284" t="str">
+        <v>5702400</v>
+      </c>
+      <c r="Z101" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA101" s="284" t="str">
+        <v>798336.00000000012</v>
+      </c>
+      <c r="AA101" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB101" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC101" s="284" t="str">
+        <v>798336.00000000012</v>
+      </c>
+      <c r="AC101" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>4904064</v>
       </c>
       <c r="AD101" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23425,7 +23752,7 @@
       <c r="AE101" s="284"/>
       <c r="AF101" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN KENKO K-1 HITAMLSN39600</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.25">
@@ -23457,7 +23784,6 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
-      <c r="P102" s="288"/>
       <c r="Q102" s="284"/>
       <c r="R102" s="285"/>
       <c r="T102" s="284" t="str">
@@ -23508,7 +23834,7 @@
         <v/>
       </c>
       <c r="B103" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B102))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B100))</f>
         <v/>
       </c>
       <c r="C103" s="282" t="str">
@@ -23576,76 +23902,110 @@
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A104" s="288" t="str">
+      <c r="A104" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B104" s="288" t="str">
+        <v>104</v>
+      </c>
+      <c r="B104" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B103))</f>
-        <v/>
-      </c>
-      <c r="C104" s="282" t="str">
+        <v>23070030</v>
+      </c>
+      <c r="C104" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45131</v>
+      </c>
+      <c r="D104" s="293">
+        <v>24</v>
+      </c>
+      <c r="E104" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="283" t="s">
+        <v>279</v>
+      </c>
+      <c r="G104" s="281" t="s">
+        <v>94</v>
       </c>
       <c r="H104" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070030</v>
       </c>
       <c r="I104" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 4840</v>
       </c>
       <c r="J104" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV LANCAR JAYA SENTOSA MALANG</v>
+      </c>
+      <c r="K104" s="281">
+        <v>144</v>
+      </c>
+      <c r="L104" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M104" s="281">
+        <v>2</v>
+      </c>
+      <c r="N104" s="281" t="s">
+        <v>280</v>
       </c>
       <c r="O104" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q104" s="284"/>
-      <c r="R104" s="285"/>
-      <c r="T104" s="284" t="str">
+        <v>ISI PENSIL 2B 2.0 MM JOYKO PL-11</v>
+      </c>
+      <c r="P104" s="281" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q104" s="284">
+        <v>37200</v>
+      </c>
+      <c r="R104" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T104" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W104" s="288" t="str">
+        <v>4687200</v>
+      </c>
+      <c r="U104" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W104" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X104" s="288" t="str">
+        <v>104</v>
+      </c>
+      <c r="X104" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y104" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y104" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z104" s="284" t="str">
+        <v>5356800</v>
+      </c>
+      <c r="Z104" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA104" s="284" t="str">
+        <v>669600</v>
+      </c>
+      <c r="AA104" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB104" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC104" s="284" t="str">
+        <v>669600</v>
+      </c>
+      <c r="AC104" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD104" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>4687200</v>
+      </c>
+      <c r="AD104" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>7182000</v>
       </c>
       <c r="AE104" s="284"/>
       <c r="AF104" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>ISI PENSIL 2B 2.0 MM JOYKO PL-11LSN37200</v>
       </c>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.25">
@@ -23673,43 +24033,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K105" s="281">
+        <v>144</v>
+      </c>
+      <c r="L105" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M105" s="281">
+        <v>1</v>
+      </c>
+      <c r="N105" s="281" t="s">
+        <v>282</v>
+      </c>
       <c r="O105" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q105" s="284"/>
-      <c r="R105" s="285"/>
-      <c r="T105" s="284" t="str">
+        <v>ISI PENSIL 2B 2.0 MM JOYKO PL-10</v>
+      </c>
+      <c r="P105" s="288" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q105" s="284">
+        <v>19800</v>
+      </c>
+      <c r="R105" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T105" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W105" s="288" t="str">
+        <v>2494800</v>
+      </c>
+      <c r="W105" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X105" s="288" t="str">
+        <v>104</v>
+      </c>
+      <c r="X105" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y105" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y105" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z105" s="284" t="str">
+        <v>2851200</v>
+      </c>
+      <c r="Z105" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA105" s="284" t="str">
+        <v>356400</v>
+      </c>
+      <c r="AA105" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB105" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC105" s="284" t="str">
+        <v>356400</v>
+      </c>
+      <c r="AC105" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2494800</v>
       </c>
       <c r="AD105" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23718,7 +24097,7 @@
       <c r="AE105" s="284"/>
       <c r="AF105" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>ISI PENSIL 2B 2.0 MM JOYKO PL-10LSN19800</v>
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.25">
@@ -23795,76 +24174,110 @@
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A107" s="288" t="str">
+      <c r="A107" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B107" s="288" t="str">
+        <v>107</v>
+      </c>
+      <c r="B107" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B106))</f>
-        <v/>
-      </c>
-      <c r="C107" s="282" t="str">
+        <v>23070031</v>
+      </c>
+      <c r="C107" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45131</v>
+      </c>
+      <c r="D107" s="293">
+        <v>24</v>
+      </c>
+      <c r="E107" s="281" t="s">
+        <v>129</v>
+      </c>
+      <c r="F107" s="283" t="s">
+        <v>296</v>
+      </c>
+      <c r="G107" s="281" t="s">
+        <v>93</v>
       </c>
       <c r="H107" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070031</v>
       </c>
       <c r="I107" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 2397</v>
       </c>
       <c r="J107" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="K107" s="281">
+        <v>7776</v>
+      </c>
+      <c r="L107" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="M107" s="281">
+        <v>9</v>
+      </c>
+      <c r="N107" s="281" t="s">
+        <v>294</v>
       </c>
       <c r="O107" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q107" s="284"/>
-      <c r="R107" s="285"/>
-      <c r="T107" s="284" t="str">
+        <v>LEM STICK JOYKO 15 GR GS-104 TG (ANIMAL KINGDOM) isi 24 pc</v>
+      </c>
+      <c r="P107" s="281" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q107" s="284">
+        <v>2450</v>
+      </c>
+      <c r="R107" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T107" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W107" s="288" t="str">
+        <v>16669800</v>
+      </c>
+      <c r="U107" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W107" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X107" s="288" t="str">
+        <v>107</v>
+      </c>
+      <c r="X107" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y107" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y107" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z107" s="284" t="str">
+        <v>19051200</v>
+      </c>
+      <c r="Z107" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA107" s="284" t="str">
+        <v>2381400</v>
+      </c>
+      <c r="AA107" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB107" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC107" s="284" t="str">
+        <v>2381400</v>
+      </c>
+      <c r="AC107" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD107" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>16669800</v>
+      </c>
+      <c r="AD107" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>18463550</v>
       </c>
       <c r="AE107" s="284"/>
       <c r="AF107" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>LEM STICK JOYKO 15 GR GS-104 TG (ANIMAL KINGDOM) isi 24 pcPCS2450</v>
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.25">
@@ -23892,43 +24305,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K108" s="281">
+        <v>1000</v>
+      </c>
+      <c r="L108" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="M108" s="281">
+        <v>1</v>
+      </c>
+      <c r="N108" s="281" t="s">
+        <v>153</v>
+      </c>
       <c r="O108" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q108" s="284"/>
-      <c r="R108" s="285"/>
-      <c r="T108" s="284" t="str">
+        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)</v>
+      </c>
+      <c r="P108" s="281" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q108" s="284">
+        <v>2050</v>
+      </c>
+      <c r="R108" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T108" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W108" s="288" t="str">
+        <v>1793750</v>
+      </c>
+      <c r="W108" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X108" s="288" t="str">
+        <v>107</v>
+      </c>
+      <c r="X108" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y108" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y108" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z108" s="284" t="str">
+        <v>2050000</v>
+      </c>
+      <c r="Z108" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA108" s="284" t="str">
+        <v>256250</v>
+      </c>
+      <c r="AA108" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB108" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC108" s="284" t="str">
+        <v>256250</v>
+      </c>
+      <c r="AC108" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>1793750</v>
       </c>
       <c r="AD108" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23937,7 +24369,7 @@
       <c r="AE108" s="284"/>
       <c r="AF108" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)PCS2050</v>
       </c>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.25">
@@ -24014,76 +24446,110 @@
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A110" s="288" t="str">
+      <c r="A110" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B110" s="288" t="str">
+        <v>110</v>
+      </c>
+      <c r="B110" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B109))</f>
-        <v/>
-      </c>
-      <c r="C110" s="282" t="str">
+        <v>23070032</v>
+      </c>
+      <c r="C110" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45131</v>
+      </c>
+      <c r="D110" s="293">
+        <v>24</v>
+      </c>
+      <c r="E110" s="281" t="s">
+        <v>129</v>
+      </c>
+      <c r="F110" s="283" t="s">
+        <v>297</v>
+      </c>
+      <c r="G110" s="281" t="s">
+        <v>183</v>
       </c>
       <c r="H110" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070032</v>
       </c>
       <c r="I110" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 2653</v>
       </c>
       <c r="J110" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>GUNAWAN HARTONO KUSUMA ( NIKI SAE ) TULUNG AGUNG</v>
+      </c>
+      <c r="K110" s="281">
+        <v>144</v>
+      </c>
+      <c r="L110" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M110" s="281">
+        <v>1</v>
+      </c>
+      <c r="N110" s="281" t="s">
+        <v>298</v>
       </c>
       <c r="O110" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q110" s="284"/>
-      <c r="R110" s="285"/>
-      <c r="T110" s="284" t="str">
+        <v>GEL PEN JOYKO GP-212 I-DIAMOND</v>
+      </c>
+      <c r="P110" s="281" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q110" s="284">
+        <v>21600</v>
+      </c>
+      <c r="R110" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T110" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W110" s="288" t="str">
+        <v>2721600</v>
+      </c>
+      <c r="U110" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W110" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X110" s="288" t="str">
+        <v>110</v>
+      </c>
+      <c r="X110" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y110" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y110" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z110" s="284" t="str">
+        <v>3110400</v>
+      </c>
+      <c r="Z110" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA110" s="284" t="str">
+        <v>388800</v>
+      </c>
+      <c r="AA110" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB110" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC110" s="284" t="str">
+        <v>388800</v>
+      </c>
+      <c r="AC110" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD110" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>2721600</v>
+      </c>
+      <c r="AD110" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>7172550</v>
       </c>
       <c r="AE110" s="284"/>
       <c r="AF110" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN JOYKO GP-212 I-DIAMONDLSN21600</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.25">
@@ -24111,43 +24577,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K111" s="281">
+        <v>108</v>
+      </c>
+      <c r="L111" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M111" s="281">
+        <v>3</v>
+      </c>
+      <c r="N111" s="281" t="s">
+        <v>292</v>
+      </c>
       <c r="O111" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q111" s="284"/>
-      <c r="R111" s="285"/>
-      <c r="T111" s="284" t="str">
+        <v>CORRECTION FLUID KENKO KE-108</v>
+      </c>
+      <c r="P111" s="281" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q111" s="284">
+        <v>47100</v>
+      </c>
+      <c r="R111" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T111" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W111" s="288" t="str">
+        <v>4450950</v>
+      </c>
+      <c r="W111" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X111" s="288" t="str">
+        <v>110</v>
+      </c>
+      <c r="X111" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y111" s="284" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y111" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z111" s="284" t="str">
+        <v>5086800</v>
+      </c>
+      <c r="Z111" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA111" s="284" t="str">
+        <v>635850</v>
+      </c>
+      <c r="AA111" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB111" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC111" s="284" t="str">
+        <v>635850</v>
+      </c>
+      <c r="AC111" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>4450950</v>
       </c>
       <c r="AD111" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -24156,7 +24641,7 @@
       <c r="AE111" s="284"/>
       <c r="AF111" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-108LSN47100</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.25">
@@ -24233,76 +24718,110 @@
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A113" s="288" t="str">
+      <c r="A113" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B113" s="288" t="str">
+        <v>113</v>
+      </c>
+      <c r="B113" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B112))</f>
-        <v/>
-      </c>
-      <c r="C113" s="282" t="str">
+        <v>23070033</v>
+      </c>
+      <c r="C113" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45131</v>
+      </c>
+      <c r="D113" s="293">
+        <v>24</v>
+      </c>
+      <c r="E113" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" s="283" t="s">
+        <v>300</v>
+      </c>
+      <c r="G113" s="281" t="s">
+        <v>84</v>
       </c>
       <c r="H113" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070033</v>
       </c>
       <c r="I113" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 2655</v>
       </c>
       <c r="J113" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="K113" s="281">
+        <v>432</v>
+      </c>
+      <c r="L113" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M113" s="281">
+        <v>3</v>
+      </c>
+      <c r="N113" s="281" t="s">
+        <v>230</v>
       </c>
       <c r="O113" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q113" s="284"/>
-      <c r="R113" s="285"/>
-      <c r="T113" s="284" t="str">
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
+      </c>
+      <c r="P113" s="281" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q113" s="284">
+        <v>10600</v>
+      </c>
+      <c r="R113" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T113" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W113" s="288" t="str">
+        <v>3961008</v>
+      </c>
+      <c r="U113" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W113" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X113" s="288" t="str">
+        <v>113</v>
+      </c>
+      <c r="X113" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y113" s="284" t="str">
+        <v>5</v>
+      </c>
+      <c r="Y113" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z113" s="284" t="str">
+        <v>4579200</v>
+      </c>
+      <c r="Z113" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA113" s="284" t="str">
+        <v>618192</v>
+      </c>
+      <c r="AA113" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB113" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC113" s="284" t="str">
+        <v>618192</v>
+      </c>
+      <c r="AC113" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD113" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>3961008</v>
+      </c>
+      <c r="AD113" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>16248852</v>
       </c>
       <c r="AE113" s="284"/>
       <c r="AF113" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)LSN10600</v>
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.25">
@@ -24330,43 +24849,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K114" s="281">
+        <v>60</v>
+      </c>
+      <c r="L114" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M114" s="281">
+        <v>3</v>
+      </c>
+      <c r="N114" s="281" t="s">
+        <v>301</v>
+      </c>
       <c r="O114" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q114" s="284"/>
-      <c r="R114" s="285"/>
-      <c r="T114" s="284" t="str">
+        <v>STAPLER KENKO HD-10</v>
+      </c>
+      <c r="P114" s="281" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q114" s="284">
+        <v>93000</v>
+      </c>
+      <c r="R114" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T114" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W114" s="288" t="str">
+        <v>4826700</v>
+      </c>
+      <c r="W114" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X114" s="288" t="str">
+        <v>113</v>
+      </c>
+      <c r="X114" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y114" s="284" t="str">
+        <v>5</v>
+      </c>
+      <c r="Y114" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z114" s="284" t="str">
+        <v>5580000</v>
+      </c>
+      <c r="Z114" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA114" s="284" t="str">
+        <v>753300</v>
+      </c>
+      <c r="AA114" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB114" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC114" s="284" t="str">
+        <v>753300</v>
+      </c>
+      <c r="AC114" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>4826700</v>
       </c>
       <c r="AD114" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -24375,7 +24913,7 @@
       <c r="AE114" s="284"/>
       <c r="AF114" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STAPLER KENKO HD-10LSN93000</v>
       </c>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.25">
@@ -24403,43 +24941,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K115" s="281">
+        <v>60</v>
+      </c>
+      <c r="L115" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M115" s="281">
+        <v>2</v>
+      </c>
+      <c r="N115" s="281" t="s">
+        <v>305</v>
+      </c>
       <c r="O115" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q115" s="284"/>
-      <c r="R115" s="285"/>
-      <c r="T115" s="284" t="str">
+        <v>CUTTER 9 MM KENKO A-300 (KECIL)</v>
+      </c>
+      <c r="P115" s="281" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q115" s="284">
+        <v>57000</v>
+      </c>
+      <c r="R115" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T115" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W115" s="288" t="str">
+        <v>2958300</v>
+      </c>
+      <c r="W115" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X115" s="288" t="str">
+        <v>113</v>
+      </c>
+      <c r="X115" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y115" s="284" t="str">
+        <v>5</v>
+      </c>
+      <c r="Y115" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z115" s="284" t="str">
+        <v>3420000</v>
+      </c>
+      <c r="Z115" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA115" s="284" t="str">
+        <v>461700.00000000006</v>
+      </c>
+      <c r="AA115" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB115" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC115" s="284" t="str">
+        <v>461700.00000000006</v>
+      </c>
+      <c r="AC115" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2958300</v>
       </c>
       <c r="AD115" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -24448,7 +25005,7 @@
       <c r="AE115" s="284"/>
       <c r="AF115" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CUTTER 9 MM KENKO A-300 (KECIL)LSN57000</v>
       </c>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.25">
@@ -24476,43 +25033,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K116" s="281">
+        <v>144</v>
+      </c>
+      <c r="L116" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M116" s="281">
+        <v>1</v>
+      </c>
+      <c r="N116" s="281" t="s">
+        <v>303</v>
+      </c>
       <c r="O116" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q116" s="284"/>
-      <c r="R116" s="285"/>
-      <c r="T116" s="284" t="str">
+        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
+      </c>
+      <c r="P116" s="281" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q116" s="284">
+        <v>12600</v>
+      </c>
+      <c r="R116" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T116" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W116" s="288" t="str">
+        <v>1569456</v>
+      </c>
+      <c r="W116" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X116" s="288" t="str">
+        <v>113</v>
+      </c>
+      <c r="X116" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y116" s="284" t="str">
+        <v>5</v>
+      </c>
+      <c r="Y116" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z116" s="284" t="str">
+        <v>1814400</v>
+      </c>
+      <c r="Z116" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA116" s="284" t="str">
+        <v>244944.00000000003</v>
+      </c>
+      <c r="AA116" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB116" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC116" s="284" t="str">
+        <v>244944.00000000003</v>
+      </c>
+      <c r="AC116" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>1569456</v>
       </c>
       <c r="AD116" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -24521,7 +25097,7 @@
       <c r="AE116" s="284"/>
       <c r="AF116" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>BALLPEN JOYKO BP-338 VOCUS HITAMLSN12600</v>
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
@@ -24549,43 +25125,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K117" s="281">
+        <v>72</v>
+      </c>
+      <c r="L117" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M117" s="281">
+        <v>1</v>
+      </c>
+      <c r="N117" s="281" t="s">
+        <v>292</v>
+      </c>
       <c r="O117" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q117" s="284"/>
-      <c r="R117" s="285"/>
-      <c r="T117" s="284" t="str">
+        <v>CORRECTION FLUID KENKO KE-108</v>
+      </c>
+      <c r="P117" s="281" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q117" s="284">
+        <v>47100</v>
+      </c>
+      <c r="R117" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T117" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W117" s="288" t="str">
+        <v>2933388</v>
+      </c>
+      <c r="W117" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X117" s="288" t="str">
+        <v>113</v>
+      </c>
+      <c r="X117" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y117" s="284" t="str">
+        <v>5</v>
+      </c>
+      <c r="Y117" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z117" s="284" t="str">
+        <v>3391200</v>
+      </c>
+      <c r="Z117" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA117" s="284" t="str">
+        <v>457812.00000000006</v>
+      </c>
+      <c r="AA117" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB117" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC117" s="284" t="str">
+        <v>457812.00000000006</v>
+      </c>
+      <c r="AC117" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2933388</v>
       </c>
       <c r="AD117" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -24594,7 +25189,7 @@
       <c r="AE117" s="284"/>
       <c r="AF117" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-108LSN47100</v>
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
@@ -24822,7 +25417,7 @@
         <v/>
       </c>
       <c r="B121" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B106))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B120))</f>
         <v/>
       </c>
       <c r="C121" s="282" t="str">
@@ -25041,7 +25636,7 @@
         <v/>
       </c>
       <c r="B124" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B121))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B109))</f>
         <v/>
       </c>
       <c r="C124" s="282" t="str">
@@ -25260,7 +25855,7 @@
         <v/>
       </c>
       <c r="B127" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B126))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B124))</f>
         <v/>
       </c>
       <c r="C127" s="282" t="str">
@@ -25406,7 +26001,7 @@
         <v/>
       </c>
       <c r="B129" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B124))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B128))</f>
         <v/>
       </c>
       <c r="C129" s="282" t="str">
@@ -25625,7 +26220,7 @@
         <v/>
       </c>
       <c r="B132" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B129))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B127))</f>
         <v/>
       </c>
       <c r="C132" s="282" t="str">
@@ -25771,7 +26366,7 @@
         <v/>
       </c>
       <c r="B134" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B132))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B133))</f>
         <v/>
       </c>
       <c r="C134" s="282" t="str">
@@ -25844,7 +26439,7 @@
         <v/>
       </c>
       <c r="B135" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B134))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B132))</f>
         <v/>
       </c>
       <c r="C135" s="282" t="str">
@@ -26209,7 +26804,7 @@
         <v/>
       </c>
       <c r="B140" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B139))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B138))</f>
         <v/>
       </c>
       <c r="C140" s="282" t="str">
@@ -26647,7 +27242,7 @@
         <v/>
       </c>
       <c r="B146" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B144))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B145))</f>
         <v/>
       </c>
       <c r="C146" s="282" t="str">
@@ -26866,7 +27461,7 @@
         <v/>
       </c>
       <c r="B149" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B148))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B147))</f>
         <v/>
       </c>
       <c r="C149" s="282" t="str">
@@ -27085,7 +27680,7 @@
         <v/>
       </c>
       <c r="B152" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B150))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B151))</f>
         <v/>
       </c>
       <c r="C152" s="282" t="str">
@@ -27304,7 +27899,7 @@
         <v/>
       </c>
       <c r="B155" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B154))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B153))</f>
         <v/>
       </c>
       <c r="C155" s="282" t="str">
@@ -27955,7 +28550,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164" s="288" t="str">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
         <v/>
@@ -27984,7 +28579,6 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
-      <c r="P164" s="291"/>
       <c r="Q164" s="284"/>
       <c r="R164" s="285"/>
       <c r="T164" s="284" t="str">
@@ -28175,7 +28769,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="288" t="str">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
         <v/>
@@ -28204,6 +28798,7 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
+      <c r="P167" s="291"/>
       <c r="Q167" s="284"/>
       <c r="R167" s="285"/>
       <c r="T167" s="284" t="str">
@@ -28765,7 +29360,7 @@
         <v/>
       </c>
       <c r="B175" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B173))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B174))</f>
         <v/>
       </c>
       <c r="C175" s="282" t="str">
@@ -28984,7 +29579,7 @@
         <v/>
       </c>
       <c r="B178" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B177))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B176))</f>
         <v/>
       </c>
       <c r="C178" s="282" t="str">
@@ -31923,8 +32518,9 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="O218" s="288" t="s">
-        <v>119</v>
+      <c r="O218" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
+        <v/>
       </c>
       <c r="Q218" s="284"/>
       <c r="R218" s="285"/>
@@ -32068,8 +32664,9 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="O220" s="288" t="s">
-        <v>120</v>
+      <c r="O220" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
+        <v/>
       </c>
       <c r="Q220" s="284"/>
       <c r="R220" s="285"/>
@@ -32121,7 +32718,7 @@
         <v/>
       </c>
       <c r="B221" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B219))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B220))</f>
         <v/>
       </c>
       <c r="C221" s="282" t="str">
@@ -32140,9 +32737,8 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="O221" s="288" t="str">
-        <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
+      <c r="O221" s="288" t="s">
+        <v>119</v>
       </c>
       <c r="Q221" s="284"/>
       <c r="R221" s="285"/>
@@ -32286,9 +32882,8 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="O223" s="288" t="str">
-        <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
+      <c r="O223" s="288" t="s">
+        <v>120</v>
       </c>
       <c r="Q223" s="284"/>
       <c r="R223" s="285"/>
@@ -32340,7 +32935,7 @@
         <v/>
       </c>
       <c r="B224" s="288" t="str">
-        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B223))</f>
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B222))</f>
         <v/>
       </c>
       <c r="C224" s="282" t="str">
@@ -32801,7 +33396,6 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
-      <c r="P230" s="288"/>
       <c r="Q230" s="284"/>
       <c r="R230" s="285"/>
       <c r="T230" s="284" t="str">
@@ -33021,6 +33615,7 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
+      <c r="P233" s="288"/>
       <c r="Q233" s="284"/>
       <c r="R233" s="285"/>
       <c r="T233" s="284" t="str">
@@ -34964,22 +35559,241 @@
       </c>
     </row>
     <row r="260" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A260" s="288"/>
-      <c r="B260" s="288"/>
-      <c r="H260" s="288"/>
-      <c r="I260" s="289"/>
-      <c r="J260" s="288"/>
-      <c r="O260" s="288"/>
+      <c r="A260" s="288" t="str">
+        <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
+        <v/>
+      </c>
+      <c r="B260" s="288" t="str">
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B259))</f>
+        <v/>
+      </c>
+      <c r="C260" s="282" t="str">
+        <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
+        <v/>
+      </c>
+      <c r="H260" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
+        <v/>
+      </c>
+      <c r="I260" s="289" t="str">
+        <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J260" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
+        <v/>
+      </c>
+      <c r="O260" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
+        <v/>
+      </c>
       <c r="Q260" s="284"/>
       <c r="R260" s="285"/>
-      <c r="T260" s="284"/>
-      <c r="W260" s="288"/>
-      <c r="X260" s="288"/>
-      <c r="Y260" s="284"/>
-      <c r="Z260" s="284"/>
-      <c r="AA260" s="284"/>
+      <c r="T260" s="284" t="str">
+        <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
+        <v/>
+      </c>
+      <c r="W260" s="288" t="str">
+        <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
+        <v/>
+      </c>
+      <c r="X260" s="288" t="str">
+        <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
+        <v/>
+      </c>
+      <c r="Y260" s="284" t="str">
+        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
+        <v/>
+      </c>
+      <c r="Z260" s="284" t="str">
+        <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
+        <v/>
+      </c>
+      <c r="AA260" s="284" t="str">
+        <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
+        <v/>
+      </c>
+      <c r="AB260" s="284" t="str">
+        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
+        <v/>
+      </c>
+      <c r="AC260" s="284" t="str">
+        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
+        <v/>
+      </c>
+      <c r="AD260" s="284" t="str">
+        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v/>
+      </c>
       <c r="AE260" s="284"/>
-      <c r="AF260" s="284"/>
+      <c r="AF260" s="284" t="str">
+        <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A261" s="288" t="str">
+        <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
+        <v/>
+      </c>
+      <c r="B261" s="288" t="str">
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B260))</f>
+        <v/>
+      </c>
+      <c r="C261" s="282" t="str">
+        <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
+        <v/>
+      </c>
+      <c r="H261" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
+        <v/>
+      </c>
+      <c r="I261" s="289" t="str">
+        <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J261" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
+        <v/>
+      </c>
+      <c r="O261" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
+        <v/>
+      </c>
+      <c r="Q261" s="284"/>
+      <c r="R261" s="285"/>
+      <c r="T261" s="284" t="str">
+        <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
+        <v/>
+      </c>
+      <c r="W261" s="288" t="str">
+        <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
+        <v/>
+      </c>
+      <c r="X261" s="288" t="str">
+        <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
+        <v/>
+      </c>
+      <c r="Y261" s="284" t="str">
+        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
+        <v/>
+      </c>
+      <c r="Z261" s="284" t="str">
+        <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
+        <v/>
+      </c>
+      <c r="AA261" s="284" t="str">
+        <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
+        <v/>
+      </c>
+      <c r="AB261" s="284" t="str">
+        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
+        <v/>
+      </c>
+      <c r="AC261" s="284" t="str">
+        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
+        <v/>
+      </c>
+      <c r="AD261" s="284" t="str">
+        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v/>
+      </c>
+      <c r="AE261" s="284"/>
+      <c r="AF261" s="284" t="str">
+        <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A262" s="288" t="str">
+        <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
+        <v/>
+      </c>
+      <c r="B262" s="288" t="str">
+        <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B261))</f>
+        <v/>
+      </c>
+      <c r="C262" s="282" t="str">
+        <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
+        <v/>
+      </c>
+      <c r="H262" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
+        <v/>
+      </c>
+      <c r="I262" s="289" t="str">
+        <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J262" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
+        <v/>
+      </c>
+      <c r="O262" s="288" t="str">
+        <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
+        <v/>
+      </c>
+      <c r="Q262" s="284"/>
+      <c r="R262" s="285"/>
+      <c r="T262" s="284" t="str">
+        <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
+        <v/>
+      </c>
+      <c r="W262" s="288" t="str">
+        <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
+        <v/>
+      </c>
+      <c r="X262" s="288" t="str">
+        <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
+        <v/>
+      </c>
+      <c r="Y262" s="284" t="str">
+        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
+        <v/>
+      </c>
+      <c r="Z262" s="284" t="str">
+        <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
+        <v/>
+      </c>
+      <c r="AA262" s="284" t="str">
+        <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
+        <v/>
+      </c>
+      <c r="AB262" s="284" t="str">
+        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
+        <v/>
+      </c>
+      <c r="AC262" s="284" t="str">
+        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
+        <v/>
+      </c>
+      <c r="AD262" s="284" t="str">
+        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v/>
+      </c>
+      <c r="AE262" s="284"/>
+      <c r="AF262" s="284" t="str">
+        <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A263" s="288"/>
+      <c r="B263" s="288"/>
+      <c r="H263" s="288"/>
+      <c r="I263" s="289"/>
+      <c r="J263" s="288"/>
+      <c r="O263" s="288"/>
+      <c r="Q263" s="284"/>
+      <c r="R263" s="285"/>
+      <c r="T263" s="284"/>
+      <c r="W263" s="288"/>
+      <c r="X263" s="288"/>
+      <c r="Y263" s="284"/>
+      <c r="Z263" s="284"/>
+      <c r="AA263" s="284"/>
+      <c r="AE263" s="284"/>
+      <c r="AF263" s="284"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34995,15 +35809,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="88" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
@@ -35064,7 +35878,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>COUNT(Table1[//])</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G3" s="295" t="str">
         <f>"["&amp;G2&amp;".xlsx]Invoice"</f>
@@ -35073,7 +35887,7 @@
       <c r="H3" s="297"/>
       <c r="N3" s="85">
         <f>preview!K1</f>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="str">
         <f>"'"&amp;pointer&amp;"'"&amp;"!$"&amp;1:1&amp;":$"&amp;1:1</f>
@@ -35174,7 +35988,7 @@
       </c>
       <c r="Z4" s="279">
         <f ca="1">SUM(pajak[Total Invoice])</f>
-        <v>299861284.5</v>
+        <v>363730728.5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -35238,32 +36052,32 @@
         <f t="shared" ref="R5:R36" si="1">R$3+ROW()-5</f>
         <v>23070001</v>
       </c>
-      <c r="S5" s="183">
+      <c r="S5" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2</v>
-      </c>
-      <c r="T5" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T5" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U5" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U5" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V5" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V5" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W5" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W5" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="Y5" t="s">
         <v>25</v>
       </c>
       <c r="Z5" s="87">
         <f ca="1">SUM(pajak[PPN 11%])</f>
-        <v>29715983.148648646</v>
+        <v>36045387.509009004</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -35327,29 +36141,29 @@
         <f t="shared" si="1"/>
         <v>23070002</v>
       </c>
-      <c r="S6" s="183">
+      <c r="S6" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>116</v>
-      </c>
-      <c r="T6" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T6" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U6" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U6" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V6" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V6" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W6" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="Z6" s="87">
         <f ca="1">(Z4/1.11)*11%</f>
-        <v>29715983.148648646</v>
+        <v>36045387.509009004</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -35413,25 +36227,25 @@
         <f t="shared" si="1"/>
         <v>23070003</v>
       </c>
-      <c r="S7" s="183">
+      <c r="S7" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>230</v>
-      </c>
-      <c r="T7" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T7" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U7" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U7" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V7" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V7" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W7" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W7" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -35495,25 +36309,25 @@
         <f t="shared" si="1"/>
         <v>23070004</v>
       </c>
-      <c r="S8" s="183">
+      <c r="S8" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>344</v>
-      </c>
-      <c r="T8" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T8" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U8" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U8" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V8" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V8" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W8" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W8" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -35577,25 +36391,25 @@
         <f t="shared" si="1"/>
         <v>23070005</v>
       </c>
-      <c r="S9" s="183">
+      <c r="S9" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>458</v>
-      </c>
-      <c r="T9" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T9" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U9" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U9" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V9" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V9" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W9" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W9" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -35659,25 +36473,25 @@
         <f t="shared" si="1"/>
         <v>23070006</v>
       </c>
-      <c r="S10" s="183">
+      <c r="S10" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>572</v>
-      </c>
-      <c r="T10" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T10" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U10" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U10" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V10" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V10" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W10" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -35741,25 +36555,25 @@
         <f t="shared" si="1"/>
         <v>23070007</v>
       </c>
-      <c r="S11" s="183">
+      <c r="S11" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>686</v>
-      </c>
-      <c r="T11" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T11" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U11" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U11" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V11" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V11" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W11" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W11" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -35823,25 +36637,25 @@
         <f t="shared" si="1"/>
         <v>23070008</v>
       </c>
-      <c r="S12" s="183">
+      <c r="S12" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>800</v>
-      </c>
-      <c r="T12" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T12" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U12" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U12" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V12" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V12" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W12" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W12" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -35905,25 +36719,25 @@
         <f t="shared" si="1"/>
         <v>23070009</v>
       </c>
-      <c r="S13" s="183">
+      <c r="S13" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>914</v>
-      </c>
-      <c r="T13" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T13" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U13" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U13" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V13" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V13" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W13" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W13" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -35987,25 +36801,25 @@
         <f t="shared" si="1"/>
         <v>23070010</v>
       </c>
-      <c r="S14" s="183">
+      <c r="S14" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1028</v>
-      </c>
-      <c r="T14" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T14" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U14" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U14" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V14" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V14" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W14" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W14" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -36069,25 +36883,25 @@
         <f t="shared" si="1"/>
         <v>23070011</v>
       </c>
-      <c r="S15" s="183">
+      <c r="S15" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1142</v>
-      </c>
-      <c r="T15" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T15" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U15" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U15" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V15" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V15" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W15" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W15" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -36151,25 +36965,25 @@
         <f t="shared" si="1"/>
         <v>23070012</v>
       </c>
-      <c r="S16" s="183">
+      <c r="S16" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1256</v>
-      </c>
-      <c r="T16" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T16" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U16" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U16" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V16" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V16" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W16" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W16" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -36233,25 +37047,25 @@
         <f t="shared" si="1"/>
         <v>23070013</v>
       </c>
-      <c r="S17" s="183">
+      <c r="S17" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1370</v>
-      </c>
-      <c r="T17" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T17" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U17" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U17" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V17" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V17" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W17" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W17" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -36315,25 +37129,25 @@
         <f t="shared" si="1"/>
         <v>23070014</v>
       </c>
-      <c r="S18" s="183">
+      <c r="S18" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1484</v>
-      </c>
-      <c r="T18" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T18" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U18" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U18" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V18" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V18" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W18" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W18" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -36397,25 +37211,25 @@
         <f t="shared" si="1"/>
         <v>23070015</v>
       </c>
-      <c r="S19" s="183">
+      <c r="S19" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1598</v>
-      </c>
-      <c r="T19" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T19" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U19" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U19" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V19" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V19" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W19" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W19" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -36479,25 +37293,25 @@
         <f t="shared" si="1"/>
         <v>23070016</v>
       </c>
-      <c r="S20" s="183">
+      <c r="S20" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1712</v>
-      </c>
-      <c r="T20" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T20" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U20" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U20" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V20" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V20" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W20" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -36562,25 +37376,25 @@
         <f t="shared" si="1"/>
         <v>23070017</v>
       </c>
-      <c r="S21" s="183">
+      <c r="S21" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1826</v>
-      </c>
-      <c r="T21" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T21" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U21" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U21" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V21" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V21" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W21" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W21" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -36644,25 +37458,25 @@
         <f t="shared" si="1"/>
         <v>23070018</v>
       </c>
-      <c r="S22" s="183">
+      <c r="S22" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1940</v>
-      </c>
-      <c r="T22" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T22" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U22" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U22" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V22" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V22" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W22" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W22" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -36726,25 +37540,25 @@
         <f t="shared" si="1"/>
         <v>23070019</v>
       </c>
-      <c r="S23" s="183">
+      <c r="S23" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2054</v>
-      </c>
-      <c r="T23" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T23" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U23" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U23" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V23" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V23" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W23" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W23" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -36808,25 +37622,25 @@
         <f t="shared" si="1"/>
         <v>23070020</v>
       </c>
-      <c r="S24" s="183">
+      <c r="S24" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2168</v>
-      </c>
-      <c r="T24" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T24" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U24" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U24" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V24" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V24" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W24" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W24" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -36890,25 +37704,25 @@
         <f t="shared" si="1"/>
         <v>23070021</v>
       </c>
-      <c r="S25" s="183">
+      <c r="S25" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2282</v>
-      </c>
-      <c r="T25" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="T25" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U25" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U25" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V25" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V25" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W25" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W25" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -36972,25 +37786,25 @@
         <f t="shared" si="1"/>
         <v>23070022</v>
       </c>
-      <c r="S26" s="184">
+      <c r="S26" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2396</v>
-      </c>
-      <c r="T26" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="T26" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U26" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="U26" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V26" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V26" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W26" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W26" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -37054,25 +37868,25 @@
         <f t="shared" si="1"/>
         <v>23070023</v>
       </c>
-      <c r="S27" s="184">
+      <c r="S27" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2510</v>
-      </c>
-      <c r="T27" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="T27" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U27" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="U27" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V27" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V27" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W27" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W27" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -37136,25 +37950,25 @@
         <f t="shared" si="1"/>
         <v>23070024</v>
       </c>
-      <c r="S28" s="184">
+      <c r="S28" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2624</v>
-      </c>
-      <c r="T28" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="T28" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U28" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="U28" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V28" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V28" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W28" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W28" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -37171,39 +37985,39 @@
       </c>
       <c r="E29" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v>45107</v>
+        <v>45124</v>
       </c>
       <c r="F29" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v xml:space="preserve">   </v>
-      </c>
-      <c r="G29" s="85" t="e">
+        <v>KO 4993</v>
+      </c>
+      <c r="G29" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v>#N/A</v>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
       </c>
       <c r="H29" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v>0</v>
+        <v>9391200</v>
       </c>
       <c r="I29" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v>0</v>
+        <v>1173900</v>
       </c>
       <c r="J29" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v>0</v>
+        <v>8217300</v>
       </c>
       <c r="K29" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v>0</v>
+        <v>814327.02702702698</v>
       </c>
       <c r="L29" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="85">
+        <v>8217300</v>
+      </c>
+      <c r="M29" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v>0</v>
+        <v>NOVI / YO</v>
       </c>
       <c r="N29" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37218,34 +38032,34 @@
         <f t="shared" si="1"/>
         <v>23070025</v>
       </c>
-      <c r="S29" s="184">
+      <c r="S29" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2738</v>
-      </c>
-      <c r="T29" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="T29" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U29" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V29" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="W29" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="292">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" s="85">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
@@ -37301,34 +38115,34 @@
         <f t="shared" si="1"/>
         <v>23070026</v>
       </c>
-      <c r="S30" s="184">
+      <c r="S30" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2852</v>
-      </c>
-      <c r="T30" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="T30" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U30" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="U30" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V30" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V30" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W30" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W30" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="292">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" s="85">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
@@ -37383,34 +38197,34 @@
         <f t="shared" si="1"/>
         <v>23070027</v>
       </c>
-      <c r="S31" s="184">
+      <c r="S31" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2966</v>
-      </c>
-      <c r="T31" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="T31" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U31" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="U31" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V31" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V31" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W31" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W31" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="292">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="85">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
@@ -37465,72 +38279,74 @@
         <f t="shared" si="1"/>
         <v>23070028</v>
       </c>
-      <c r="S32" s="184">
+      <c r="S32" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>3080</v>
-      </c>
-      <c r="T32" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="T32" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="U32" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="U32" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V32" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V32" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W32" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W32" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="292"/>
-      <c r="C33" s="85" t="str">
+      <c r="A33" s="292">
+        <v>100</v>
+      </c>
+      <c r="C33" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="D33" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E33" s="88" t="str">
+        <v>AM 23070029</v>
+      </c>
+      <c r="E33" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45129</v>
       </c>
       <c r="F33" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 2388</v>
       </c>
       <c r="G33" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H33" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I33" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J33" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K33" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L33" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>HARNOYO (BENDAN) PEKALONGAN</v>
+      </c>
+      <c r="H33" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>7657200</v>
+      </c>
+      <c r="I33" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>1072008</v>
+      </c>
+      <c r="J33" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>6585192</v>
+      </c>
+      <c r="K33" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>652586.59459459456</v>
+      </c>
+      <c r="L33" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>6585192</v>
       </c>
       <c r="M33" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N33" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37545,74 +38361,74 @@
         <f t="shared" si="1"/>
         <v>23070029</v>
       </c>
-      <c r="S33" s="184" t="b">
+      <c r="S33" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="T33" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U33" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V33" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W33" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W33" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="292" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="85" t="str">
+      <c r="A34" s="292">
+        <v>104</v>
+      </c>
+      <c r="C34" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>104</v>
       </c>
       <c r="D34" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E34" s="88" t="str">
+        <v>AM 23070030</v>
+      </c>
+      <c r="E34" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45131</v>
       </c>
       <c r="F34" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 4840</v>
       </c>
       <c r="G34" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H34" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I34" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J34" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K34" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L34" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>CV LANCAR JAYA SENTOSA MALANG</v>
+      </c>
+      <c r="H34" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>8208000</v>
+      </c>
+      <c r="I34" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>1026000</v>
+      </c>
+      <c r="J34" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>7182000</v>
+      </c>
+      <c r="K34" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>711729.72972972959</v>
+      </c>
+      <c r="L34" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>7182000</v>
       </c>
       <c r="M34" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N34" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37627,71 +38443,74 @@
         <f t="shared" si="1"/>
         <v>23070030</v>
       </c>
-      <c r="S34" s="184" t="b">
+      <c r="S34" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="T34" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U34" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V34" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W34" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W34" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C35" s="85" t="str">
+      <c r="A35" s="292">
+        <v>107</v>
+      </c>
+      <c r="C35" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>107</v>
       </c>
       <c r="D35" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E35" s="88" t="str">
+        <v>AM 23070031</v>
+      </c>
+      <c r="E35" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45131</v>
       </c>
       <c r="F35" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>G 2397</v>
       </c>
       <c r="G35" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H35" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I35" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J35" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K35" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L35" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="H35" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>21101200</v>
+      </c>
+      <c r="I35" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>2637650</v>
+      </c>
+      <c r="J35" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>18463550</v>
+      </c>
+      <c r="K35" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>1829721.1711711709</v>
+      </c>
+      <c r="L35" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>18463550</v>
       </c>
       <c r="M35" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N35" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37706,71 +38525,74 @@
         <f t="shared" si="1"/>
         <v>23070031</v>
       </c>
-      <c r="S35" s="184" t="b">
+      <c r="S35" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="T35" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U35" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V35" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W35" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W35" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C36" s="85" t="str">
+      <c r="A36" s="292">
+        <v>110</v>
+      </c>
+      <c r="C36" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>110</v>
       </c>
       <c r="D36" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E36" s="88" t="str">
+        <v>AM 23070032</v>
+      </c>
+      <c r="E36" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45131</v>
       </c>
       <c r="F36" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>G 2653</v>
       </c>
       <c r="G36" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H36" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I36" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J36" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K36" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L36" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>GUNAWAN HARTONO KUSUMA ( NIKI SAE ) TULUNG AGUNG</v>
+      </c>
+      <c r="H36" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>8197200</v>
+      </c>
+      <c r="I36" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>1024650</v>
+      </c>
+      <c r="J36" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>7172550</v>
+      </c>
+      <c r="K36" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>710793.2432432432</v>
+      </c>
+      <c r="L36" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>7172550</v>
       </c>
       <c r="M36" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N36" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37785,71 +38607,74 @@
         <f t="shared" si="1"/>
         <v>23070032</v>
       </c>
-      <c r="S36" s="184" t="b">
+      <c r="S36" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="T36" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U36" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V36" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W36" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W36" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C37" s="85" t="str">
+      <c r="A37" s="292">
+        <v>113</v>
+      </c>
+      <c r="C37" s="85">
         <f t="shared" ref="C37:C57" si="2">IF(ROW()-(COUNTBLANK($C$1:$C$3)+1)&lt;=jNota,A37,"")</f>
-        <v/>
+        <v>113</v>
       </c>
       <c r="D37" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E37" s="88" t="str">
+        <v>AM 23070033</v>
+      </c>
+      <c r="E37" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45131</v>
       </c>
       <c r="F37" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 2655</v>
       </c>
       <c r="G37" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H37" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I37" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J37" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K37" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L37" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="H37" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>18784800</v>
+      </c>
+      <c r="I37" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>2535948</v>
+      </c>
+      <c r="J37" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>16248852</v>
+      </c>
+      <c r="K37" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>1610246.5945945946</v>
+      </c>
+      <c r="L37" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>16248852</v>
       </c>
       <c r="M37" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N37" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37864,28 +38689,29 @@
         <f t="shared" ref="R37:R57" si="3">R$3+ROW()-5</f>
         <v>23070033</v>
       </c>
-      <c r="S37" s="184" t="b">
+      <c r="S37" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="T37" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U37" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V37" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W37" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W37" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="292"/>
       <c r="C38" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37947,24 +38773,27 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T38" s="184" t="b">
+      <c r="T38" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U38" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V38" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V38" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W38" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W38" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="292" t="s">
+        <v>55</v>
+      </c>
       <c r="C39" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38026,21 +38855,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T39" s="184" t="b">
+      <c r="T39" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U39" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V39" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V39" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W39" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W39" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -38105,21 +38934,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T40" s="184" t="b">
+      <c r="T40" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U40" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V40" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W40" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W40" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -38184,21 +39013,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T41" s="184" t="b">
+      <c r="T41" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U41" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V41" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W41" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W41" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -38263,21 +39092,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T42" s="184" t="b">
+      <c r="T42" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U42" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V42" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W42" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W42" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -38342,21 +39171,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T43" s="184" t="b">
+      <c r="T43" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U43" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V43" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V43" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W43" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W43" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -38421,21 +39250,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T44" s="184" t="b">
+      <c r="T44" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U44" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V44" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V44" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W44" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W44" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -38500,21 +39329,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T45" s="184" t="b">
+      <c r="T45" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U45" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V45" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W45" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W45" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -38579,21 +39408,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T46" s="184" t="b">
+      <c r="T46" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U46" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V46" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W46" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W46" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -38658,21 +39487,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T47" s="184" t="b">
+      <c r="T47" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U47" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U47" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V47" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W47" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W47" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -38737,21 +39566,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T48" s="184" t="b">
+      <c r="T48" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U48" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V48" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V48" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W48" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W48" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="3:23" x14ac:dyDescent="0.25">
@@ -38816,21 +39645,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T49" s="184" t="b">
+      <c r="T49" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U49" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U49" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V49" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V49" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W49" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W49" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.25">
@@ -38895,21 +39724,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T50" s="184" t="b">
+      <c r="T50" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U50" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U50" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V50" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V50" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W50" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W50" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.25">
@@ -38974,21 +39803,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T51" s="184" t="b">
+      <c r="T51" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U51" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U51" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V51" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V51" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W51" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W51" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="3:23" x14ac:dyDescent="0.25">
@@ -39053,21 +39882,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T52" s="184" t="b">
+      <c r="T52" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U52" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V52" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V52" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W52" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W52" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="3:23" x14ac:dyDescent="0.25">
@@ -39132,21 +39961,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T53" s="184" t="b">
+      <c r="T53" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U53" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U53" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V53" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V53" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W53" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W53" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="3:23" x14ac:dyDescent="0.25">
@@ -39211,21 +40040,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T54" s="184" t="b">
+      <c r="T54" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U54" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U54" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V54" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V54" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W54" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W54" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="3:23" x14ac:dyDescent="0.25">
@@ -39290,21 +40119,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T55" s="184" t="b">
+      <c r="T55" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U55" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U55" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V55" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V55" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W55" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W55" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="3:23" x14ac:dyDescent="0.25">
@@ -39369,21 +40198,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T56" s="184" t="b">
+      <c r="T56" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U56" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U56" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V56" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V56" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W56" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W56" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="3:23" x14ac:dyDescent="0.25">
@@ -39448,21 +40277,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="T57" s="184" t="b">
+      <c r="T57" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="U57" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U57" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V57" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="V57" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W57" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W57" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.25">
@@ -39472,23 +40301,23 @@
       <c r="E58"/>
       <c r="H58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total])</f>
-        <v>341539400</v>
+        <v>414879000</v>
       </c>
       <c r="I58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Diskon])</f>
-        <v>41678115.5</v>
+        <v>51148271.5</v>
       </c>
       <c r="J58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>299861284.5</v>
+        <v>363730728.5</v>
       </c>
       <c r="K58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>29715983.148648646</v>
+        <v>36045387.509009004</v>
       </c>
       <c r="L58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>299861284.5</v>
+        <v>363730728.5</v>
       </c>
       <c r="M58"/>
       <c r="N58"/>
@@ -39496,10 +40325,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F59:F1048576 F3:F57">
-    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:W2 S4:W1048576">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39517,7 +40346,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A11" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J37" sqref="J37:K37"/>
     </sheetView>
   </sheetViews>
@@ -39535,10 +40364,10 @@
     <col min="12" max="12" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -39559,17 +40388,14 @@
       </c>
       <c r="G1">
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I1" s="345" t="s">
         <v>74</v>
       </c>
       <c r="J1" s="345"/>
-      <c r="K1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="D2" s="4"/>
       <c r="I2" s="5"/>
@@ -39591,7 +40417,7 @@
       </c>
       <c r="E3" s="8">
         <f>INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23070028</v>
+        <v>23070033</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
@@ -39629,7 +40455,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="324">
         <f>INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
-        <v>45128</v>
+        <v>45131</v>
       </c>
       <c r="E5" s="325"/>
       <c r="F5" s="323"/>
@@ -39668,7 +40494,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="19" t="str">
         <f>INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>KO 2380</v>
+        <v>KO 2655</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
@@ -39739,7 +40565,7 @@
       </c>
       <c r="B11" s="45">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="C11" s="45" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A11-1))</f>
@@ -39747,17 +40573,17 @@
       </c>
       <c r="D11" s="46">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="47" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>STAPLER KENKO HD-50</v>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="H11" s="50">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>228000</v>
+        <v>10600</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)))</f>
@@ -39769,7 +40595,7 @@
       </c>
       <c r="K11" s="52">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>3944400</v>
+        <v>3961008</v>
       </c>
       <c r="L11" s="35"/>
     </row>
@@ -39777,39 +40603,39 @@
       <c r="A12" s="44">
         <v>2</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="45">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>60</v>
       </c>
       <c r="C12" s="45" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A12-1))</f>
-        <v/>
-      </c>
-      <c r="D12" s="46" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D12" s="46">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A12-1)="","",INDEX(Table1[C],newestIdRow-offset+A12-1)))</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E12" s="47" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>STAPLER KENKO HD-10</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="49"/>
-      <c r="H12" s="50" t="str">
+      <c r="H12" s="50">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A12-1))</f>
-        <v/>
-      </c>
-      <c r="I12" s="51" t="str">
+        <v>93000</v>
+      </c>
+      <c r="I12" s="51">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)))</f>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J12" s="51" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)))</f>
         <v/>
       </c>
-      <c r="K12" s="52" t="str">
+      <c r="K12" s="52">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>4826700</v>
       </c>
       <c r="L12" s="35"/>
     </row>
@@ -39817,39 +40643,39 @@
       <c r="A13" s="44">
         <v>3</v>
       </c>
-      <c r="B13" s="45" t="str">
+      <c r="B13" s="45">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A13-1))</f>
-        <v/>
+        <v>60</v>
       </c>
       <c r="C13" s="45" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A13-1))</f>
-        <v/>
-      </c>
-      <c r="D13" s="46" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D13" s="46">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A13-1)="","",INDEX(Table1[C],newestIdRow-offset+A13-1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E13" s="47" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A13-1))</f>
-        <v/>
+        <v>CUTTER 9 MM KENKO A-300 (KECIL)</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="49"/>
-      <c r="H13" s="50" t="str">
+      <c r="H13" s="50">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A13-1))</f>
-        <v/>
-      </c>
-      <c r="I13" s="51" t="str">
+        <v>57000</v>
+      </c>
+      <c r="I13" s="51">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A13-1)))</f>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J13" s="51" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)))</f>
         <v/>
       </c>
-      <c r="K13" s="52" t="str">
+      <c r="K13" s="52">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A13-1))</f>
-        <v/>
+        <v>2958300</v>
       </c>
       <c r="L13" s="35"/>
     </row>
@@ -39857,39 +40683,39 @@
       <c r="A14" s="44">
         <v>4</v>
       </c>
-      <c r="B14" s="45" t="str">
+      <c r="B14" s="45">
         <f ca="1">IF(A14&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A14-1))</f>
-        <v/>
+        <v>144</v>
       </c>
       <c r="C14" s="45" t="str">
         <f ca="1">IF(A14&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A14-1))</f>
-        <v/>
-      </c>
-      <c r="D14" s="46" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D14" s="46">
         <f ca="1">IF(A14&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A14-1)="","",INDEX(Table1[C],newestIdRow-offset+A14-1)))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E14" s="47" t="str">
         <f ca="1">IF(A14&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A14-1))</f>
-        <v/>
+        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
-      <c r="H14" s="50" t="str">
+      <c r="H14" s="50">
         <f ca="1">IF(A14&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A14-1))</f>
-        <v/>
-      </c>
-      <c r="I14" s="51" t="str">
+        <v>12600</v>
+      </c>
+      <c r="I14" s="51">
         <f ca="1">IF(A14&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A14-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A14-1)))</f>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J14" s="51" t="str">
         <f ca="1">IF(A14&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A14-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A14-1)))</f>
         <v/>
       </c>
-      <c r="K14" s="52" t="str">
+      <c r="K14" s="52">
         <f ca="1">IF(A14&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A14-1))</f>
-        <v/>
+        <v>1569456</v>
       </c>
       <c r="L14" s="35"/>
     </row>
@@ -39897,39 +40723,39 @@
       <c r="A15" s="44">
         <v>5</v>
       </c>
-      <c r="B15" s="45" t="str">
+      <c r="B15" s="45">
         <f ca="1">IF(A15&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A15-1))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="C15" s="45" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A15-1))</f>
-        <v/>
-      </c>
-      <c r="D15" s="46" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D15" s="46">
         <f ca="1">IF(A15&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A15-1)="","",INDEX(Table1[C],newestIdRow-offset+A15-1)))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E15" s="47" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A15-1))</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-108</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="49"/>
-      <c r="H15" s="50" t="str">
+      <c r="H15" s="50">
         <f ca="1">IF(A15&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A15-1))</f>
-        <v/>
-      </c>
-      <c r="I15" s="51" t="str">
+        <v>47100</v>
+      </c>
+      <c r="I15" s="51">
         <f ca="1">IF(A15&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A15-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A15-1)))</f>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J15" s="51" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A15-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A15-1)))</f>
         <v/>
       </c>
-      <c r="K15" s="52" t="str">
+      <c r="K15" s="52">
         <f ca="1">IF(A15&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A15-1))</f>
-        <v/>
+        <v>2933388</v>
       </c>
       <c r="L15" s="35"/>
     </row>
@@ -40410,7 +41236,7 @@
       </c>
       <c r="J29" s="348">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>3944400</v>
+        <v>16248852</v>
       </c>
       <c r="K29" s="349"/>
       <c r="L29" s="35"/>
@@ -40463,7 +41289,7 @@
       </c>
       <c r="J33" s="348">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>390886.48648648645</v>
+        <v>1610246.5945945946</v>
       </c>
       <c r="K33" s="349"/>
       <c r="L33" s="72"/>
@@ -40489,7 +41315,7 @@
       <c r="J35" s="75"/>
       <c r="K35" s="76">
         <f ca="1">INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>3944400</v>
+        <v>16248852</v>
       </c>
       <c r="L35" s="72"/>
     </row>
@@ -40573,7 +41399,7 @@
       </c>
       <c r="E41" s="194">
         <f>E3</f>
-        <v>23070028</v>
+        <v>23070033</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="196" t="s">
@@ -40612,7 +41438,7 @@
       <c r="C43" s="192"/>
       <c r="D43" s="337">
         <f>D5</f>
-        <v>45128</v>
+        <v>45131</v>
       </c>
       <c r="E43" s="338"/>
       <c r="F43" s="336"/>
@@ -40651,7 +41477,7 @@
       <c r="C45" s="192"/>
       <c r="D45" s="206" t="str">
         <f>D7</f>
-        <v>KO 2380</v>
+        <v>KO 2655</v>
       </c>
       <c r="E45" s="194"/>
       <c r="F45" s="207"/>
@@ -40726,7 +41552,7 @@
       </c>
       <c r="B49" s="233">
         <f t="shared" ref="B49:E64" ca="1" si="0">B11</f>
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="C49" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -40734,17 +41560,17 @@
       </c>
       <c r="D49" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>STAPLER KENKO HD-50</v>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="F49" s="237"/>
       <c r="G49" s="238"/>
       <c r="H49" s="239">
         <f t="shared" ref="H49:K64" ca="1" si="1">H11</f>
-        <v>228000</v>
+        <v>10600</v>
       </c>
       <c r="I49" s="240">
         <f t="shared" ca="1" si="1"/>
@@ -40756,7 +41582,7 @@
       </c>
       <c r="K49" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>3944400</v>
+        <v>3961008</v>
       </c>
       <c r="L49" s="223"/>
     </row>
@@ -40764,39 +41590,39 @@
       <c r="A50" s="232">
         <v>2</v>
       </c>
-      <c r="B50" s="233" t="str">
+      <c r="B50" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="C50" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D50" s="235" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D50" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E50" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>STAPLER KENKO HD-10</v>
       </c>
       <c r="F50" s="237"/>
       <c r="G50" s="238"/>
-      <c r="H50" s="239" t="str">
+      <c r="H50" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I50" s="240" t="str">
+        <v>93000</v>
+      </c>
+      <c r="I50" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J50" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K50" s="241" t="str">
+      <c r="K50" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>4826700</v>
       </c>
       <c r="L50" s="223"/>
     </row>
@@ -40804,39 +41630,39 @@
       <c r="A51" s="232">
         <v>3</v>
       </c>
-      <c r="B51" s="233" t="str">
+      <c r="B51" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="C51" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D51" s="235" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D51" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E51" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>CUTTER 9 MM KENKO A-300 (KECIL)</v>
       </c>
       <c r="F51" s="237"/>
       <c r="G51" s="238"/>
-      <c r="H51" s="239" t="str">
+      <c r="H51" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I51" s="240" t="str">
+        <v>57000</v>
+      </c>
+      <c r="I51" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J51" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K51" s="241" t="str">
+      <c r="K51" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>2958300</v>
       </c>
       <c r="L51" s="223"/>
     </row>
@@ -40844,39 +41670,39 @@
       <c r="A52" s="232">
         <v>4</v>
       </c>
-      <c r="B52" s="233" t="str">
+      <c r="B52" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>144</v>
       </c>
       <c r="C52" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D52" s="235" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D52" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E52" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
       </c>
       <c r="F52" s="237"/>
       <c r="G52" s="238"/>
-      <c r="H52" s="239" t="str">
+      <c r="H52" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I52" s="240" t="str">
+        <v>12600</v>
+      </c>
+      <c r="I52" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J52" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K52" s="241" t="str">
+      <c r="K52" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>1569456</v>
       </c>
       <c r="L52" s="223"/>
     </row>
@@ -40884,39 +41710,39 @@
       <c r="A53" s="232">
         <v>5</v>
       </c>
-      <c r="B53" s="233" t="str">
+      <c r="B53" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>72</v>
       </c>
       <c r="C53" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D53" s="235" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D53" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E53" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-108</v>
       </c>
       <c r="F53" s="237"/>
       <c r="G53" s="238"/>
-      <c r="H53" s="239" t="str">
+      <c r="H53" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I53" s="240" t="str">
+        <v>47100</v>
+      </c>
+      <c r="I53" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J53" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K53" s="241" t="str">
+      <c r="K53" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>2933388</v>
       </c>
       <c r="L53" s="223"/>
     </row>
@@ -41402,7 +42228,7 @@
       </c>
       <c r="J67" s="320">
         <f ca="1">J29</f>
-        <v>3944400</v>
+        <v>16248852</v>
       </c>
       <c r="K67" s="321"/>
       <c r="L67" s="223"/>
@@ -41475,7 +42301,7 @@
       </c>
       <c r="J71" s="320">
         <f ca="1">J33</f>
-        <v>390886.48648648645</v>
+        <v>1610246.5945945946</v>
       </c>
       <c r="K71" s="321"/>
       <c r="L71" s="261"/>
@@ -41509,7 +42335,7 @@
       <c r="J73" s="264"/>
       <c r="K73" s="265">
         <f ca="1">K35</f>
-        <v>3944400</v>
+        <v>16248852</v>
       </c>
       <c r="L73" s="261"/>
     </row>
@@ -41607,7 +42433,7 @@
       </c>
       <c r="E79" s="99">
         <f>E41</f>
-        <v>23070028</v>
+        <v>23070033</v>
       </c>
       <c r="F79" s="100"/>
       <c r="G79" s="101" t="s">
@@ -41646,7 +42472,7 @@
       <c r="C81" s="97"/>
       <c r="D81" s="304">
         <f>D43</f>
-        <v>45128</v>
+        <v>45131</v>
       </c>
       <c r="E81" s="305"/>
       <c r="F81" s="319"/>
@@ -41685,7 +42511,7 @@
       <c r="C83" s="97"/>
       <c r="D83" s="111" t="str">
         <f>D45</f>
-        <v>KO 2380</v>
+        <v>KO 2655</v>
       </c>
       <c r="E83" s="99"/>
       <c r="F83" s="112"/>
@@ -41760,7 +42586,7 @@
       </c>
       <c r="B87" s="138">
         <f t="shared" ref="B87:E102" ca="1" si="2">B49</f>
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="C87" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -41768,17 +42594,17 @@
       </c>
       <c r="D87" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>STAPLER KENKO HD-50</v>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="F87" s="142"/>
       <c r="G87" s="143"/>
       <c r="H87" s="144">
         <f t="shared" ref="H87:K102" ca="1" si="3">H49</f>
-        <v>228000</v>
+        <v>10600</v>
       </c>
       <c r="I87" s="145">
         <f t="shared" ca="1" si="3"/>
@@ -41790,7 +42616,7 @@
       </c>
       <c r="K87" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>3944400</v>
+        <v>3961008</v>
       </c>
       <c r="L87" s="128"/>
     </row>
@@ -41798,39 +42624,39 @@
       <c r="A88" s="137">
         <v>2</v>
       </c>
-      <c r="B88" s="138" t="str">
+      <c r="B88" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="C88" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="D88" s="140" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D88" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E88" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>STAPLER KENKO HD-10</v>
       </c>
       <c r="F88" s="142"/>
       <c r="G88" s="143"/>
-      <c r="H88" s="144" t="str">
+      <c r="H88" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="I88" s="145" t="str">
+        <v>93000</v>
+      </c>
+      <c r="I88" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J88" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K88" s="146" t="str">
+      <c r="K88" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>4826700</v>
       </c>
       <c r="L88" s="128"/>
     </row>
@@ -41838,39 +42664,39 @@
       <c r="A89" s="137">
         <v>3</v>
       </c>
-      <c r="B89" s="138" t="str">
+      <c r="B89" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="C89" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="D89" s="140" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D89" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E89" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>CUTTER 9 MM KENKO A-300 (KECIL)</v>
       </c>
       <c r="F89" s="142"/>
       <c r="G89" s="143"/>
-      <c r="H89" s="144" t="str">
+      <c r="H89" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="I89" s="145" t="str">
+        <v>57000</v>
+      </c>
+      <c r="I89" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J89" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K89" s="146" t="str">
+      <c r="K89" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>2958300</v>
       </c>
       <c r="L89" s="128"/>
     </row>
@@ -41878,39 +42704,39 @@
       <c r="A90" s="137">
         <v>4</v>
       </c>
-      <c r="B90" s="138" t="str">
+      <c r="B90" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>144</v>
       </c>
       <c r="C90" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="D90" s="140" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D90" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E90" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
       </c>
       <c r="F90" s="142"/>
       <c r="G90" s="143"/>
-      <c r="H90" s="144" t="str">
+      <c r="H90" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="I90" s="145" t="str">
+        <v>12600</v>
+      </c>
+      <c r="I90" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J90" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K90" s="146" t="str">
+      <c r="K90" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>1569456</v>
       </c>
       <c r="L90" s="128"/>
     </row>
@@ -41918,39 +42744,39 @@
       <c r="A91" s="137">
         <v>5</v>
       </c>
-      <c r="B91" s="138" t="str">
+      <c r="B91" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>72</v>
       </c>
       <c r="C91" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="D91" s="140" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D91" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E91" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-108</v>
       </c>
       <c r="F91" s="142"/>
       <c r="G91" s="143"/>
-      <c r="H91" s="144" t="str">
+      <c r="H91" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="I91" s="145" t="str">
+        <v>47100</v>
+      </c>
+      <c r="I91" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J91" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K91" s="146" t="str">
+      <c r="K91" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>2933388</v>
       </c>
       <c r="L91" s="128"/>
     </row>
@@ -42436,7 +43262,7 @@
       </c>
       <c r="J105" s="302">
         <f ca="1">J67</f>
-        <v>3944400</v>
+        <v>16248852</v>
       </c>
       <c r="K105" s="303"/>
       <c r="L105" s="128"/>
@@ -42509,7 +43335,7 @@
       </c>
       <c r="J109" s="302">
         <f ca="1">J71</f>
-        <v>390886.48648648645</v>
+        <v>1610246.5945945946</v>
       </c>
       <c r="K109" s="303"/>
       <c r="L109" s="166"/>
@@ -42543,7 +43369,7 @@
       <c r="J111" s="169"/>
       <c r="K111" s="170">
         <f ca="1">K73</f>
-        <v>3944400</v>
+        <v>16248852</v>
       </c>
       <c r="L111" s="166"/>
     </row>

--- a/BARU/2023/07 JULI/KELUAR 07.xlsx
+++ b/BARU/2023/07 JULI/KELUAR 07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="315">
   <si>
     <t>Column1</t>
   </si>
@@ -954,6 +955,30 @@
   <si>
     <t>CUTTER 9 MM KENKO A-300 (KECIL)</t>
   </si>
+  <si>
+    <t>2660</t>
+  </si>
+  <si>
+    <t>PWKEN12WPENDEK</t>
+  </si>
+  <si>
+    <t>PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>PENKENSAHARAHITAM</t>
+  </si>
+  <si>
+    <t>PENKENSAHARASNACKHITAM</t>
+  </si>
+  <si>
+    <t>GEL PEN KENKO SAHARA SNACK (HITAM)</t>
+  </si>
+  <si>
+    <t>GEL PEN KENKO SAHARA (HITAM)</t>
+  </si>
 </sst>
 </file>
 
@@ -967,7 +992,7 @@
     <numFmt numFmtId="166" formatCode="\ "/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1193,6 +1218,11 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1506,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2131,6 +2161,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2310,1000 +2364,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="104">
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3414,21 +2475,33 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3452,21 +2525,33 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3490,6 +2575,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3505,6 +2621,137 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3555,6 +2802,68 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3578,21 +2887,33 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3616,6 +2937,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3623,6 +2975,7 @@
         <vertAlign val="baseline"/>
         <color auto="1"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3630,6 +2983,36 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3669,10 +3052,121 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3696,6 +3190,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3711,6 +3236,37 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3734,6 +3290,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3748,6 +3334,37 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3793,10 +3410,70 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3819,6 +3496,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3837,6 +3544,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3848,6 +3585,81 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3874,6 +3686,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3893,21 +3736,32 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3953,10 +3807,71 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4006,6 +3921,68 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4046,10 +4023,72 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4127,7 +4166,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="totalRow" dxfId="103"/>
+      <tableStyleElement type="totalRow" dxfId="98"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4991,13 +5030,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45131.686477314812" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="260">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45133.625739583331" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="260">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="32">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="113" count="39">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="122" count="41">
         <n v="3"/>
         <s v=""/>
         <n v="6"/>
@@ -5032,6 +5071,8 @@
         <n v="107"/>
         <n v="110"/>
         <n v="113"/>
+        <n v="120"/>
+        <n v="122"/>
         <n v="91" u="1"/>
         <n v="99" u="1"/>
         <n v="94" u="1"/>
@@ -5040,13 +5081,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23070001" maxValue="23070033"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23070001" maxValue="23070035"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-07-04T00:00:00" maxDate="2023-07-25T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-07-04T00:00:00" maxDate="2023-07-27T00:00:00"/>
     </cacheField>
     <cacheField name="H_TGL" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="24"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="26"/>
     </cacheField>
     <cacheField name="h_Kode Sales :_1" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5103,7 +5144,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="113"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="122"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
@@ -6722,7 +6763,7 @@
     <s v="PCS"/>
     <n v="1"/>
     <s v="ISOKENTDB2"/>
-    <s v="HANDY TAPE DISPENSER KENKO TDB-2"/>
+    <s v="HANDY TAPE DISPENSER KENKO TDB-2 (BESI)"/>
     <s v="HANDY TAPE DISPENSER KENKO TDB-2"/>
     <n v="22000"/>
     <n v="0.14000000000000001"/>
@@ -8907,13 +8948,13 @@
     <s v="NOVI / CONDRO"/>
     <m/>
     <n v="113"/>
-    <n v="5"/>
+    <n v="6"/>
     <n v="4579200"/>
     <n v="618192"/>
     <n v="0"/>
     <n v="618192"/>
     <n v="3961008"/>
-    <n v="16248852"/>
+    <n v="26192892"/>
     <m/>
     <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)LSN10600"/>
   </r>
@@ -8928,25 +8969,25 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <n v="60"/>
+    <n v="100"/>
     <s v="LSN"/>
-    <n v="3"/>
+    <n v="5"/>
     <s v="STAKENHD10"/>
     <s v="STAPLER KENKO HD-10"/>
     <s v="STAPLER KENKO HD-10"/>
     <n v="93000"/>
     <n v="0.13500000000000001"/>
     <m/>
-    <n v="4826700"/>
+    <n v="8044500"/>
     <m/>
     <m/>
     <n v="113"/>
-    <n v="5"/>
-    <n v="5580000"/>
-    <n v="753300"/>
+    <n v="6"/>
+    <n v="9300000"/>
+    <n v="1255500"/>
     <n v="0"/>
-    <n v="753300"/>
-    <n v="4826700"/>
+    <n v="1255500"/>
+    <n v="8044500"/>
     <s v=""/>
     <m/>
     <s v="STAPLER KENKO HD-10LSN93000"/>
@@ -8975,7 +9016,7 @@
     <m/>
     <m/>
     <n v="113"/>
-    <n v="5"/>
+    <n v="6"/>
     <n v="3420000"/>
     <n v="461700.00000000006"/>
     <n v="0"/>
@@ -9009,7 +9050,7 @@
     <m/>
     <m/>
     <n v="113"/>
-    <n v="5"/>
+    <n v="6"/>
     <n v="1814400"/>
     <n v="244944.00000000003"/>
     <n v="0"/>
@@ -9043,7 +9084,7 @@
     <m/>
     <m/>
     <n v="113"/>
-    <n v="5"/>
+    <n v="6"/>
     <n v="3391200"/>
     <n v="457812.00000000006"/>
     <n v="0"/>
@@ -9064,28 +9105,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="120"/>
+    <s v="LSN"/>
+    <n v="2"/>
+    <s v="ISIKENBESAR"/>
+    <s v="ISI CUTTER 18 MM KENKO L-150 (BESAR)"/>
+    <s v="ISI CUTTER 18 MM KENKO L-150 (BESAR)"/>
+    <n v="64800"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="6726240"/>
+    <m/>
+    <m/>
+    <n v="113"/>
+    <n v="6"/>
+    <n v="7776000"/>
+    <n v="1049760"/>
+    <n v="0"/>
+    <n v="1049760"/>
+    <n v="6726240"/>
+    <s v=""/>
+    <m/>
+    <s v="ISI CUTTER 18 MM KENKO L-150 (BESAR)LSN64800"/>
   </r>
   <r>
     <x v="1"/>
@@ -9122,38 +9163,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="34"/>
+    <n v="23070034"/>
+    <d v="2023-07-25T00:00:00"/>
+    <n v="25"/>
+    <s v="KO"/>
+    <s v="2660"/>
+    <s v="ANUGERAH"/>
+    <s v="AM 23070034"/>
+    <s v="KO 2660"/>
+    <s v="CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO"/>
+    <n v="144"/>
+    <s v="LSN"/>
+    <n v="3"/>
+    <s v="PWKEN12WPENDEK"/>
+    <s v="PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)"/>
+    <s v="PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)"/>
+    <n v="79200"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="9865152"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="120"/>
+    <n v="1"/>
+    <n v="11404800"/>
+    <n v="1539648"/>
+    <n v="0"/>
+    <n v="1539648"/>
+    <n v="9865152"/>
+    <n v="9865152"/>
+    <m/>
+    <s v="PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)LSN79200"/>
   </r>
   <r>
     <x v="1"/>
@@ -9190,38 +9231,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="35"/>
+    <n v="23070035"/>
+    <d v="2023-07-26T00:00:00"/>
+    <n v="26"/>
+    <s v="G"/>
+    <s v="1625"/>
+    <s v="UTAMA"/>
+    <s v="AM 23070035"/>
+    <s v="G 1625"/>
+    <s v="CV UTAMA PUTRA TULUNG AGUNG"/>
+    <n v="72"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="TIPKENKE01"/>
+    <s v="CORRECTION FLUID KENKO KE-01"/>
+    <s v="CORRECTION FLUID KENKO KE-01"/>
+    <n v="54300"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="3420900"/>
+    <s v="RISMA / CONDRO"/>
+    <m/>
+    <n v="122"/>
+    <n v="4"/>
+    <n v="3909600"/>
+    <n v="488700"/>
+    <n v="0"/>
+    <n v="488700"/>
+    <n v="3420900"/>
+    <n v="9613800"/>
+    <m/>
+    <s v="CORRECTION FLUID KENKO KE-01LSN54300"/>
   </r>
   <r>
     <x v="1"/>
@@ -9234,28 +9275,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="72"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="TIPKENKE108"/>
+    <s v="CORRECTION FLUID KENKO KE-108"/>
+    <s v="CORRECTION FLUID KENKO KE-108"/>
+    <n v="47100"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2967300"/>
+    <m/>
+    <m/>
+    <n v="122"/>
+    <n v="4"/>
+    <n v="3391200"/>
+    <n v="423900"/>
+    <n v="0"/>
+    <n v="423900"/>
+    <n v="2967300"/>
+    <s v=""/>
+    <m/>
+    <s v="CORRECTION FLUID KENKO KE-108LSN47100"/>
   </r>
   <r>
     <x v="1"/>
@@ -9268,28 +9309,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="72"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="PENKENSAHARASNACKHITAM"/>
+    <s v="GEL PEN KENKO SAHARA SNACK (HITAM)"/>
+    <s v="GEL PEN KENKO SAHARA SNACK (HITAM)"/>
+    <n v="39000"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2457000"/>
+    <m/>
+    <m/>
+    <n v="122"/>
+    <n v="4"/>
+    <n v="2808000"/>
+    <n v="351000"/>
+    <n v="0"/>
+    <n v="351000"/>
+    <n v="2457000"/>
+    <s v=""/>
+    <m/>
+    <s v="GEL PEN KENKO SAHARA SNACK (HITAM)LSN39000"/>
   </r>
   <r>
     <x v="1"/>
@@ -9302,28 +9343,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="24"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="PENKENSAHARAHITAM"/>
+    <s v="GEL PEN KENKO SAHARA (HITAM)"/>
+    <s v="GEL PEN KENKO SAHARA (HITAM)"/>
+    <n v="36600"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="768600"/>
+    <m/>
+    <m/>
+    <n v="122"/>
+    <n v="4"/>
+    <n v="878400"/>
+    <n v="109800"/>
+    <n v="0"/>
+    <n v="109800"/>
+    <n v="768600"/>
+    <s v=""/>
+    <m/>
+    <s v="GEL PEN KENKO SAHARA (HITAM)LSN36600"/>
   </r>
   <r>
     <x v="1"/>
@@ -13987,11 +14028,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="40">
+      <items count="42">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
@@ -14017,19 +14058,21 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="34"/>
+        <item m="1" x="36"/>
         <item x="26"/>
-        <item m="1" x="36"/>
+        <item m="1" x="38"/>
         <item x="27"/>
+        <item m="1" x="39"/>
+        <item x="28"/>
         <item m="1" x="37"/>
-        <item x="28"/>
-        <item m="1" x="35"/>
         <item x="29"/>
-        <item m="1" x="38"/>
+        <item m="1" x="40"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -14069,7 +14112,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="35">
+  <rowItems count="37">
     <i>
       <x/>
     </i>
@@ -14172,6 +14215,12 @@
     <i>
       <x v="38"/>
     </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14180,7 +14229,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="65">
+    <format dxfId="28">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -14194,73 +14243,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF263" totalsRowCount="1" headerRowDxfId="102" dataDxfId="101" totalsRowDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF263" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="95">
   <autoFilter ref="A2:AF262"/>
   <tableColumns count="32">
-    <tableColumn id="16" name="//" dataDxfId="99" totalsRowDxfId="32">
+    <tableColumn id="16" name="//" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="98" totalsRowDxfId="31">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="92" totalsRowDxfId="91">
       <calculatedColumnFormula>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="97" totalsRowDxfId="30">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="90" totalsRowDxfId="89">
       <calculatedColumnFormula>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="H_TGL" dataDxfId="96" totalsRowDxfId="29"/>
-    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="95" totalsRowDxfId="28"/>
-    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="94" totalsRowDxfId="27"/>
-    <tableColumn id="20" name="h_toko" dataDxfId="93" totalsRowDxfId="26"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="92" totalsRowDxfId="25">
+    <tableColumn id="32" name="H_TGL" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="20" name="h_toko" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="91" totalsRowDxfId="24">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="78" totalsRowDxfId="77">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="90" totalsRowDxfId="23">
+    <tableColumn id="4" name="Toko" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="89" totalsRowDxfId="22"/>
-    <tableColumn id="6" name="Unit" dataDxfId="88" totalsRowDxfId="21"/>
-    <tableColumn id="7" name="C" dataDxfId="87" totalsRowDxfId="20"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="86" totalsRowDxfId="19"/>
-    <tableColumn id="10" name="Column1" dataDxfId="85" totalsRowDxfId="18">
+    <tableColumn id="5" name="Qty" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="6" name="Unit" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" name="C" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="10" name="Column1" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="84" totalsRowDxfId="17"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="83" totalsRowDxfId="16"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="82" totalsRowDxfId="15"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="81" totalsRowDxfId="14"/>
-    <tableColumn id="23" name="Amount" dataDxfId="80" totalsRowDxfId="13">
+    <tableColumn id="9" name="Item Description" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="23" name="Amount" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="79" totalsRowDxfId="12"/>
-    <tableColumn id="15" name="edited :" dataDxfId="78" totalsRowDxfId="11"/>
-    <tableColumn id="21" name="h_id" dataDxfId="77" totalsRowDxfId="10">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="15" name="edited :" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="21" name="h_id" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="76" totalsRowDxfId="9">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="75" totalsRowDxfId="8">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="h_disc 1" dataDxfId="74" totalsRowDxfId="7">
+    <tableColumn id="31" name="h_disc 1" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="h_disc 2" dataDxfId="73" totalsRowDxfId="6">
+    <tableColumn id="30" name="h_disc 2" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="72" totalsRowDxfId="5">
+    <tableColumn id="25" name="h_diskon" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="71" totalsRowDxfId="4">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="70" totalsRowDxfId="3">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="69" totalsRowDxfId="2"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="68" totalsRowDxfId="1">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14269,74 +14318,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="C4:O57"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="63">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="26">
       <calculatedColumnFormula>IF(ROW()-(COUNTBLANK($C$1:$C$3)+1)&lt;=jNota,A5,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="62">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="25">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="61">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="24">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="60">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="23">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="59">
+    <tableColumn id="5" name="Toko" dataDxfId="22">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="48">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="11">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="47">
+    <tableColumn id="15" name="edited" dataDxfId="10">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="4" dataDxfId="46"/>
+    <tableColumn id="12" name="4" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="Q4:W57"/>
   <tableColumns count="7">
-    <tableColumn id="8" name="AM" dataDxfId="44">
+    <tableColumn id="8" name="AM" dataDxfId="7">
       <calculatedColumnFormula>Table4[[#Headers],[AM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="---" dataDxfId="43">
+    <tableColumn id="2" name="---" dataDxfId="6">
       <calculatedColumnFormula>R$3+ROW()-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No. Invoice :" dataDxfId="42">
+    <tableColumn id="7" name="No. Invoice :" dataDxfId="5">
       <calculatedColumnFormula>IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kode Sales :" dataDxfId="41">
+    <tableColumn id="9" name="Kode Sales :" dataDxfId="4">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="40">
+    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="3">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total Invoice" dataDxfId="39">
+    <tableColumn id="4" name="Total Invoice" dataDxfId="2">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pembuat nota" dataDxfId="38">
+    <tableColumn id="3" name="pembuat nota" dataDxfId="1">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14355,7 +14404,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="37">
+    <tableColumn id="5" name="e" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14653,8 +14702,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF263"/>
   <sheetViews>
-    <sheetView topLeftCell="K100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q115" sqref="Q115"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S125" sqref="S125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18990,7 +19039,7 @@
       </c>
       <c r="O49" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v>HANDY TAPE DISPENSER KENKO TDB-2</v>
+        <v>HANDY TAPE DISPENSER KENKO TDB-2 (BESI)</v>
       </c>
       <c r="P49" s="281" t="s">
         <v>219</v>
@@ -24792,7 +24841,7 @@
       </c>
       <c r="X113" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y113" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
@@ -24816,7 +24865,7 @@
       </c>
       <c r="AD113" s="284">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v>16248852</v>
+        <v>26192892</v>
       </c>
       <c r="AE113" s="284"/>
       <c r="AF113" s="284" t="str">
@@ -24850,13 +24899,13 @@
         <v/>
       </c>
       <c r="K114" s="281">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L114" s="281" t="s">
         <v>142</v>
       </c>
       <c r="M114" s="281">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N114" s="281" t="s">
         <v>301</v>
@@ -24876,7 +24925,7 @@
       </c>
       <c r="T114" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v>4826700</v>
+        <v>8044500</v>
       </c>
       <c r="W114" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
@@ -24884,15 +24933,15 @@
       </c>
       <c r="X114" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y114" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v>5580000</v>
+        <v>9300000</v>
       </c>
       <c r="Z114" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v>753300</v>
+        <v>1255500</v>
       </c>
       <c r="AA114" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
@@ -24900,11 +24949,11 @@
       </c>
       <c r="AB114" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v>753300</v>
+        <v>1255500</v>
       </c>
       <c r="AC114" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v>4826700</v>
+        <v>8044500</v>
       </c>
       <c r="AD114" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -24976,7 +25025,7 @@
       </c>
       <c r="X115" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y115" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
@@ -25068,7 +25117,7 @@
       </c>
       <c r="X116" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y116" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
@@ -25160,7 +25209,7 @@
       </c>
       <c r="X117" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y117" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
@@ -25217,43 +25266,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K118" s="281">
+        <v>120</v>
+      </c>
+      <c r="L118" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M118" s="281">
+        <v>2</v>
+      </c>
+      <c r="N118" s="281" t="s">
+        <v>157</v>
+      </c>
       <c r="O118" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q118" s="284"/>
-      <c r="R118" s="285"/>
-      <c r="T118" s="284" t="str">
+        <v>ISI CUTTER 18 MM KENKO L-150 (BESAR)</v>
+      </c>
+      <c r="P118" s="281" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q118" s="284">
+        <v>64800</v>
+      </c>
+      <c r="R118" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T118" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W118" s="288" t="str">
+        <v>6726240</v>
+      </c>
+      <c r="W118" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X118" s="288" t="str">
+        <v>113</v>
+      </c>
+      <c r="X118" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y118" s="284" t="str">
+        <v>6</v>
+      </c>
+      <c r="Y118" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z118" s="284" t="str">
+        <v>7776000</v>
+      </c>
+      <c r="Z118" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA118" s="284" t="str">
+        <v>1049760</v>
+      </c>
+      <c r="AA118" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB118" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC118" s="284" t="str">
+        <v>1049760</v>
+      </c>
+      <c r="AC118" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>6726240</v>
       </c>
       <c r="AD118" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -25262,7 +25330,7 @@
       <c r="AE118" s="284"/>
       <c r="AF118" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>ISI CUTTER 18 MM KENKO L-150 (BESAR)LSN64800</v>
       </c>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
@@ -25339,76 +25407,110 @@
       </c>
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A120" s="288" t="str">
+      <c r="A120" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B120" s="288" t="str">
+        <v>120</v>
+      </c>
+      <c r="B120" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B119))</f>
-        <v/>
-      </c>
-      <c r="C120" s="282" t="str">
+        <v>23070034</v>
+      </c>
+      <c r="C120" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45132</v>
+      </c>
+      <c r="D120" s="293">
+        <v>25</v>
+      </c>
+      <c r="E120" s="281" t="s">
+        <v>150</v>
+      </c>
+      <c r="F120" s="283" t="s">
+        <v>307</v>
+      </c>
+      <c r="G120" s="281" t="s">
+        <v>84</v>
       </c>
       <c r="H120" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070034</v>
       </c>
       <c r="I120" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 2660</v>
       </c>
       <c r="J120" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="K120" s="281">
+        <v>144</v>
+      </c>
+      <c r="L120" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M120" s="281">
+        <v>3</v>
+      </c>
+      <c r="N120" s="281" t="s">
+        <v>308</v>
       </c>
       <c r="O120" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q120" s="284"/>
-      <c r="R120" s="285"/>
-      <c r="T120" s="284" t="str">
+        <v>PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)</v>
+      </c>
+      <c r="P120" s="281" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q120" s="284">
+        <v>79200</v>
+      </c>
+      <c r="R120" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T120" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W120" s="288" t="str">
+        <v>9865152</v>
+      </c>
+      <c r="U120" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W120" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X120" s="288" t="str">
+        <v>120</v>
+      </c>
+      <c r="X120" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y120" s="284" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y120" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z120" s="284" t="str">
+        <v>11404800</v>
+      </c>
+      <c r="Z120" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA120" s="284" t="str">
+        <v>1539648</v>
+      </c>
+      <c r="AA120" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB120" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC120" s="284" t="str">
+        <v>1539648</v>
+      </c>
+      <c r="AC120" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD120" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>9865152</v>
+      </c>
+      <c r="AD120" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>9865152</v>
       </c>
       <c r="AE120" s="284"/>
       <c r="AF120" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)LSN79200</v>
       </c>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.25">
@@ -25485,76 +25587,110 @@
       </c>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A122" s="288" t="str">
+      <c r="A122" s="288">
         <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B122" s="288" t="str">
+        <v>122</v>
+      </c>
+      <c r="B122" s="288">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B121))</f>
-        <v/>
-      </c>
-      <c r="C122" s="282" t="str">
+        <v>23070035</v>
+      </c>
+      <c r="C122" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45133</v>
+      </c>
+      <c r="D122" s="293">
+        <v>26</v>
+      </c>
+      <c r="E122" s="281" t="s">
+        <v>129</v>
+      </c>
+      <c r="F122" s="283" t="s">
+        <v>310</v>
+      </c>
+      <c r="G122" s="281" t="s">
+        <v>92</v>
       </c>
       <c r="H122" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070035</v>
       </c>
       <c r="I122" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 1625</v>
       </c>
       <c r="J122" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV UTAMA PUTRA TULUNG AGUNG</v>
+      </c>
+      <c r="K122" s="281">
+        <v>72</v>
+      </c>
+      <c r="L122" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M122" s="281">
+        <v>1</v>
+      </c>
+      <c r="N122" s="281" t="s">
+        <v>285</v>
       </c>
       <c r="O122" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q122" s="284"/>
-      <c r="R122" s="285"/>
-      <c r="T122" s="284" t="str">
+        <v>CORRECTION FLUID KENKO KE-01</v>
+      </c>
+      <c r="P122" s="281" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q122" s="284">
+        <v>54300</v>
+      </c>
+      <c r="R122" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T122" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W122" s="288" t="str">
+        <v>3420900</v>
+      </c>
+      <c r="U122" s="284" t="s">
+        <v>170</v>
+      </c>
+      <c r="W122" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X122" s="288" t="str">
+        <v>122</v>
+      </c>
+      <c r="X122" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y122" s="284" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y122" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z122" s="284" t="str">
+        <v>3909600</v>
+      </c>
+      <c r="Z122" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA122" s="284" t="str">
+        <v>488700</v>
+      </c>
+      <c r="AA122" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB122" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC122" s="284" t="str">
+        <v>488700</v>
+      </c>
+      <c r="AC122" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD122" s="284" t="str">
-        <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>3420900</v>
+      </c>
+      <c r="AD122" s="284">
+        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
+        <v>9613800</v>
       </c>
       <c r="AE122" s="284"/>
       <c r="AF122" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-01LSN54300</v>
       </c>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
@@ -25582,43 +25718,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K123" s="281">
+        <v>72</v>
+      </c>
+      <c r="L123" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M123" s="281">
+        <v>1</v>
+      </c>
+      <c r="N123" s="281" t="s">
+        <v>292</v>
+      </c>
       <c r="O123" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q123" s="284"/>
-      <c r="R123" s="285"/>
-      <c r="T123" s="284" t="str">
+        <v>CORRECTION FLUID KENKO KE-108</v>
+      </c>
+      <c r="P123" s="281" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q123" s="284">
+        <v>47100</v>
+      </c>
+      <c r="R123" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T123" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W123" s="288" t="str">
+        <v>2967300</v>
+      </c>
+      <c r="W123" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X123" s="288" t="str">
+        <v>122</v>
+      </c>
+      <c r="X123" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y123" s="284" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y123" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z123" s="284" t="str">
+        <v>3391200</v>
+      </c>
+      <c r="Z123" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA123" s="284" t="str">
+        <v>423900</v>
+      </c>
+      <c r="AA123" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB123" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC123" s="284" t="str">
+        <v>423900</v>
+      </c>
+      <c r="AC123" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2967300</v>
       </c>
       <c r="AD123" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -25627,7 +25782,7 @@
       <c r="AE123" s="284"/>
       <c r="AF123" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-108LSN47100</v>
       </c>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
@@ -25655,43 +25810,59 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K124" s="281">
+        <v>72</v>
+      </c>
+      <c r="L124" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="N124" s="281" t="s">
+        <v>312</v>
+      </c>
       <c r="O124" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q124" s="284"/>
-      <c r="R124" s="285"/>
-      <c r="T124" s="284" t="str">
+        <v>GEL PEN KENKO SAHARA SNACK (HITAM)</v>
+      </c>
+      <c r="P124" s="281" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q124" s="284">
+        <v>39000</v>
+      </c>
+      <c r="R124" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T124" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W124" s="288" t="str">
+        <v>2457000</v>
+      </c>
+      <c r="W124" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X124" s="288" t="str">
+        <v>122</v>
+      </c>
+      <c r="X124" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y124" s="284" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y124" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z124" s="284" t="str">
+        <v>2808000</v>
+      </c>
+      <c r="Z124" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA124" s="284" t="str">
+        <v>351000</v>
+      </c>
+      <c r="AA124" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB124" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC124" s="284" t="str">
+        <v>351000</v>
+      </c>
+      <c r="AC124" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2457000</v>
       </c>
       <c r="AD124" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -25700,7 +25871,7 @@
       <c r="AE124" s="284"/>
       <c r="AF124" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN KENKO SAHARA SNACK (HITAM)LSN39000</v>
       </c>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
@@ -25728,43 +25899,59 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K125" s="281">
+        <v>24</v>
+      </c>
+      <c r="L125" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="N125" s="281" t="s">
+        <v>311</v>
+      </c>
       <c r="O125" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q125" s="284"/>
-      <c r="R125" s="285"/>
-      <c r="T125" s="284" t="str">
+        <v>GEL PEN KENKO SAHARA (HITAM)</v>
+      </c>
+      <c r="P125" s="281" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q125" s="284">
+        <v>36600</v>
+      </c>
+      <c r="R125" s="285">
+        <v>0.125</v>
+      </c>
+      <c r="T125" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W125" s="288" t="str">
+        <v>768600</v>
+      </c>
+      <c r="W125" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X125" s="288" t="str">
+        <v>122</v>
+      </c>
+      <c r="X125" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y125" s="284" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y125" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z125" s="284" t="str">
+        <v>878400</v>
+      </c>
+      <c r="Z125" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA125" s="284" t="str">
+        <v>109800</v>
+      </c>
+      <c r="AA125" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB125" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC125" s="284" t="str">
+        <v>109800</v>
+      </c>
+      <c r="AC125" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>768600</v>
       </c>
       <c r="AD125" s="284" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -25773,7 +25960,7 @@
       <c r="AE125" s="284"/>
       <c r="AF125" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN KENKO SAHARA (HITAM)LSN36600</v>
       </c>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
@@ -35778,22 +35965,38 @@
       </c>
     </row>
     <row r="263" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A263" s="288"/>
-      <c r="B263" s="288"/>
-      <c r="H263" s="288"/>
-      <c r="I263" s="289"/>
-      <c r="J263" s="288"/>
-      <c r="O263" s="288"/>
-      <c r="Q263" s="284"/>
-      <c r="R263" s="285"/>
-      <c r="T263" s="284"/>
-      <c r="W263" s="288"/>
-      <c r="X263" s="288"/>
-      <c r="Y263" s="284"/>
-      <c r="Z263" s="284"/>
-      <c r="AA263" s="284"/>
-      <c r="AE263" s="284"/>
-      <c r="AF263" s="284"/>
+      <c r="A263" s="298"/>
+      <c r="B263" s="298"/>
+      <c r="C263" s="299"/>
+      <c r="D263" s="300"/>
+      <c r="E263" s="301"/>
+      <c r="F263" s="302"/>
+      <c r="G263" s="301"/>
+      <c r="H263" s="298"/>
+      <c r="I263" s="303"/>
+      <c r="J263" s="298"/>
+      <c r="K263" s="301"/>
+      <c r="L263" s="301"/>
+      <c r="M263" s="301"/>
+      <c r="N263" s="301"/>
+      <c r="O263" s="298"/>
+      <c r="P263" s="301"/>
+      <c r="Q263" s="304"/>
+      <c r="R263" s="305"/>
+      <c r="S263" s="305"/>
+      <c r="T263" s="304"/>
+      <c r="U263" s="304"/>
+      <c r="V263" s="301"/>
+      <c r="W263" s="298"/>
+      <c r="X263" s="298"/>
+      <c r="Y263" s="304"/>
+      <c r="Z263" s="304"/>
+      <c r="AA263" s="304"/>
+      <c r="AB263" s="304"/>
+      <c r="AC263" s="304"/>
+      <c r="AD263" s="304"/>
+      <c r="AE263" s="304"/>
+      <c r="AF263" s="304"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35809,8 +36012,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35878,7 +36081,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>COUNT(Table1[//])</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="295" t="str">
         <f>"["&amp;G2&amp;".xlsx]Invoice"</f>
@@ -35988,7 +36191,7 @@
       </c>
       <c r="Z4" s="279">
         <f ca="1">SUM(pajak[Total Invoice])</f>
-        <v>363730728.5</v>
+        <v>393153720.5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -36077,7 +36280,7 @@
       </c>
       <c r="Z5" s="87">
         <f ca="1">SUM(pajak[PPN 11%])</f>
-        <v>36045387.509009004</v>
+        <v>38961179.509009004</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -36163,7 +36366,7 @@
       </c>
       <c r="Z6" s="87">
         <f ca="1">(Z4/1.11)*11%</f>
-        <v>36045387.509009004</v>
+        <v>38961179.509009004</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -38654,23 +38857,23 @@
       </c>
       <c r="H37" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v>18784800</v>
+        <v>30280800</v>
       </c>
       <c r="I37" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v>2535948</v>
+        <v>4087908</v>
       </c>
       <c r="J37" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v>16248852</v>
+        <v>26192892</v>
       </c>
       <c r="K37" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v>1610246.5945945946</v>
+        <v>2595691.9999999995</v>
       </c>
       <c r="L37" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v>16248852</v>
+        <v>26192892</v>
       </c>
       <c r="M37" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
@@ -38711,50 +38914,52 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="292"/>
-      <c r="C38" s="85" t="str">
+      <c r="A38" s="292">
+        <v>120</v>
+      </c>
+      <c r="C38" s="85">
         <f t="shared" si="2"/>
-        <v/>
+        <v>120</v>
       </c>
       <c r="D38" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E38" s="88" t="str">
+        <v>AM 23070034</v>
+      </c>
+      <c r="E38" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45132</v>
       </c>
       <c r="F38" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 2660</v>
       </c>
       <c r="G38" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H38" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I38" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J38" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K38" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L38" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="H38" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>11404800</v>
+      </c>
+      <c r="I38" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>1539648</v>
+      </c>
+      <c r="J38" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>9865152</v>
+      </c>
+      <c r="K38" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>977627.67567567551</v>
+      </c>
+      <c r="L38" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>9865152</v>
       </c>
       <c r="M38" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N38" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -38769,9 +38974,9 @@
         <f t="shared" si="3"/>
         <v>23070034</v>
       </c>
-      <c r="S38" s="184" t="b">
+      <c r="S38" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="T38" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -38791,52 +38996,52 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="292" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="85" t="str">
+      <c r="A39" s="292">
+        <v>122</v>
+      </c>
+      <c r="C39" s="85">
         <f t="shared" si="2"/>
-        <v/>
+        <v>122</v>
       </c>
       <c r="D39" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E39" s="88" t="str">
+        <v>AM 23070035</v>
+      </c>
+      <c r="E39" s="88">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45133</v>
       </c>
       <c r="F39" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>G 1625</v>
       </c>
       <c r="G39" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H39" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I39" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J39" s="87" t="str">
-        <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K39" s="87" t="str">
-        <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L39" s="87" t="str">
-        <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>CV UTAMA PUTRA TULUNG AGUNG</v>
+      </c>
+      <c r="H39" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
+        <v>10987200</v>
+      </c>
+      <c r="I39" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
+        <v>1373400</v>
+      </c>
+      <c r="J39" s="87">
+        <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
+        <v>9613800</v>
+      </c>
+      <c r="K39" s="87">
+        <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
+        <v>952718.91891891893</v>
+      </c>
+      <c r="L39" s="87">
+        <f ca="1">pajak[[#This Row],[Sub Total]]</f>
+        <v>9613800</v>
       </c>
       <c r="M39" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>RISMA / CONDRO</v>
       </c>
       <c r="N39" s="85" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -38851,9 +39056,9 @@
         <f t="shared" si="3"/>
         <v>23070035</v>
       </c>
-      <c r="S39" s="184" t="b">
+      <c r="S39" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="T39" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -38873,6 +39078,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="292"/>
       <c r="C40" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38952,6 +39158,9 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="292" t="s">
+        <v>55</v>
+      </c>
       <c r="C41" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -40301,23 +40510,23 @@
       <c r="E58"/>
       <c r="H58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total])</f>
-        <v>414879000</v>
+        <v>448767000</v>
       </c>
       <c r="I58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Diskon])</f>
-        <v>51148271.5</v>
+        <v>55613279.5</v>
       </c>
       <c r="J58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>363730728.5</v>
+        <v>393153720.5</v>
       </c>
       <c r="K58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>36045387.509009004</v>
+        <v>38961179.509009004</v>
       </c>
       <c r="L58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>363730728.5</v>
+        <v>393153720.5</v>
       </c>
       <c r="M58"/>
       <c r="N58"/>
@@ -40325,10 +40534,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F59:F1048576 F3:F57">
-    <cfRule type="duplicateValues" dxfId="67" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:W2 S4:W1048576">
-    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40346,7 +40555,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A11" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J37" sqref="J37:K37"/>
     </sheetView>
   </sheetViews>
@@ -40367,7 +40576,7 @@
     <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -40381,19 +40590,19 @@
       </c>
       <c r="E1" t="str">
         <f>INDEX(Table1[h_toko],newestIdRow-offset)</f>
-        <v>ANUGERAH</v>
+        <v>UTAMA</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
       </c>
       <c r="G1">
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
-        <v>5</v>
-      </c>
-      <c r="I1" s="345" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="353" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="345"/>
+      <c r="J1" s="353"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -40417,18 +40626,18 @@
       </c>
       <c r="E3" s="8">
         <f>INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23070033</v>
+        <v>23070035</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="352" t="str">
+      <c r="H3" s="360" t="str">
         <f>INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
-        <v>CV PELITA JAYA</v>
-      </c>
-      <c r="I3" s="352"/>
-      <c r="J3" s="352"/>
-      <c r="K3" s="353"/>
+        <v>CV UTAMA PUTRA</v>
+      </c>
+      <c r="I3" s="360"/>
+      <c r="J3" s="360"/>
+      <c r="K3" s="361"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40437,14 +40646,14 @@
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="323" t="s">
+      <c r="F4" s="331" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="354"/>
-      <c r="I4" s="354"/>
-      <c r="J4" s="354"/>
-      <c r="K4" s="355"/>
+      <c r="H4" s="362"/>
+      <c r="I4" s="362"/>
+      <c r="J4" s="362"/>
+      <c r="K4" s="363"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40453,20 +40662,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="324">
+      <c r="D5" s="332">
         <f>INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
-        <v>45131</v>
-      </c>
-      <c r="E5" s="325"/>
-      <c r="F5" s="323"/>
+        <v>45133</v>
+      </c>
+      <c r="E5" s="333"/>
+      <c r="F5" s="331"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="326" t="str">
+      <c r="H5" s="334" t="str">
         <f>IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
-      </c>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="327"/>
+        <v/>
+      </c>
+      <c r="I5" s="334"/>
+      <c r="J5" s="334"/>
+      <c r="K5" s="335"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40475,15 +40684,15 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="323"/>
+      <c r="F6" s="331"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="328" t="str">
+      <c r="H6" s="336" t="str">
         <f>INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
-        <v>PURWOKERTO</v>
-      </c>
-      <c r="I6" s="328"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="329"/>
+        <v>TULUNG AGUNG</v>
+      </c>
+      <c r="I6" s="336"/>
+      <c r="J6" s="336"/>
+      <c r="K6" s="337"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -40494,15 +40703,15 @@
       <c r="C7" s="7"/>
       <c r="D7" s="19" t="str">
         <f>INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>KO 2655</v>
+        <v>G 1625</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="330"/>
-      <c r="J7" s="330"/>
-      <c r="K7" s="331"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="339"/>
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -40565,7 +40774,7 @@
       </c>
       <c r="B11" s="45">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="C11" s="45" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A11-1))</f>
@@ -40573,21 +40782,21 @@
       </c>
       <c r="D11" s="46">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="47" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
+        <v>CORRECTION FLUID KENKO KE-01</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="H11" s="50">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>10600</v>
+        <v>54300</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)))</f>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J11" s="51" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)))</f>
@@ -40595,7 +40804,7 @@
       </c>
       <c r="K11" s="52">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>3961008</v>
+        <v>3420900</v>
       </c>
       <c r="L11" s="35"/>
     </row>
@@ -40605,7 +40814,7 @@
       </c>
       <c r="B12" s="45">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A12-1))</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C12" s="45" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A12-1))</f>
@@ -40613,21 +40822,21 @@
       </c>
       <c r="D12" s="46">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A12-1)="","",INDEX(Table1[C],newestIdRow-offset+A12-1)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="47" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A12-1))</f>
-        <v>STAPLER KENKO HD-10</v>
+        <v>CORRECTION FLUID KENKO KE-108</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="49"/>
       <c r="H12" s="50">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A12-1))</f>
-        <v>93000</v>
+        <v>47100</v>
       </c>
       <c r="I12" s="51">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)))</f>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J12" s="51" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)))</f>
@@ -40635,7 +40844,7 @@
       </c>
       <c r="K12" s="52">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A12-1))</f>
-        <v>4826700</v>
+        <v>2967300</v>
       </c>
       <c r="L12" s="35"/>
     </row>
@@ -40645,29 +40854,29 @@
       </c>
       <c r="B13" s="45">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A13-1))</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C13" s="45" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A13-1))</f>
         <v>LSN</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="46" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A13-1)="","",INDEX(Table1[C],newestIdRow-offset+A13-1)))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="E13" s="47" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A13-1))</f>
-        <v>CUTTER 9 MM KENKO A-300 (KECIL)</v>
+        <v>GEL PEN KENKO SAHARA SNACK (HITAM)</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="49"/>
       <c r="H13" s="50">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A13-1))</f>
-        <v>57000</v>
+        <v>39000</v>
       </c>
       <c r="I13" s="51">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A13-1)))</f>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J13" s="51" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)))</f>
@@ -40675,7 +40884,7 @@
       </c>
       <c r="K13" s="52">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A13-1))</f>
-        <v>2958300</v>
+        <v>2457000</v>
       </c>
       <c r="L13" s="35"/>
     </row>
@@ -40685,29 +40894,29 @@
       </c>
       <c r="B14" s="45">
         <f ca="1">IF(A14&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A14-1))</f>
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="C14" s="45" t="str">
         <f ca="1">IF(A14&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A14-1))</f>
         <v>LSN</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="46" t="str">
         <f ca="1">IF(A14&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A14-1)="","",INDEX(Table1[C],newestIdRow-offset+A14-1)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E14" s="47" t="str">
         <f ca="1">IF(A14&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A14-1))</f>
-        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
+        <v>GEL PEN KENKO SAHARA (HITAM)</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
       <c r="H14" s="50">
         <f ca="1">IF(A14&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A14-1))</f>
-        <v>12600</v>
+        <v>36600</v>
       </c>
       <c r="I14" s="51">
         <f ca="1">IF(A14&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A14-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A14-1)))</f>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J14" s="51" t="str">
         <f ca="1">IF(A14&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A14-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A14-1)))</f>
@@ -40715,7 +40924,7 @@
       </c>
       <c r="K14" s="52">
         <f ca="1">IF(A14&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A14-1))</f>
-        <v>1569456</v>
+        <v>768600</v>
       </c>
       <c r="L14" s="35"/>
     </row>
@@ -40723,39 +40932,39 @@
       <c r="A15" s="44">
         <v>5</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="45" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A15-1))</f>
-        <v>72</v>
+        <v/>
       </c>
       <c r="C15" s="45" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A15-1))</f>
-        <v>LSN</v>
-      </c>
-      <c r="D15" s="46">
+        <v/>
+      </c>
+      <c r="D15" s="46" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A15-1)="","",INDEX(Table1[C],newestIdRow-offset+A15-1)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E15" s="47" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A15-1))</f>
-        <v>CORRECTION FLUID KENKO KE-108</v>
+        <v/>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="49"/>
-      <c r="H15" s="50">
+      <c r="H15" s="50" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A15-1))</f>
-        <v>47100</v>
-      </c>
-      <c r="I15" s="51">
+        <v/>
+      </c>
+      <c r="I15" s="51" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A15-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A15-1)))</f>
-        <v>0.13500000000000001</v>
+        <v/>
       </c>
       <c r="J15" s="51" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A15-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A15-1)))</f>
         <v/>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="52" t="str">
         <f ca="1">IF(A15&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A15-1))</f>
-        <v>2933388</v>
+        <v/>
       </c>
       <c r="L15" s="35"/>
     </row>
@@ -41223,8 +41432,8 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="351"/>
-      <c r="K28" s="351"/>
+      <c r="J28" s="359"/>
+      <c r="K28" s="359"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -41234,11 +41443,11 @@
       <c r="I29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="348">
+      <c r="J29" s="356">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>16248852</v>
-      </c>
-      <c r="K29" s="349"/>
+        <v>9613800</v>
+      </c>
+      <c r="K29" s="357"/>
       <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41247,8 +41456,8 @@
       <c r="C30" s="65"/>
       <c r="D30" s="24"/>
       <c r="I30" s="67"/>
-      <c r="J30" s="350"/>
-      <c r="K30" s="350"/>
+      <c r="J30" s="358"/>
+      <c r="K30" s="358"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -41271,8 +41480,8 @@
       <c r="C32" s="65"/>
       <c r="D32" s="24"/>
       <c r="I32" s="67"/>
-      <c r="J32" s="351"/>
-      <c r="K32" s="351"/>
+      <c r="J32" s="359"/>
+      <c r="K32" s="359"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -41287,11 +41496,11 @@
       <c r="I33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="348">
+      <c r="J33" s="356">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>1610246.5945945946</v>
-      </c>
-      <c r="K33" s="349"/>
+        <v>952718.91891891893</v>
+      </c>
+      <c r="K33" s="357"/>
       <c r="L33" s="72"/>
     </row>
     <row r="34" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41300,8 +41509,8 @@
       <c r="C34" s="65"/>
       <c r="D34" s="24"/>
       <c r="I34" s="67"/>
-      <c r="J34" s="351"/>
-      <c r="K34" s="351"/>
+      <c r="J34" s="359"/>
+      <c r="K34" s="359"/>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -41315,7 +41524,7 @@
       <c r="J35" s="75"/>
       <c r="K35" s="76">
         <f ca="1">INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>16248852</v>
+        <v>9613800</v>
       </c>
       <c r="L35" s="72"/>
     </row>
@@ -41342,11 +41551,11 @@
       <c r="I37" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="346" t="str">
+      <c r="J37" s="354" t="str">
         <f>INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>NOVI / CONDRO</v>
-      </c>
-      <c r="K37" s="347"/>
+        <v>RISMA / CONDRO</v>
+      </c>
+      <c r="K37" s="355"/>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77"/>
@@ -41356,11 +41565,11 @@
       <c r="I38" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="346" t="str">
+      <c r="J38" s="354" t="str">
         <f>INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="347"/>
+      <c r="K38" s="355"/>
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41399,19 +41608,19 @@
       </c>
       <c r="E41" s="194">
         <f>E3</f>
-        <v>23070033</v>
+        <v>23070035</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="332" t="str">
+      <c r="H41" s="340" t="str">
         <f>H3</f>
-        <v>CV PELITA JAYA</v>
-      </c>
-      <c r="I41" s="332"/>
-      <c r="J41" s="332"/>
-      <c r="K41" s="333"/>
+        <v>CV UTAMA PUTRA</v>
+      </c>
+      <c r="I41" s="340"/>
+      <c r="J41" s="340"/>
+      <c r="K41" s="341"/>
       <c r="L41" s="197"/>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41420,14 +41629,14 @@
       <c r="C42" s="199"/>
       <c r="D42" s="200"/>
       <c r="E42" s="201"/>
-      <c r="F42" s="336" t="s">
+      <c r="F42" s="344" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="202"/>
-      <c r="H42" s="334"/>
-      <c r="I42" s="334"/>
-      <c r="J42" s="334"/>
-      <c r="K42" s="335"/>
+      <c r="H42" s="342"/>
+      <c r="I42" s="342"/>
+      <c r="J42" s="342"/>
+      <c r="K42" s="343"/>
       <c r="L42" s="197"/>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41436,20 +41645,20 @@
         <v>2</v>
       </c>
       <c r="C43" s="192"/>
-      <c r="D43" s="337">
+      <c r="D43" s="345">
         <f>D5</f>
-        <v>45131</v>
-      </c>
-      <c r="E43" s="338"/>
-      <c r="F43" s="336"/>
+        <v>45133</v>
+      </c>
+      <c r="E43" s="346"/>
+      <c r="F43" s="344"/>
       <c r="G43" s="203"/>
-      <c r="H43" s="339" t="str">
+      <c r="H43" s="347" t="str">
         <f>H5</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
-      </c>
-      <c r="I43" s="339"/>
-      <c r="J43" s="339"/>
-      <c r="K43" s="340"/>
+        <v/>
+      </c>
+      <c r="I43" s="347"/>
+      <c r="J43" s="347"/>
+      <c r="K43" s="348"/>
       <c r="L43" s="204"/>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41458,15 +41667,15 @@
       <c r="C44" s="199"/>
       <c r="D44" s="200"/>
       <c r="E44" s="201"/>
-      <c r="F44" s="336"/>
+      <c r="F44" s="344"/>
       <c r="G44" s="203"/>
-      <c r="H44" s="341" t="str">
+      <c r="H44" s="349" t="str">
         <f>H6</f>
-        <v>PURWOKERTO</v>
-      </c>
-      <c r="I44" s="341"/>
-      <c r="J44" s="341"/>
-      <c r="K44" s="342"/>
+        <v>TULUNG AGUNG</v>
+      </c>
+      <c r="I44" s="349"/>
+      <c r="J44" s="349"/>
+      <c r="K44" s="350"/>
       <c r="L44" s="205"/>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -41477,15 +41686,15 @@
       <c r="C45" s="192"/>
       <c r="D45" s="206" t="str">
         <f>D7</f>
-        <v>KO 2655</v>
+        <v>G 1625</v>
       </c>
       <c r="E45" s="194"/>
       <c r="F45" s="207"/>
       <c r="G45" s="208"/>
-      <c r="H45" s="343"/>
-      <c r="I45" s="343"/>
-      <c r="J45" s="343"/>
-      <c r="K45" s="344"/>
+      <c r="H45" s="351"/>
+      <c r="I45" s="351"/>
+      <c r="J45" s="351"/>
+      <c r="K45" s="352"/>
       <c r="L45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -41552,7 +41761,7 @@
       </c>
       <c r="B49" s="233">
         <f t="shared" ref="B49:E64" ca="1" si="0">B11</f>
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="C49" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -41560,21 +41769,21 @@
       </c>
       <c r="D49" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
+        <v>CORRECTION FLUID KENKO KE-01</v>
       </c>
       <c r="F49" s="237"/>
       <c r="G49" s="238"/>
       <c r="H49" s="239">
         <f t="shared" ref="H49:K64" ca="1" si="1">H11</f>
-        <v>10600</v>
+        <v>54300</v>
       </c>
       <c r="I49" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J49" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -41582,7 +41791,7 @@
       </c>
       <c r="K49" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>3961008</v>
+        <v>3420900</v>
       </c>
       <c r="L49" s="223"/>
     </row>
@@ -41592,7 +41801,7 @@
       </c>
       <c r="B50" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C50" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -41600,21 +41809,21 @@
       </c>
       <c r="D50" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>STAPLER KENKO HD-10</v>
+        <v>CORRECTION FLUID KENKO KE-108</v>
       </c>
       <c r="F50" s="237"/>
       <c r="G50" s="238"/>
       <c r="H50" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v>93000</v>
+        <v>47100</v>
       </c>
       <c r="I50" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J50" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -41622,7 +41831,7 @@
       </c>
       <c r="K50" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>4826700</v>
+        <v>2967300</v>
       </c>
       <c r="L50" s="223"/>
     </row>
@@ -41632,29 +41841,29 @@
       </c>
       <c r="B51" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C51" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>LSN</v>
       </c>
-      <c r="D51" s="235">
+      <c r="D51" s="235" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="E51" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>CUTTER 9 MM KENKO A-300 (KECIL)</v>
+        <v>GEL PEN KENKO SAHARA SNACK (HITAM)</v>
       </c>
       <c r="F51" s="237"/>
       <c r="G51" s="238"/>
       <c r="H51" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v>57000</v>
+        <v>39000</v>
       </c>
       <c r="I51" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J51" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -41662,7 +41871,7 @@
       </c>
       <c r="K51" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>2958300</v>
+        <v>2457000</v>
       </c>
       <c r="L51" s="223"/>
     </row>
@@ -41672,29 +41881,29 @@
       </c>
       <c r="B52" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="C52" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>LSN</v>
       </c>
-      <c r="D52" s="235">
+      <c r="D52" s="235" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E52" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
+        <v>GEL PEN KENKO SAHARA (HITAM)</v>
       </c>
       <c r="F52" s="237"/>
       <c r="G52" s="238"/>
       <c r="H52" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v>12600</v>
+        <v>36600</v>
       </c>
       <c r="I52" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J52" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -41702,7 +41911,7 @@
       </c>
       <c r="K52" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>1569456</v>
+        <v>768600</v>
       </c>
       <c r="L52" s="223"/>
     </row>
@@ -41710,39 +41919,39 @@
       <c r="A53" s="232">
         <v>5</v>
       </c>
-      <c r="B53" s="233">
+      <c r="B53" s="233" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v/>
       </c>
       <c r="C53" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LSN</v>
-      </c>
-      <c r="D53" s="235">
+        <v/>
+      </c>
+      <c r="D53" s="235" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E53" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>CORRECTION FLUID KENKO KE-108</v>
+        <v/>
       </c>
       <c r="F53" s="237"/>
       <c r="G53" s="238"/>
-      <c r="H53" s="239">
+      <c r="H53" s="239" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>47100</v>
-      </c>
-      <c r="I53" s="240">
+        <v/>
+      </c>
+      <c r="I53" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v/>
       </c>
       <c r="J53" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K53" s="241">
+      <c r="K53" s="241" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2933388</v>
+        <v/>
       </c>
       <c r="L53" s="223"/>
     </row>
@@ -42210,8 +42419,8 @@
       <c r="G66" s="252"/>
       <c r="H66" s="252"/>
       <c r="I66" s="253"/>
-      <c r="J66" s="312"/>
-      <c r="K66" s="312"/>
+      <c r="J66" s="320"/>
+      <c r="K66" s="320"/>
       <c r="L66" s="215"/>
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42226,11 +42435,11 @@
       <c r="I67" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="320">
+      <c r="J67" s="328">
         <f ca="1">J29</f>
-        <v>16248852</v>
-      </c>
-      <c r="K67" s="321"/>
+        <v>9613800</v>
+      </c>
+      <c r="K67" s="329"/>
       <c r="L67" s="223"/>
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42243,8 +42452,8 @@
       <c r="G68" s="212"/>
       <c r="H68" s="212"/>
       <c r="I68" s="256"/>
-      <c r="J68" s="322"/>
-      <c r="K68" s="322"/>
+      <c r="J68" s="330"/>
+      <c r="K68" s="330"/>
       <c r="L68" s="215"/>
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42279,8 +42488,8 @@
       <c r="G70" s="212"/>
       <c r="H70" s="212"/>
       <c r="I70" s="256"/>
-      <c r="J70" s="312"/>
-      <c r="K70" s="312"/>
+      <c r="J70" s="320"/>
+      <c r="K70" s="320"/>
       <c r="L70" s="215"/>
     </row>
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42299,11 +42508,11 @@
       <c r="I71" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="320">
+      <c r="J71" s="328">
         <f ca="1">J33</f>
-        <v>1610246.5945945946</v>
-      </c>
-      <c r="K71" s="321"/>
+        <v>952718.91891891893</v>
+      </c>
+      <c r="K71" s="329"/>
       <c r="L71" s="261"/>
     </row>
     <row r="72" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42316,8 +42525,8 @@
       <c r="G72" s="212"/>
       <c r="H72" s="212"/>
       <c r="I72" s="256"/>
-      <c r="J72" s="312"/>
-      <c r="K72" s="312"/>
+      <c r="J72" s="320"/>
+      <c r="K72" s="320"/>
       <c r="L72" s="215"/>
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42335,7 +42544,7 @@
       <c r="J73" s="264"/>
       <c r="K73" s="265">
         <f ca="1">K35</f>
-        <v>16248852</v>
+        <v>9613800</v>
       </c>
       <c r="L73" s="261"/>
     </row>
@@ -42367,11 +42576,11 @@
       <c r="I75" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="313" t="str">
+      <c r="J75" s="321" t="str">
         <f>J37</f>
-        <v>NOVI / CONDRO</v>
-      </c>
-      <c r="K75" s="314"/>
+        <v>RISMA / CONDRO</v>
+      </c>
+      <c r="K75" s="322"/>
       <c r="L75" s="215"/>
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42386,11 +42595,11 @@
       <c r="I76" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="313" t="str">
+      <c r="J76" s="321" t="str">
         <f>J38</f>
         <v/>
       </c>
-      <c r="K76" s="314"/>
+      <c r="K76" s="322"/>
       <c r="L76" s="269"/>
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42433,19 +42642,19 @@
       </c>
       <c r="E79" s="99">
         <f>E41</f>
-        <v>23070033</v>
+        <v>23070035</v>
       </c>
       <c r="F79" s="100"/>
       <c r="G79" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="315" t="str">
+      <c r="H79" s="323" t="str">
         <f>H41</f>
-        <v>CV PELITA JAYA</v>
-      </c>
-      <c r="I79" s="315"/>
-      <c r="J79" s="315"/>
-      <c r="K79" s="316"/>
+        <v>CV UTAMA PUTRA</v>
+      </c>
+      <c r="I79" s="323"/>
+      <c r="J79" s="323"/>
+      <c r="K79" s="324"/>
       <c r="L79" s="102"/>
     </row>
     <row r="80" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42454,14 +42663,14 @@
       <c r="C80" s="104"/>
       <c r="D80" s="105"/>
       <c r="E80" s="106"/>
-      <c r="F80" s="319" t="s">
+      <c r="F80" s="327" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="107"/>
-      <c r="H80" s="317"/>
-      <c r="I80" s="317"/>
-      <c r="J80" s="317"/>
-      <c r="K80" s="318"/>
+      <c r="H80" s="325"/>
+      <c r="I80" s="325"/>
+      <c r="J80" s="325"/>
+      <c r="K80" s="326"/>
       <c r="L80" s="102"/>
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42470,20 +42679,20 @@
         <v>2</v>
       </c>
       <c r="C81" s="97"/>
-      <c r="D81" s="304">
+      <c r="D81" s="312">
         <f>D43</f>
-        <v>45131</v>
-      </c>
-      <c r="E81" s="305"/>
-      <c r="F81" s="319"/>
+        <v>45133</v>
+      </c>
+      <c r="E81" s="313"/>
+      <c r="F81" s="327"/>
       <c r="G81" s="108"/>
-      <c r="H81" s="306" t="str">
+      <c r="H81" s="314" t="str">
         <f>H43</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
-      </c>
-      <c r="I81" s="306"/>
-      <c r="J81" s="306"/>
-      <c r="K81" s="307"/>
+        <v/>
+      </c>
+      <c r="I81" s="314"/>
+      <c r="J81" s="314"/>
+      <c r="K81" s="315"/>
       <c r="L81" s="109"/>
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42492,15 +42701,15 @@
       <c r="C82" s="104"/>
       <c r="D82" s="105"/>
       <c r="E82" s="106"/>
-      <c r="F82" s="319"/>
+      <c r="F82" s="327"/>
       <c r="G82" s="108"/>
-      <c r="H82" s="308" t="str">
+      <c r="H82" s="316" t="str">
         <f>H44</f>
-        <v>PURWOKERTO</v>
-      </c>
-      <c r="I82" s="308"/>
-      <c r="J82" s="308"/>
-      <c r="K82" s="309"/>
+        <v>TULUNG AGUNG</v>
+      </c>
+      <c r="I82" s="316"/>
+      <c r="J82" s="316"/>
+      <c r="K82" s="317"/>
       <c r="L82" s="110"/>
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -42511,15 +42720,15 @@
       <c r="C83" s="97"/>
       <c r="D83" s="111" t="str">
         <f>D45</f>
-        <v>KO 2655</v>
+        <v>G 1625</v>
       </c>
       <c r="E83" s="99"/>
       <c r="F83" s="112"/>
       <c r="G83" s="113"/>
-      <c r="H83" s="310"/>
-      <c r="I83" s="310"/>
-      <c r="J83" s="310"/>
-      <c r="K83" s="311"/>
+      <c r="H83" s="318"/>
+      <c r="I83" s="318"/>
+      <c r="J83" s="318"/>
+      <c r="K83" s="319"/>
       <c r="L83" s="110"/>
     </row>
     <row r="84" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -42586,7 +42795,7 @@
       </c>
       <c r="B87" s="138">
         <f t="shared" ref="B87:E102" ca="1" si="2">B49</f>
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="C87" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -42594,21 +42803,21 @@
       </c>
       <c r="D87" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
+        <v>CORRECTION FLUID KENKO KE-01</v>
       </c>
       <c r="F87" s="142"/>
       <c r="G87" s="143"/>
       <c r="H87" s="144">
         <f t="shared" ref="H87:K102" ca="1" si="3">H49</f>
-        <v>10600</v>
+        <v>54300</v>
       </c>
       <c r="I87" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J87" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -42616,7 +42825,7 @@
       </c>
       <c r="K87" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>3961008</v>
+        <v>3420900</v>
       </c>
       <c r="L87" s="128"/>
     </row>
@@ -42626,7 +42835,7 @@
       </c>
       <c r="B88" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C88" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -42634,21 +42843,21 @@
       </c>
       <c r="D88" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>STAPLER KENKO HD-10</v>
+        <v>CORRECTION FLUID KENKO KE-108</v>
       </c>
       <c r="F88" s="142"/>
       <c r="G88" s="143"/>
       <c r="H88" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v>93000</v>
+        <v>47100</v>
       </c>
       <c r="I88" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J88" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -42656,7 +42865,7 @@
       </c>
       <c r="K88" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>4826700</v>
+        <v>2967300</v>
       </c>
       <c r="L88" s="128"/>
     </row>
@@ -42666,29 +42875,29 @@
       </c>
       <c r="B89" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C89" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>LSN</v>
       </c>
-      <c r="D89" s="140">
+      <c r="D89" s="140" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="E89" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CUTTER 9 MM KENKO A-300 (KECIL)</v>
+        <v>GEL PEN KENKO SAHARA SNACK (HITAM)</v>
       </c>
       <c r="F89" s="142"/>
       <c r="G89" s="143"/>
       <c r="H89" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v>57000</v>
+        <v>39000</v>
       </c>
       <c r="I89" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J89" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -42696,7 +42905,7 @@
       </c>
       <c r="K89" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>2958300</v>
+        <v>2457000</v>
       </c>
       <c r="L89" s="128"/>
     </row>
@@ -42706,29 +42915,29 @@
       </c>
       <c r="B90" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="C90" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>LSN</v>
       </c>
-      <c r="D90" s="140">
+      <c r="D90" s="140" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E90" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
+        <v>GEL PEN KENKO SAHARA (HITAM)</v>
       </c>
       <c r="F90" s="142"/>
       <c r="G90" s="143"/>
       <c r="H90" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v>12600</v>
+        <v>36600</v>
       </c>
       <c r="I90" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J90" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -42736,7 +42945,7 @@
       </c>
       <c r="K90" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>1569456</v>
+        <v>768600</v>
       </c>
       <c r="L90" s="128"/>
     </row>
@@ -42744,39 +42953,39 @@
       <c r="A91" s="137">
         <v>5</v>
       </c>
-      <c r="B91" s="138">
+      <c r="B91" s="138" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v/>
       </c>
       <c r="C91" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LSN</v>
-      </c>
-      <c r="D91" s="140">
+        <v/>
+      </c>
+      <c r="D91" s="140" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E91" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CORRECTION FLUID KENKO KE-108</v>
+        <v/>
       </c>
       <c r="F91" s="142"/>
       <c r="G91" s="143"/>
-      <c r="H91" s="144">
+      <c r="H91" s="144" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>47100</v>
-      </c>
-      <c r="I91" s="145">
+        <v/>
+      </c>
+      <c r="I91" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v/>
       </c>
       <c r="J91" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K91" s="146">
+      <c r="K91" s="146" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2933388</v>
+        <v/>
       </c>
       <c r="L91" s="128"/>
     </row>
@@ -43244,8 +43453,8 @@
       <c r="G104" s="157"/>
       <c r="H104" s="157"/>
       <c r="I104" s="158"/>
-      <c r="J104" s="301"/>
-      <c r="K104" s="301"/>
+      <c r="J104" s="309"/>
+      <c r="K104" s="309"/>
       <c r="L104" s="120"/>
     </row>
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43260,11 +43469,11 @@
       <c r="I105" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="302">
+      <c r="J105" s="310">
         <f ca="1">J67</f>
-        <v>16248852</v>
-      </c>
-      <c r="K105" s="303"/>
+        <v>9613800</v>
+      </c>
+      <c r="K105" s="311"/>
       <c r="L105" s="128"/>
     </row>
     <row r="106" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43277,8 +43486,8 @@
       <c r="G106" s="117"/>
       <c r="H106" s="117"/>
       <c r="I106" s="161"/>
-      <c r="J106" s="300"/>
-      <c r="K106" s="300"/>
+      <c r="J106" s="308"/>
+      <c r="K106" s="308"/>
       <c r="L106" s="120"/>
     </row>
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43313,8 +43522,8 @@
       <c r="G108" s="117"/>
       <c r="H108" s="117"/>
       <c r="I108" s="161"/>
-      <c r="J108" s="301"/>
-      <c r="K108" s="301"/>
+      <c r="J108" s="309"/>
+      <c r="K108" s="309"/>
       <c r="L108" s="120"/>
     </row>
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43333,11 +43542,11 @@
       <c r="I109" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="302">
+      <c r="J109" s="310">
         <f ca="1">J71</f>
-        <v>1610246.5945945946</v>
-      </c>
-      <c r="K109" s="303"/>
+        <v>952718.91891891893</v>
+      </c>
+      <c r="K109" s="311"/>
       <c r="L109" s="166"/>
     </row>
     <row r="110" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43350,8 +43559,8 @@
       <c r="G110" s="117"/>
       <c r="H110" s="117"/>
       <c r="I110" s="161"/>
-      <c r="J110" s="301"/>
-      <c r="K110" s="301"/>
+      <c r="J110" s="309"/>
+      <c r="K110" s="309"/>
       <c r="L110" s="120"/>
     </row>
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43369,7 +43578,7 @@
       <c r="J111" s="169"/>
       <c r="K111" s="170">
         <f ca="1">K73</f>
-        <v>16248852</v>
+        <v>9613800</v>
       </c>
       <c r="L111" s="166"/>
     </row>
@@ -43401,11 +43610,11 @@
       <c r="I113" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="298" t="str">
+      <c r="J113" s="306" t="str">
         <f>J75</f>
-        <v>NOVI / CONDRO</v>
-      </c>
-      <c r="K113" s="299"/>
+        <v>RISMA / CONDRO</v>
+      </c>
+      <c r="K113" s="307"/>
       <c r="L113" s="120"/>
     </row>
     <row r="114" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -43420,11 +43629,11 @@
       <c r="I114" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="298" t="str">
+      <c r="J114" s="306" t="str">
         <f>J76</f>
         <v/>
       </c>
-      <c r="K114" s="299"/>
+      <c r="K114" s="307"/>
       <c r="L114" s="174"/>
     </row>
     <row r="115" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/BARU/2023/07 JULI/KELUAR 07.xlsx
+++ b/BARU/2023/07 JULI/KELUAR 07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="96" r:id="rId6"/>
+    <pivotCache cacheId="10" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="374">
   <si>
     <t>Column1</t>
   </si>
@@ -1146,6 +1146,15 @@
   <si>
     <t>BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC)</t>
   </si>
+  <si>
+    <t>2379</t>
+  </si>
+  <si>
+    <t>HIGHLIGHTER / STABILLO JOYKO HL-MIX PINK / ORANGE</t>
+  </si>
+  <si>
+    <t>1816</t>
+  </si>
 </sst>
 </file>
 
@@ -1159,7 +1168,7 @@
     <numFmt numFmtId="166" formatCode="\ "/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1385,6 +1394,11 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1698,7 +1712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2323,80 +2337,62 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2464,45 +2460,90 @@
     <xf numFmtId="166" fontId="24" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="100">
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4304,7 +4345,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="totalRow" dxfId="98"/>
+      <tableStyleElement type="totalRow" dxfId="99"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5159,22 +5200,22 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45136.622172453703" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="261">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45139.678916203702" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="261">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="32">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="166" count="48">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="174" count="50">
         <n v="3"/>
         <s v=""/>
         <n v="6"/>
@@ -5218,6 +5259,8 @@
         <n v="136"/>
         <n v="153"/>
         <n v="166"/>
+        <n v="170"/>
+        <n v="174"/>
         <n v="91" u="1"/>
         <n v="99" u="1"/>
         <n v="94" u="1"/>
@@ -5226,13 +5269,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23070001" maxValue="23070042"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23070001" maxValue="23070044"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-07-04T00:00:00" maxDate="2023-07-30T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-07-04T00:00:00" maxDate="2023-08-01T00:00:00"/>
     </cacheField>
     <cacheField name="H_TGL" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="29"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="31"/>
     </cacheField>
     <cacheField name="h_Kode Sales :_1" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5289,7 +5332,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="166"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="174"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
@@ -10917,7 +10960,7 @@
     <s v=" "/>
     <s v=""/>
     <n v="216"/>
-    <s v="OCS"/>
+    <s v="PCS"/>
     <n v="3"/>
     <s v="BNJKCAMPUS"/>
     <e v="#N/A"/>
@@ -10937,7 +10980,7 @@
     <n v="2986200"/>
     <s v=""/>
     <m/>
-    <s v="BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC)OCS15800"/>
+    <s v="BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC)PCS15800"/>
   </r>
   <r>
     <x v="1"/>
@@ -11008,38 +11051,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="43"/>
+    <n v="23070043"/>
+    <d v="2023-07-31T00:00:00"/>
+    <n v="31"/>
+    <s v="KO"/>
+    <s v="2379"/>
+    <s v="wisuda"/>
+    <s v="AM 23070043"/>
+    <s v="KO 2379"/>
+    <s v="CV  WISUDA PURWOKERTO"/>
+    <n v="10"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="ISIKENKECIL"/>
+    <s v="ISI CUTTER 9 MM KENKO A-100 (KECIL)"/>
+    <s v="ISI CUTTER 9 MM KENKO A-100 (KECIL)"/>
+    <n v="32400"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="291600"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="170"/>
+    <n v="3"/>
+    <n v="324000"/>
+    <n v="32400"/>
+    <n v="0"/>
+    <n v="32400"/>
+    <n v="291600"/>
+    <n v="727200"/>
+    <m/>
+    <s v="ISI CUTTER 9 MM KENKO A-100 (KECIL)LSN32400"/>
   </r>
   <r>
     <x v="1"/>
@@ -11052,28 +11095,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="100"/>
+    <s v="PCS"/>
+    <m/>
+    <m/>
+    <s v="HIGHLIGHTER / STABILLO JOYKO HL-MIX PINK / ORANGE"/>
+    <s v="HIGHLIGHTER / STABILLO JOYKO HL-MIX PINK / ORANGE"/>
+    <n v="3700"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="333000"/>
+    <m/>
+    <m/>
+    <n v="170"/>
+    <n v="3"/>
+    <n v="370000"/>
+    <n v="37000"/>
+    <n v="0"/>
+    <n v="37000"/>
+    <n v="333000"/>
+    <s v=""/>
+    <m/>
+    <s v="HIGHLIGHTER / STABILLO JOYKO HL-MIX PINK / ORANGEPCS3700"/>
   </r>
   <r>
     <x v="1"/>
@@ -11086,28 +11129,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="2"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="CUTKENA300A"/>
+    <s v="CUTTER 9 MM KENKO A-300 (KECIL)"/>
+    <s v="CUTTER 9 MM KENKO A-300 (KECIL)"/>
+    <n v="57000"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="102600"/>
+    <m/>
+    <m/>
+    <n v="170"/>
+    <n v="3"/>
+    <n v="114000"/>
+    <n v="11400"/>
+    <n v="0"/>
+    <n v="11400"/>
+    <n v="102600"/>
+    <s v=""/>
+    <m/>
+    <s v="CUTTER 9 MM KENKO A-300 (KECIL)LSN57000"/>
   </r>
   <r>
     <x v="1"/>
@@ -11144,38 +11187,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="44"/>
+    <n v="23070044"/>
+    <d v="2023-07-31T00:00:00"/>
+    <n v="31"/>
+    <s v="KO"/>
+    <s v="1816"/>
+    <s v="ANUGERAH"/>
+    <s v="AM 23070044"/>
+    <s v="KO 1816"/>
+    <s v="CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO"/>
+    <n v="288"/>
+    <s v="LSN"/>
+    <n v="2"/>
+    <s v="PENJKBP338"/>
+    <s v="BALLPEN JOYKO BP-338 VOCUS HITAM"/>
+    <s v="BALLPEN JOYKO BP-338 VOCUS HITAM"/>
+    <n v="12600"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="3138912"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="174"/>
+    <n v="1"/>
+    <n v="3628800"/>
+    <n v="489888.00000000006"/>
+    <n v="0"/>
+    <n v="489888.00000000006"/>
+    <n v="3138912"/>
+    <n v="3138912"/>
+    <m/>
+    <s v="BALLPEN JOYKO BP-338 VOCUS HITAMLSN12600"/>
   </r>
   <r>
     <x v="1"/>
@@ -14207,11 +14250,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="96" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="49">
+      <items count="51">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
@@ -14237,15 +14280,15 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="43"/>
+        <item m="1" x="45"/>
         <item x="26"/>
-        <item m="1" x="45"/>
+        <item m="1" x="47"/>
         <item x="27"/>
+        <item m="1" x="48"/>
+        <item x="28"/>
         <item m="1" x="46"/>
-        <item x="28"/>
-        <item m="1" x="44"/>
         <item x="29"/>
-        <item m="1" x="47"/>
+        <item m="1" x="49"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -14259,6 +14302,8 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -14298,7 +14343,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="46">
     <i>
       <x/>
     </i>
@@ -14428,6 +14473,12 @@
     <i>
       <x v="47"/>
     </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14436,7 +14487,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="60">
+    <format dxfId="61">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -14450,73 +14501,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF264" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF264" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
   <autoFilter ref="A2:AF263"/>
   <tableColumns count="32">
-    <tableColumn id="16" name="//" dataDxfId="94" totalsRowDxfId="31">
+    <tableColumn id="16" name="//" dataDxfId="95" totalsRowDxfId="32">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="93" totalsRowDxfId="30">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="94" totalsRowDxfId="31">
       <calculatedColumnFormula>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="92" totalsRowDxfId="29">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="93" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="H_TGL" dataDxfId="91" totalsRowDxfId="28"/>
-    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="90" totalsRowDxfId="27"/>
-    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="89" totalsRowDxfId="26"/>
-    <tableColumn id="20" name="h_toko" dataDxfId="88" totalsRowDxfId="25"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="87" totalsRowDxfId="24">
+    <tableColumn id="32" name="H_TGL" dataDxfId="92" totalsRowDxfId="29"/>
+    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="91" totalsRowDxfId="28"/>
+    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="90" totalsRowDxfId="27"/>
+    <tableColumn id="20" name="h_toko" dataDxfId="89" totalsRowDxfId="26"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="88" totalsRowDxfId="25">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="86" totalsRowDxfId="23">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="87" totalsRowDxfId="24">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="85" totalsRowDxfId="22">
+    <tableColumn id="4" name="Toko" dataDxfId="86" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="84" totalsRowDxfId="21"/>
-    <tableColumn id="6" name="Unit" dataDxfId="83" totalsRowDxfId="20"/>
-    <tableColumn id="7" name="C" dataDxfId="82" totalsRowDxfId="19"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="81" totalsRowDxfId="18"/>
-    <tableColumn id="10" name="Column1" dataDxfId="80" totalsRowDxfId="17">
+    <tableColumn id="5" name="Qty" dataDxfId="85" totalsRowDxfId="22"/>
+    <tableColumn id="6" name="Unit" dataDxfId="84" totalsRowDxfId="21"/>
+    <tableColumn id="7" name="C" dataDxfId="83" totalsRowDxfId="20"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="82" totalsRowDxfId="19"/>
+    <tableColumn id="10" name="Column1" dataDxfId="81" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="79" totalsRowDxfId="16"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="78" totalsRowDxfId="15"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="77" totalsRowDxfId="14"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="76" totalsRowDxfId="13"/>
-    <tableColumn id="23" name="Amount" dataDxfId="75" totalsRowDxfId="12">
+    <tableColumn id="9" name="Item Description" dataDxfId="80" totalsRowDxfId="17"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="79" totalsRowDxfId="16"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="78" totalsRowDxfId="15"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="77" totalsRowDxfId="14"/>
+    <tableColumn id="23" name="Amount" dataDxfId="76" totalsRowDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="74" totalsRowDxfId="11"/>
-    <tableColumn id="15" name="edited :" dataDxfId="73" totalsRowDxfId="10"/>
-    <tableColumn id="21" name="h_id" dataDxfId="72" totalsRowDxfId="9">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="75" totalsRowDxfId="12"/>
+    <tableColumn id="15" name="edited :" dataDxfId="74" totalsRowDxfId="11"/>
+    <tableColumn id="21" name="h_id" dataDxfId="73" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="71" totalsRowDxfId="8">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="72" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="70" totalsRowDxfId="7">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="71" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="h_disc 1" dataDxfId="69" totalsRowDxfId="6">
+    <tableColumn id="31" name="h_disc 1" dataDxfId="70" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="h_disc 2" dataDxfId="68" totalsRowDxfId="5">
+    <tableColumn id="30" name="h_disc 2" dataDxfId="69" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="67" totalsRowDxfId="4">
+    <tableColumn id="25" name="h_diskon" dataDxfId="68" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="66" totalsRowDxfId="3">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="67" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="65" totalsRowDxfId="2">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="66" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="64" totalsRowDxfId="1"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="63" totalsRowDxfId="0">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="65" totalsRowDxfId="2"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="64" totalsRowDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14525,74 +14576,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="60">
   <autoFilter ref="C4:O57"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="58">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="59">
       <calculatedColumnFormula>IF(ROW()-(COUNTBLANK($C$1:$C$3)+1)&lt;=jNota,A5,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="57">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="58">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="56">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="57">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="55">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="56">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="54">
+    <tableColumn id="5" name="Toko" dataDxfId="55">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="43">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="44">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="42">
+    <tableColumn id="15" name="edited" dataDxfId="43">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="4" dataDxfId="41"/>
+    <tableColumn id="12" name="4" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="Q4:W57"/>
   <tableColumns count="7">
-    <tableColumn id="8" name="AM" dataDxfId="39">
+    <tableColumn id="8" name="AM" dataDxfId="40">
       <calculatedColumnFormula>Table4[[#Headers],[AM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="---" dataDxfId="38">
+    <tableColumn id="2" name="---" dataDxfId="39">
       <calculatedColumnFormula>R$3+ROW()-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No. Invoice :" dataDxfId="37">
+    <tableColumn id="7" name="No. Invoice :" dataDxfId="38">
       <calculatedColumnFormula>IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kode Sales :" dataDxfId="36">
+    <tableColumn id="9" name="Kode Sales :" dataDxfId="37">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="35">
+    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="36">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total Invoice" dataDxfId="34">
+    <tableColumn id="4" name="Total Invoice" dataDxfId="35">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pembuat nota" dataDxfId="33">
+    <tableColumn id="3" name="pembuat nota" dataDxfId="34">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14611,7 +14662,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="32">
+    <tableColumn id="5" name="e" dataDxfId="33">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14909,8 +14960,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView topLeftCell="C160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T174" sqref="T174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14929,7 +14980,7 @@
     <col min="12" max="12" width="4.85546875" style="281" customWidth="1"/>
     <col min="13" max="13" width="3.140625" style="281" customWidth="1"/>
     <col min="14" max="14" width="24.42578125" style="281" customWidth="1"/>
-    <col min="15" max="15" width="37.140625" style="281" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.5703125" style="281" customWidth="1"/>
     <col min="16" max="16" width="52.42578125" style="281" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="281" customWidth="1"/>
     <col min="18" max="18" width="7.140625" style="284" customWidth="1"/>
@@ -30068,76 +30119,107 @@
       </c>
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A170" s="288" t="str">
+      <c r="A170" s="288">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B170" s="288" t="str">
+        <v>170</v>
+      </c>
+      <c r="B170" s="288">
         <f ca="1">IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C170" s="282" t="str">
+        <v>23070043</v>
+      </c>
+      <c r="C170" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45138</v>
+      </c>
+      <c r="D170" s="293">
+        <v>31</v>
+      </c>
+      <c r="E170" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="F170" s="283" t="s">
+        <v>371</v>
+      </c>
+      <c r="G170" s="281" t="s">
+        <v>91</v>
       </c>
       <c r="H170" s="288" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070043</v>
       </c>
       <c r="I170" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 2379</v>
       </c>
       <c r="J170" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV  WISUDA PURWOKERTO</v>
+      </c>
+      <c r="K170" s="281">
+        <v>10</v>
+      </c>
+      <c r="L170" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="N170" s="281" t="s">
+        <v>333</v>
       </c>
       <c r="O170" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q170" s="284"/>
-      <c r="R170" s="285"/>
-      <c r="T170" s="284" t="str">
+        <v>ISI CUTTER 9 MM KENKO A-100 (KECIL)</v>
+      </c>
+      <c r="P170" s="281" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q170" s="284">
+        <v>32400</v>
+      </c>
+      <c r="R170" s="285">
+        <v>0.1</v>
+      </c>
+      <c r="T170" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W170" s="288" t="str">
+        <v>291600</v>
+      </c>
+      <c r="U170" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W170" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X170" s="288" t="str">
+        <v>170</v>
+      </c>
+      <c r="X170" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y170" s="284" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y170" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z170" s="284" t="str">
+        <v>324000</v>
+      </c>
+      <c r="Z170" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA170" s="284" t="str">
+        <v>32400</v>
+      </c>
+      <c r="AA170" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB170" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB170" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC170" s="284" t="str">
+        <v>32400</v>
+      </c>
+      <c r="AC170" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD170" s="284" t="str">
+        <v>291600</v>
+      </c>
+      <c r="AD170" s="284">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>727200</v>
       </c>
       <c r="AE170" s="284"/>
       <c r="AF170" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>ISI CUTTER 9 MM KENKO A-100 (KECIL)LSN32400</v>
       </c>
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.25">
@@ -30165,43 +30247,55 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="O171" s="288" t="str">
-        <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q171" s="284"/>
-      <c r="R171" s="285"/>
-      <c r="T171" s="284" t="str">
+      <c r="K171" s="281">
+        <v>100</v>
+      </c>
+      <c r="L171" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="O171" s="288" t="s">
+        <v>372</v>
+      </c>
+      <c r="P171" s="281" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q171" s="284">
+        <v>3700</v>
+      </c>
+      <c r="R171" s="285">
+        <v>0.1</v>
+      </c>
+      <c r="T171" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W171" s="288" t="str">
+        <v>333000</v>
+      </c>
+      <c r="W171" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X171" s="288" t="str">
+        <v>170</v>
+      </c>
+      <c r="X171" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y171" s="284" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y171" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z171" s="284" t="str">
+        <v>370000</v>
+      </c>
+      <c r="Z171" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA171" s="284" t="str">
+        <v>37000</v>
+      </c>
+      <c r="AA171" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB171" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB171" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC171" s="284" t="str">
+        <v>37000</v>
+      </c>
+      <c r="AC171" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>333000</v>
       </c>
       <c r="AD171" s="284" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -30210,7 +30304,7 @@
       <c r="AE171" s="284"/>
       <c r="AF171" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>HIGHLIGHTER / STABILLO JOYKO HL-MIX PINK / ORANGEPCS3700</v>
       </c>
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.25">
@@ -30238,43 +30332,59 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K172" s="281">
+        <v>2</v>
+      </c>
+      <c r="L172" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="N172" s="281" t="s">
+        <v>305</v>
+      </c>
       <c r="O172" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q172" s="284"/>
-      <c r="R172" s="285"/>
-      <c r="T172" s="284" t="str">
+        <v>CUTTER 9 MM KENKO A-300 (KECIL)</v>
+      </c>
+      <c r="P172" s="281" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q172" s="284">
+        <v>57000</v>
+      </c>
+      <c r="R172" s="285">
+        <v>0.1</v>
+      </c>
+      <c r="T172" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W172" s="288" t="str">
+        <v>102600</v>
+      </c>
+      <c r="W172" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X172" s="288" t="str">
+        <v>170</v>
+      </c>
+      <c r="X172" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y172" s="284" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y172" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z172" s="284" t="str">
+        <v>114000</v>
+      </c>
+      <c r="Z172" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA172" s="284" t="str">
+        <v>11400</v>
+      </c>
+      <c r="AA172" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB172" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB172" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC172" s="284" t="str">
+        <v>11400</v>
+      </c>
+      <c r="AC172" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>102600</v>
       </c>
       <c r="AD172" s="284" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -30283,7 +30393,7 @@
       <c r="AE172" s="284"/>
       <c r="AF172" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CUTTER 9 MM KENKO A-300 (KECIL)LSN57000</v>
       </c>
     </row>
     <row r="173" spans="1:32" x14ac:dyDescent="0.25">
@@ -30360,76 +30470,110 @@
       </c>
     </row>
     <row r="174" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A174" s="288" t="str">
+      <c r="A174" s="288">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B174" s="288" t="str">
+        <v>174</v>
+      </c>
+      <c r="B174" s="288">
         <f ca="1">IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C174" s="282" t="str">
+        <v>23070044</v>
+      </c>
+      <c r="C174" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45138</v>
+      </c>
+      <c r="D174" s="293">
+        <v>31</v>
+      </c>
+      <c r="E174" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="F174" s="283" t="s">
+        <v>373</v>
+      </c>
+      <c r="G174" s="281" t="s">
+        <v>84</v>
       </c>
       <c r="H174" s="288" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23070044</v>
       </c>
       <c r="I174" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 1816</v>
       </c>
       <c r="J174" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="K174" s="281">
+        <v>288</v>
+      </c>
+      <c r="L174" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M174" s="281">
+        <v>2</v>
+      </c>
+      <c r="N174" s="281" t="s">
+        <v>303</v>
       </c>
       <c r="O174" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q174" s="284"/>
-      <c r="R174" s="285"/>
-      <c r="T174" s="284" t="str">
+        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
+      </c>
+      <c r="P174" s="281" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q174" s="284">
+        <v>12600</v>
+      </c>
+      <c r="R174" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T174" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W174" s="288" t="str">
+        <v>3138912</v>
+      </c>
+      <c r="U174" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W174" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X174" s="288" t="str">
+        <v>174</v>
+      </c>
+      <c r="X174" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y174" s="284" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y174" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z174" s="284" t="str">
+        <v>3628800</v>
+      </c>
+      <c r="Z174" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA174" s="284" t="str">
+        <v>489888.00000000006</v>
+      </c>
+      <c r="AA174" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB174" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB174" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC174" s="284" t="str">
+        <v>489888.00000000006</v>
+      </c>
+      <c r="AC174" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD174" s="284" t="str">
+        <v>3138912</v>
+      </c>
+      <c r="AD174" s="284">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>3138912</v>
       </c>
       <c r="AE174" s="284"/>
       <c r="AF174" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>BALLPEN JOYKO BP-338 VOCUS HITAMLSN12600</v>
       </c>
     </row>
     <row r="175" spans="1:32" x14ac:dyDescent="0.25">
@@ -36929,22 +37073,38 @@
       </c>
     </row>
     <row r="264" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A264" s="288"/>
-      <c r="B264" s="288"/>
-      <c r="H264" s="288"/>
-      <c r="I264" s="289"/>
-      <c r="J264" s="288"/>
-      <c r="O264" s="288"/>
-      <c r="Q264" s="284"/>
-      <c r="R264" s="285"/>
-      <c r="T264" s="284"/>
-      <c r="W264" s="288"/>
-      <c r="X264" s="288"/>
-      <c r="Y264" s="284"/>
-      <c r="Z264" s="284"/>
-      <c r="AA264" s="284"/>
-      <c r="AE264" s="284"/>
-      <c r="AF264" s="284"/>
+      <c r="A264" s="298"/>
+      <c r="B264" s="298"/>
+      <c r="C264" s="299"/>
+      <c r="D264" s="300"/>
+      <c r="E264" s="301"/>
+      <c r="F264" s="302"/>
+      <c r="G264" s="301"/>
+      <c r="H264" s="298"/>
+      <c r="I264" s="303"/>
+      <c r="J264" s="298"/>
+      <c r="K264" s="301"/>
+      <c r="L264" s="301"/>
+      <c r="M264" s="301"/>
+      <c r="N264" s="301"/>
+      <c r="O264" s="298"/>
+      <c r="P264" s="301"/>
+      <c r="Q264" s="304"/>
+      <c r="R264" s="305"/>
+      <c r="S264" s="305"/>
+      <c r="T264" s="304"/>
+      <c r="U264" s="304"/>
+      <c r="V264" s="301"/>
+      <c r="W264" s="298"/>
+      <c r="X264" s="298"/>
+      <c r="Y264" s="304"/>
+      <c r="Z264" s="304"/>
+      <c r="AA264" s="304"/>
+      <c r="AB264" s="304"/>
+      <c r="AC264" s="304"/>
+      <c r="AD264" s="304"/>
+      <c r="AE264" s="304"/>
+      <c r="AF264" s="304"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36960,8 +37120,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37029,7 +37189,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D3">
         <f ca="1">COUNT(Table1[//])</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="295" t="str">
         <f>"["&amp;G2&amp;".xlsx]Invoice"</f>
@@ -37139,7 +37299,7 @@
       </c>
       <c r="Z4" s="279">
         <f ca="1">SUM(pajak[Total Invoice])</f>
-        <v>412142795.5</v>
+        <v>416008907.5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -37228,7 +37388,7 @@
       </c>
       <c r="Z5" s="87">
         <f ca="1">SUM(pajak[PPN 11%])</f>
-        <v>40842979.734234221</v>
+        <v>41226107.950450435</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -37314,7 +37474,7 @@
       </c>
       <c r="Z6" s="87">
         <f ca="1">(Z4/1.11)*11%</f>
-        <v>40842979.734234229</v>
+        <v>41226107.95045045</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -40600,50 +40760,52 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="292"/>
-      <c r="C47" s="85" t="str">
+      <c r="A47" s="292">
+        <v>170</v>
+      </c>
+      <c r="C47" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>170</v>
       </c>
       <c r="D47" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E47" s="88" t="str">
+        <v>AM 23070043</v>
+      </c>
+      <c r="E47" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45138</v>
       </c>
       <c r="F47" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 2379</v>
       </c>
       <c r="G47" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H47" s="87" t="str">
+        <v>CV  WISUDA PURWOKERTO</v>
+      </c>
+      <c r="H47" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I47" s="87" t="str">
+        <v>808000</v>
+      </c>
+      <c r="I47" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J47" s="87" t="str">
+        <v>80800</v>
+      </c>
+      <c r="J47" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K47" s="87" t="str">
+        <v>727200</v>
+      </c>
+      <c r="K47" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L47" s="87" t="str">
+        <v>72064.864864864852</v>
+      </c>
+      <c r="L47" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>727200</v>
       </c>
       <c r="M47" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N47" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -40658,9 +40820,9 @@
         <f t="shared" si="3"/>
         <v>23070043</v>
       </c>
-      <c r="S47" s="184" t="b">
+      <c r="S47" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="T47" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -40680,52 +40842,52 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="292" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="85" t="str">
+      <c r="A48" s="292">
+        <v>174</v>
+      </c>
+      <c r="C48" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>174</v>
       </c>
       <c r="D48" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E48" s="88" t="str">
+        <v>AM 23070044</v>
+      </c>
+      <c r="E48" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45138</v>
       </c>
       <c r="F48" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 1816</v>
       </c>
       <c r="G48" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H48" s="87" t="str">
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="H48" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I48" s="87" t="str">
+        <v>3628800</v>
+      </c>
+      <c r="I48" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J48" s="87" t="str">
+        <v>489888.00000000006</v>
+      </c>
+      <c r="J48" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K48" s="87" t="str">
+        <v>3138912</v>
+      </c>
+      <c r="K48" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L48" s="87" t="str">
+        <v>311063.35135135136</v>
+      </c>
+      <c r="L48" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>3138912</v>
       </c>
       <c r="M48" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N48" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -40740,9 +40902,9 @@
         <f t="shared" si="3"/>
         <v>23070044</v>
       </c>
-      <c r="S48" s="184" t="b">
+      <c r="S48" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="T48" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -40761,7 +40923,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="292"/>
       <c r="C49" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -40840,7 +41003,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="292" t="s">
+        <v>55</v>
+      </c>
       <c r="C50" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -40919,7 +41085,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C51" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -40998,7 +41164,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C52" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -41077,7 +41243,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C53" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -41156,7 +41322,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C54" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -41235,7 +41401,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C55" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -41314,7 +41480,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C56" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -41393,7 +41559,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C57" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -41472,30 +41638,30 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>51</v>
       </c>
       <c r="E58"/>
       <c r="H58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total])</f>
-        <v>470032600</v>
+        <v>474469400</v>
       </c>
       <c r="I58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Diskon])</f>
-        <v>57889804.5</v>
+        <v>58460492.5</v>
       </c>
       <c r="J58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>412142795.5</v>
+        <v>416008907.5</v>
       </c>
       <c r="K58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>40842979.734234221</v>
+        <v>41226107.950450435</v>
       </c>
       <c r="L58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>412142795.5</v>
+        <v>416008907.5</v>
       </c>
       <c r="M58"/>
       <c r="N58"/>
@@ -41503,10 +41669,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F59:F1048576 F3:F57">
-    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:W2 S4:W1048576">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41524,8 +41690,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:K37"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -41545,7 +41711,7 @@
     <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -41559,19 +41725,19 @@
       </c>
       <c r="E1" t="str">
         <f ca="1">INDEX(Table1[h_toko],newestIdRow-offset)</f>
-        <v>REJOAGUNG</v>
+        <v>ANUGERAH</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
       </c>
       <c r="G1">
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
-        <v>3</v>
-      </c>
-      <c r="I1" s="345" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="306" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="345"/>
+      <c r="J1" s="306"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -41595,18 +41761,18 @@
       </c>
       <c r="E3" s="8">
         <f ca="1">INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23070042</v>
+        <v>23070044</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="352" t="str">
+      <c r="H3" s="313" t="str">
         <f ca="1">INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
-        <v>LILY JULIAWATI</v>
-      </c>
-      <c r="I3" s="352"/>
-      <c r="J3" s="352"/>
-      <c r="K3" s="353"/>
+        <v>CV PELITA JAYA</v>
+      </c>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="314"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41615,14 +41781,14 @@
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="323" t="s">
+      <c r="F4" s="317" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="354"/>
-      <c r="I4" s="354"/>
-      <c r="J4" s="354"/>
-      <c r="K4" s="355"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="315"/>
+      <c r="J4" s="315"/>
+      <c r="K4" s="316"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41631,20 +41797,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="324">
+      <c r="D5" s="318">
         <f ca="1">INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
-        <v>45136</v>
-      </c>
-      <c r="E5" s="325"/>
-      <c r="F5" s="323"/>
+        <v>45138</v>
+      </c>
+      <c r="E5" s="319"/>
+      <c r="F5" s="317"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="326" t="str">
+      <c r="H5" s="320" t="str">
         <f ca="1">IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
-        <v>(REJO AGUNG)</v>
-      </c>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="327"/>
+        <v>(ANUGERAH SEJAHTERA)</v>
+      </c>
+      <c r="I5" s="320"/>
+      <c r="J5" s="320"/>
+      <c r="K5" s="321"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41653,15 +41819,15 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="323"/>
+      <c r="F6" s="317"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="328" t="str">
+      <c r="H6" s="322" t="str">
         <f ca="1">INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
-        <v>JOMBANG</v>
-      </c>
-      <c r="I6" s="328"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="329"/>
+        <v>PURWOKERTO</v>
+      </c>
+      <c r="I6" s="322"/>
+      <c r="J6" s="322"/>
+      <c r="K6" s="323"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -41672,15 +41838,15 @@
       <c r="C7" s="7"/>
       <c r="D7" s="19" t="str">
         <f ca="1">INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>G 2686</v>
+        <v>KO 1816</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="330"/>
-      <c r="J7" s="330"/>
-      <c r="K7" s="331"/>
+      <c r="H7" s="324"/>
+      <c r="I7" s="324"/>
+      <c r="J7" s="324"/>
+      <c r="K7" s="325"/>
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -41747,25 +41913,25 @@
       </c>
       <c r="C11" s="45" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A11-1))</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="D11" s="46">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="47" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>PENCIL CASE JOYKO PC-0719 FANCY</v>
+        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="H11" s="50">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>4800</v>
+        <v>12600</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)))</f>
-        <v>0.125</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J11" s="51" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)))</f>
@@ -41773,7 +41939,7 @@
       </c>
       <c r="K11" s="52">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>1209600</v>
+        <v>3138912</v>
       </c>
       <c r="L11" s="35"/>
     </row>
@@ -41781,39 +41947,39 @@
       <c r="A12" s="44">
         <v>2</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="45" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A12-1))</f>
-        <v>216</v>
+        <v/>
       </c>
       <c r="C12" s="45" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A12-1))</f>
-        <v>PCS</v>
-      </c>
-      <c r="D12" s="46">
+        <v/>
+      </c>
+      <c r="D12" s="46" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A12-1)="","",INDEX(Table1[C],newestIdRow-offset+A12-1)))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="E12" s="47" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A12-1))</f>
-        <v>BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC)</v>
+        <v/>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="49"/>
-      <c r="H12" s="50">
+      <c r="H12" s="50" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A12-1))</f>
-        <v>15800</v>
-      </c>
-      <c r="I12" s="51">
+        <v/>
+      </c>
+      <c r="I12" s="51" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J12" s="51" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)))</f>
         <v/>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="52" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A12-1))</f>
-        <v>2986200</v>
+        <v/>
       </c>
       <c r="L12" s="35"/>
     </row>
@@ -41821,39 +41987,39 @@
       <c r="A13" s="44">
         <v>3</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="45" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A13-1))</f>
-        <v>288</v>
+        <v/>
       </c>
       <c r="C13" s="45" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A13-1))</f>
-        <v>LSN</v>
-      </c>
-      <c r="D13" s="46">
+        <v/>
+      </c>
+      <c r="D13" s="46" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A13-1)="","",INDEX(Table1[C],newestIdRow-offset+A13-1)))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="E13" s="47" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A13-1))</f>
-        <v>ISI PENSIL 2B 2.0 MM JOYKO PL-10</v>
+        <v/>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="49"/>
-      <c r="H13" s="50">
+      <c r="H13" s="50" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A13-1))</f>
-        <v>19800</v>
-      </c>
-      <c r="I13" s="51">
+        <v/>
+      </c>
+      <c r="I13" s="51" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A13-1)))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J13" s="51" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)))</f>
         <v/>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="52" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A13-1))</f>
-        <v>4989600</v>
+        <v/>
       </c>
       <c r="L13" s="35"/>
     </row>
@@ -42401,8 +42567,8 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="351"/>
-      <c r="K28" s="351"/>
+      <c r="J28" s="312"/>
+      <c r="K28" s="312"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -42412,11 +42578,11 @@
       <c r="I29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="348">
+      <c r="J29" s="309">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>9185400</v>
-      </c>
-      <c r="K29" s="349"/>
+        <v>3138912</v>
+      </c>
+      <c r="K29" s="310"/>
       <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42425,8 +42591,8 @@
       <c r="C30" s="65"/>
       <c r="D30" s="24"/>
       <c r="I30" s="67"/>
-      <c r="J30" s="350"/>
-      <c r="K30" s="350"/>
+      <c r="J30" s="311"/>
+      <c r="K30" s="311"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -42449,8 +42615,8 @@
       <c r="C32" s="65"/>
       <c r="D32" s="24"/>
       <c r="I32" s="67"/>
-      <c r="J32" s="351"/>
-      <c r="K32" s="351"/>
+      <c r="J32" s="312"/>
+      <c r="K32" s="312"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -42465,11 +42631,11 @@
       <c r="I33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="348">
+      <c r="J33" s="309">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>910264.86486486485</v>
-      </c>
-      <c r="K33" s="349"/>
+        <v>311063.35135135136</v>
+      </c>
+      <c r="K33" s="310"/>
       <c r="L33" s="72"/>
     </row>
     <row r="34" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42478,8 +42644,8 @@
       <c r="C34" s="65"/>
       <c r="D34" s="24"/>
       <c r="I34" s="67"/>
-      <c r="J34" s="351"/>
-      <c r="K34" s="351"/>
+      <c r="J34" s="312"/>
+      <c r="K34" s="312"/>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -42493,7 +42659,7 @@
       <c r="J35" s="75"/>
       <c r="K35" s="76">
         <f ca="1">INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>9185400</v>
+        <v>3138912</v>
       </c>
       <c r="L35" s="72"/>
     </row>
@@ -42520,11 +42686,11 @@
       <c r="I37" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="346" t="str">
+      <c r="J37" s="307" t="str">
         <f ca="1">INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K37" s="347"/>
+      <c r="K37" s="308"/>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77"/>
@@ -42534,11 +42700,11 @@
       <c r="I38" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="346" t="str">
+      <c r="J38" s="307" t="str">
         <f ca="1">INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="347"/>
+      <c r="K38" s="308"/>
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42577,19 +42743,19 @@
       </c>
       <c r="E41" s="194">
         <f ca="1">E3</f>
-        <v>23070042</v>
+        <v>23070044</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="332" t="str">
+      <c r="H41" s="326" t="str">
         <f ca="1">H3</f>
-        <v>LILY JULIAWATI</v>
-      </c>
-      <c r="I41" s="332"/>
-      <c r="J41" s="332"/>
-      <c r="K41" s="333"/>
+        <v>CV PELITA JAYA</v>
+      </c>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="327"/>
       <c r="L41" s="197"/>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42598,14 +42764,14 @@
       <c r="C42" s="199"/>
       <c r="D42" s="200"/>
       <c r="E42" s="201"/>
-      <c r="F42" s="336" t="s">
+      <c r="F42" s="330" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="202"/>
-      <c r="H42" s="334"/>
-      <c r="I42" s="334"/>
-      <c r="J42" s="334"/>
-      <c r="K42" s="335"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="329"/>
       <c r="L42" s="197"/>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42614,20 +42780,20 @@
         <v>2</v>
       </c>
       <c r="C43" s="192"/>
-      <c r="D43" s="337">
+      <c r="D43" s="331">
         <f ca="1">D5</f>
-        <v>45136</v>
-      </c>
-      <c r="E43" s="338"/>
-      <c r="F43" s="336"/>
+        <v>45138</v>
+      </c>
+      <c r="E43" s="332"/>
+      <c r="F43" s="330"/>
       <c r="G43" s="203"/>
-      <c r="H43" s="339" t="str">
+      <c r="H43" s="333" t="str">
         <f ca="1">H5</f>
-        <v>(REJO AGUNG)</v>
-      </c>
-      <c r="I43" s="339"/>
-      <c r="J43" s="339"/>
-      <c r="K43" s="340"/>
+        <v>(ANUGERAH SEJAHTERA)</v>
+      </c>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
+      <c r="K43" s="334"/>
       <c r="L43" s="204"/>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42636,15 +42802,15 @@
       <c r="C44" s="199"/>
       <c r="D44" s="200"/>
       <c r="E44" s="201"/>
-      <c r="F44" s="336"/>
+      <c r="F44" s="330"/>
       <c r="G44" s="203"/>
-      <c r="H44" s="341" t="str">
+      <c r="H44" s="335" t="str">
         <f ca="1">H6</f>
-        <v>JOMBANG</v>
-      </c>
-      <c r="I44" s="341"/>
-      <c r="J44" s="341"/>
-      <c r="K44" s="342"/>
+        <v>PURWOKERTO</v>
+      </c>
+      <c r="I44" s="335"/>
+      <c r="J44" s="335"/>
+      <c r="K44" s="336"/>
       <c r="L44" s="205"/>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -42655,15 +42821,15 @@
       <c r="C45" s="192"/>
       <c r="D45" s="206" t="str">
         <f ca="1">D7</f>
-        <v>G 2686</v>
+        <v>KO 1816</v>
       </c>
       <c r="E45" s="194"/>
       <c r="F45" s="207"/>
       <c r="G45" s="208"/>
-      <c r="H45" s="343"/>
-      <c r="I45" s="343"/>
-      <c r="J45" s="343"/>
-      <c r="K45" s="344"/>
+      <c r="H45" s="337"/>
+      <c r="I45" s="337"/>
+      <c r="J45" s="337"/>
+      <c r="K45" s="338"/>
       <c r="L45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -42734,25 +42900,25 @@
       </c>
       <c r="C49" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="D49" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PENCIL CASE JOYKO PC-0719 FANCY</v>
+        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
       </c>
       <c r="F49" s="237"/>
       <c r="G49" s="238"/>
       <c r="H49" s="239">
         <f t="shared" ref="H49:K64" ca="1" si="1">H11</f>
-        <v>4800</v>
+        <v>12600</v>
       </c>
       <c r="I49" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.125</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J49" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -42760,7 +42926,7 @@
       </c>
       <c r="K49" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>1209600</v>
+        <v>3138912</v>
       </c>
       <c r="L49" s="223"/>
     </row>
@@ -42768,39 +42934,39 @@
       <c r="A50" s="232">
         <v>2</v>
       </c>
-      <c r="B50" s="233">
+      <c r="B50" s="233" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v/>
       </c>
       <c r="C50" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PCS</v>
-      </c>
-      <c r="D50" s="235">
+        <v/>
+      </c>
+      <c r="D50" s="235" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="E50" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC)</v>
+        <v/>
       </c>
       <c r="F50" s="237"/>
       <c r="G50" s="238"/>
-      <c r="H50" s="239">
+      <c r="H50" s="239" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>15800</v>
-      </c>
-      <c r="I50" s="240">
+        <v/>
+      </c>
+      <c r="I50" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J50" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K50" s="241">
+      <c r="K50" s="241" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2986200</v>
+        <v/>
       </c>
       <c r="L50" s="223"/>
     </row>
@@ -42808,39 +42974,39 @@
       <c r="A51" s="232">
         <v>3</v>
       </c>
-      <c r="B51" s="233">
+      <c r="B51" s="233" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>288</v>
+        <v/>
       </c>
       <c r="C51" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LSN</v>
-      </c>
-      <c r="D51" s="235">
+        <v/>
+      </c>
+      <c r="D51" s="235" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="E51" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ISI PENSIL 2B 2.0 MM JOYKO PL-10</v>
+        <v/>
       </c>
       <c r="F51" s="237"/>
       <c r="G51" s="238"/>
-      <c r="H51" s="239">
+      <c r="H51" s="239" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>19800</v>
-      </c>
-      <c r="I51" s="240">
+        <v/>
+      </c>
+      <c r="I51" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J51" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K51" s="241">
+      <c r="K51" s="241" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4989600</v>
+        <v/>
       </c>
       <c r="L51" s="223"/>
     </row>
@@ -43388,8 +43554,8 @@
       <c r="G66" s="252"/>
       <c r="H66" s="252"/>
       <c r="I66" s="253"/>
-      <c r="J66" s="312"/>
-      <c r="K66" s="312"/>
+      <c r="J66" s="339"/>
+      <c r="K66" s="339"/>
       <c r="L66" s="215"/>
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43404,11 +43570,11 @@
       <c r="I67" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="320">
+      <c r="J67" s="340">
         <f ca="1">J29</f>
-        <v>9185400</v>
-      </c>
-      <c r="K67" s="321"/>
+        <v>3138912</v>
+      </c>
+      <c r="K67" s="341"/>
       <c r="L67" s="223"/>
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43421,8 +43587,8 @@
       <c r="G68" s="212"/>
       <c r="H68" s="212"/>
       <c r="I68" s="256"/>
-      <c r="J68" s="322"/>
-      <c r="K68" s="322"/>
+      <c r="J68" s="342"/>
+      <c r="K68" s="342"/>
       <c r="L68" s="215"/>
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43457,8 +43623,8 @@
       <c r="G70" s="212"/>
       <c r="H70" s="212"/>
       <c r="I70" s="256"/>
-      <c r="J70" s="312"/>
-      <c r="K70" s="312"/>
+      <c r="J70" s="339"/>
+      <c r="K70" s="339"/>
       <c r="L70" s="215"/>
     </row>
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43477,11 +43643,11 @@
       <c r="I71" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="320">
+      <c r="J71" s="340">
         <f ca="1">J33</f>
-        <v>910264.86486486485</v>
-      </c>
-      <c r="K71" s="321"/>
+        <v>311063.35135135136</v>
+      </c>
+      <c r="K71" s="341"/>
       <c r="L71" s="261"/>
     </row>
     <row r="72" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43494,8 +43660,8 @@
       <c r="G72" s="212"/>
       <c r="H72" s="212"/>
       <c r="I72" s="256"/>
-      <c r="J72" s="312"/>
-      <c r="K72" s="312"/>
+      <c r="J72" s="339"/>
+      <c r="K72" s="339"/>
       <c r="L72" s="215"/>
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43513,7 +43679,7 @@
       <c r="J73" s="264"/>
       <c r="K73" s="265">
         <f ca="1">K35</f>
-        <v>9185400</v>
+        <v>3138912</v>
       </c>
       <c r="L73" s="261"/>
     </row>
@@ -43545,11 +43711,11 @@
       <c r="I75" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="313" t="str">
+      <c r="J75" s="343" t="str">
         <f ca="1">J37</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K75" s="314"/>
+      <c r="K75" s="344"/>
       <c r="L75" s="215"/>
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -43564,11 +43730,11 @@
       <c r="I76" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="313" t="str">
+      <c r="J76" s="343" t="str">
         <f ca="1">J38</f>
         <v/>
       </c>
-      <c r="K76" s="314"/>
+      <c r="K76" s="344"/>
       <c r="L76" s="269"/>
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -43611,19 +43777,19 @@
       </c>
       <c r="E79" s="99">
         <f ca="1">E41</f>
-        <v>23070042</v>
+        <v>23070044</v>
       </c>
       <c r="F79" s="100"/>
       <c r="G79" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="315" t="str">
+      <c r="H79" s="345" t="str">
         <f ca="1">H41</f>
-        <v>LILY JULIAWATI</v>
-      </c>
-      <c r="I79" s="315"/>
-      <c r="J79" s="315"/>
-      <c r="K79" s="316"/>
+        <v>CV PELITA JAYA</v>
+      </c>
+      <c r="I79" s="345"/>
+      <c r="J79" s="345"/>
+      <c r="K79" s="346"/>
       <c r="L79" s="102"/>
     </row>
     <row r="80" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43632,14 +43798,14 @@
       <c r="C80" s="104"/>
       <c r="D80" s="105"/>
       <c r="E80" s="106"/>
-      <c r="F80" s="319" t="s">
+      <c r="F80" s="349" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="107"/>
-      <c r="H80" s="317"/>
-      <c r="I80" s="317"/>
-      <c r="J80" s="317"/>
-      <c r="K80" s="318"/>
+      <c r="H80" s="347"/>
+      <c r="I80" s="347"/>
+      <c r="J80" s="347"/>
+      <c r="K80" s="348"/>
       <c r="L80" s="102"/>
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43648,20 +43814,20 @@
         <v>2</v>
       </c>
       <c r="C81" s="97"/>
-      <c r="D81" s="304">
+      <c r="D81" s="350">
         <f ca="1">D43</f>
-        <v>45136</v>
-      </c>
-      <c r="E81" s="305"/>
-      <c r="F81" s="319"/>
+        <v>45138</v>
+      </c>
+      <c r="E81" s="351"/>
+      <c r="F81" s="349"/>
       <c r="G81" s="108"/>
-      <c r="H81" s="306" t="str">
+      <c r="H81" s="352" t="str">
         <f ca="1">H43</f>
-        <v>(REJO AGUNG)</v>
-      </c>
-      <c r="I81" s="306"/>
-      <c r="J81" s="306"/>
-      <c r="K81" s="307"/>
+        <v>(ANUGERAH SEJAHTERA)</v>
+      </c>
+      <c r="I81" s="352"/>
+      <c r="J81" s="352"/>
+      <c r="K81" s="353"/>
       <c r="L81" s="109"/>
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43670,15 +43836,15 @@
       <c r="C82" s="104"/>
       <c r="D82" s="105"/>
       <c r="E82" s="106"/>
-      <c r="F82" s="319"/>
+      <c r="F82" s="349"/>
       <c r="G82" s="108"/>
-      <c r="H82" s="308" t="str">
+      <c r="H82" s="354" t="str">
         <f ca="1">H44</f>
-        <v>JOMBANG</v>
-      </c>
-      <c r="I82" s="308"/>
-      <c r="J82" s="308"/>
-      <c r="K82" s="309"/>
+        <v>PURWOKERTO</v>
+      </c>
+      <c r="I82" s="354"/>
+      <c r="J82" s="354"/>
+      <c r="K82" s="355"/>
       <c r="L82" s="110"/>
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -43689,15 +43855,15 @@
       <c r="C83" s="97"/>
       <c r="D83" s="111" t="str">
         <f ca="1">D45</f>
-        <v>G 2686</v>
+        <v>KO 1816</v>
       </c>
       <c r="E83" s="99"/>
       <c r="F83" s="112"/>
       <c r="G83" s="113"/>
-      <c r="H83" s="310"/>
-      <c r="I83" s="310"/>
-      <c r="J83" s="310"/>
-      <c r="K83" s="311"/>
+      <c r="H83" s="356"/>
+      <c r="I83" s="356"/>
+      <c r="J83" s="356"/>
+      <c r="K83" s="357"/>
       <c r="L83" s="110"/>
     </row>
     <row r="84" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -43768,25 +43934,25 @@
       </c>
       <c r="C87" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="D87" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PENCIL CASE JOYKO PC-0719 FANCY</v>
+        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
       </c>
       <c r="F87" s="142"/>
       <c r="G87" s="143"/>
       <c r="H87" s="144">
         <f t="shared" ref="H87:K102" ca="1" si="3">H49</f>
-        <v>4800</v>
+        <v>12600</v>
       </c>
       <c r="I87" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J87" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -43794,7 +43960,7 @@
       </c>
       <c r="K87" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>1209600</v>
+        <v>3138912</v>
       </c>
       <c r="L87" s="128"/>
     </row>
@@ -43802,39 +43968,39 @@
       <c r="A88" s="137">
         <v>2</v>
       </c>
-      <c r="B88" s="138">
+      <c r="B88" s="138" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <v/>
       </c>
       <c r="C88" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PCS</v>
-      </c>
-      <c r="D88" s="140">
+        <v/>
+      </c>
+      <c r="D88" s="140" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="E88" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC)</v>
+        <v/>
       </c>
       <c r="F88" s="142"/>
       <c r="G88" s="143"/>
-      <c r="H88" s="144">
+      <c r="H88" s="144" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>15800</v>
-      </c>
-      <c r="I88" s="145">
+        <v/>
+      </c>
+      <c r="I88" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J88" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K88" s="146">
+      <c r="K88" s="146" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2986200</v>
+        <v/>
       </c>
       <c r="L88" s="128"/>
     </row>
@@ -43842,39 +44008,39 @@
       <c r="A89" s="137">
         <v>3</v>
       </c>
-      <c r="B89" s="138">
+      <c r="B89" s="138" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>288</v>
+        <v/>
       </c>
       <c r="C89" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LSN</v>
-      </c>
-      <c r="D89" s="140">
+        <v/>
+      </c>
+      <c r="D89" s="140" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="E89" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ISI PENSIL 2B 2.0 MM JOYKO PL-10</v>
+        <v/>
       </c>
       <c r="F89" s="142"/>
       <c r="G89" s="143"/>
-      <c r="H89" s="144">
+      <c r="H89" s="144" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>19800</v>
-      </c>
-      <c r="I89" s="145">
+        <v/>
+      </c>
+      <c r="I89" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J89" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K89" s="146">
+      <c r="K89" s="146" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4989600</v>
+        <v/>
       </c>
       <c r="L89" s="128"/>
     </row>
@@ -44422,8 +44588,8 @@
       <c r="G104" s="157"/>
       <c r="H104" s="157"/>
       <c r="I104" s="158"/>
-      <c r="J104" s="301"/>
-      <c r="K104" s="301"/>
+      <c r="J104" s="358"/>
+      <c r="K104" s="358"/>
       <c r="L104" s="120"/>
     </row>
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44438,11 +44604,11 @@
       <c r="I105" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="302">
+      <c r="J105" s="359">
         <f ca="1">J67</f>
-        <v>9185400</v>
-      </c>
-      <c r="K105" s="303"/>
+        <v>3138912</v>
+      </c>
+      <c r="K105" s="360"/>
       <c r="L105" s="128"/>
     </row>
     <row r="106" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -44455,8 +44621,8 @@
       <c r="G106" s="117"/>
       <c r="H106" s="117"/>
       <c r="I106" s="161"/>
-      <c r="J106" s="300"/>
-      <c r="K106" s="300"/>
+      <c r="J106" s="363"/>
+      <c r="K106" s="363"/>
       <c r="L106" s="120"/>
     </row>
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44491,8 +44657,8 @@
       <c r="G108" s="117"/>
       <c r="H108" s="117"/>
       <c r="I108" s="161"/>
-      <c r="J108" s="301"/>
-      <c r="K108" s="301"/>
+      <c r="J108" s="358"/>
+      <c r="K108" s="358"/>
       <c r="L108" s="120"/>
     </row>
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44511,11 +44677,11 @@
       <c r="I109" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="302">
+      <c r="J109" s="359">
         <f ca="1">J71</f>
-        <v>910264.86486486485</v>
-      </c>
-      <c r="K109" s="303"/>
+        <v>311063.35135135136</v>
+      </c>
+      <c r="K109" s="360"/>
       <c r="L109" s="166"/>
     </row>
     <row r="110" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -44528,8 +44694,8 @@
       <c r="G110" s="117"/>
       <c r="H110" s="117"/>
       <c r="I110" s="161"/>
-      <c r="J110" s="301"/>
-      <c r="K110" s="301"/>
+      <c r="J110" s="358"/>
+      <c r="K110" s="358"/>
       <c r="L110" s="120"/>
     </row>
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44547,7 +44713,7 @@
       <c r="J111" s="169"/>
       <c r="K111" s="170">
         <f ca="1">K73</f>
-        <v>9185400</v>
+        <v>3138912</v>
       </c>
       <c r="L111" s="166"/>
     </row>
@@ -44579,11 +44745,11 @@
       <c r="I113" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="298" t="str">
+      <c r="J113" s="361" t="str">
         <f ca="1">J75</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K113" s="299"/>
+      <c r="K113" s="362"/>
       <c r="L113" s="120"/>
     </row>
     <row r="114" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44598,11 +44764,11 @@
       <c r="I114" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="298" t="str">
+      <c r="J114" s="361" t="str">
         <f ca="1">J76</f>
         <v/>
       </c>
-      <c r="K114" s="299"/>
+      <c r="K114" s="362"/>
       <c r="L114" s="174"/>
     </row>
     <row r="115" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44621,6 +44787,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K83"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="H79:K80"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H41:K42"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K45"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J29:K29"/>
@@ -44631,36 +44827,6 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="H3:K4"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H41:K42"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K45"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="H79:K80"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K83"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J113:K113"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="6.59375" header="0" footer="0"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/BARU/2023/07 JULI/KELUAR 07.xlsx
+++ b/BARU/2023/07 JULI/KELUAR 07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="18" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="375">
   <si>
     <t>Column1</t>
   </si>
@@ -1154,6 +1154,9 @@
   </si>
   <si>
     <t>1816</t>
+  </si>
+  <si>
+    <t>2393</t>
   </si>
 </sst>
 </file>
@@ -2540,10 +2543,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <font>
         <b val="0"/>
@@ -4345,7 +4345,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="totalRow" dxfId="99"/>
+      <tableStyleElement type="totalRow" dxfId="98"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5200,22 +5200,22 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45139.678916203702" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="261">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45146.452514236109" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="261">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="32">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="174" count="50">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="176" count="51">
         <n v="3"/>
         <s v=""/>
         <n v="6"/>
@@ -5261,6 +5261,7 @@
         <n v="166"/>
         <n v="170"/>
         <n v="174"/>
+        <n v="176"/>
         <n v="91" u="1"/>
         <n v="99" u="1"/>
         <n v="94" u="1"/>
@@ -5332,7 +5333,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="174"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="176"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
@@ -11255,38 +11256,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="45"/>
+    <n v="23070030"/>
+    <d v="2023-07-22T00:00:00"/>
+    <n v="22"/>
+    <s v="KO"/>
+    <s v="2393"/>
+    <s v="ANUGERAH"/>
+    <s v="AM 23070030"/>
+    <s v="KO 2393"/>
+    <s v="CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO"/>
+    <n v="72"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="TIPKENKE301"/>
+    <s v="CORRECTION FLUID KENKO KE-301"/>
+    <s v="CORRECTION FLUID KENKO KE-301"/>
+    <n v="53400"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="3364200"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="176"/>
+    <n v="1"/>
+    <n v="3844800"/>
+    <n v="480600"/>
+    <n v="0"/>
+    <n v="480600"/>
+    <n v="3364200"/>
+    <n v="3364200"/>
+    <m/>
+    <s v="CORRECTION FLUID KENKO KE-301LSN53400"/>
   </r>
   <r>
     <x v="1"/>
@@ -14250,11 +14251,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="51">
+      <items count="52">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
@@ -14280,15 +14281,15 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="45"/>
+        <item m="1" x="46"/>
         <item x="26"/>
+        <item m="1" x="48"/>
+        <item x="27"/>
+        <item m="1" x="49"/>
+        <item x="28"/>
         <item m="1" x="47"/>
-        <item x="27"/>
-        <item m="1" x="48"/>
-        <item x="28"/>
-        <item m="1" x="46"/>
         <item x="29"/>
-        <item m="1" x="49"/>
+        <item m="1" x="50"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -14304,6 +14305,7 @@
         <item x="42"/>
         <item x="43"/>
         <item x="44"/>
+        <item x="45"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -14343,7 +14345,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="46">
+  <rowItems count="47">
     <i>
       <x/>
     </i>
@@ -14479,6 +14481,9 @@
     <i>
       <x v="49"/>
     </i>
+    <i>
+      <x v="50"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14487,7 +14492,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="61">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -14501,73 +14506,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF264" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF264" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="95">
   <autoFilter ref="A2:AF263"/>
   <tableColumns count="32">
-    <tableColumn id="16" name="//" dataDxfId="95" totalsRowDxfId="32">
+    <tableColumn id="16" name="//" dataDxfId="94" totalsRowDxfId="31">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="94" totalsRowDxfId="31">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="93" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="93" totalsRowDxfId="30">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="92" totalsRowDxfId="29">
       <calculatedColumnFormula>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="H_TGL" dataDxfId="92" totalsRowDxfId="29"/>
-    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="91" totalsRowDxfId="28"/>
-    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="90" totalsRowDxfId="27"/>
-    <tableColumn id="20" name="h_toko" dataDxfId="89" totalsRowDxfId="26"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="88" totalsRowDxfId="25">
+    <tableColumn id="32" name="H_TGL" dataDxfId="91" totalsRowDxfId="28"/>
+    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="90" totalsRowDxfId="27"/>
+    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="89" totalsRowDxfId="26"/>
+    <tableColumn id="20" name="h_toko" dataDxfId="88" totalsRowDxfId="25"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="87" totalsRowDxfId="24">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="87" totalsRowDxfId="24">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="86" totalsRowDxfId="23">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="86" totalsRowDxfId="23">
+    <tableColumn id="4" name="Toko" dataDxfId="85" totalsRowDxfId="22">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="85" totalsRowDxfId="22"/>
-    <tableColumn id="6" name="Unit" dataDxfId="84" totalsRowDxfId="21"/>
-    <tableColumn id="7" name="C" dataDxfId="83" totalsRowDxfId="20"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="82" totalsRowDxfId="19"/>
-    <tableColumn id="10" name="Column1" dataDxfId="81" totalsRowDxfId="18">
+    <tableColumn id="5" name="Qty" dataDxfId="84" totalsRowDxfId="21"/>
+    <tableColumn id="6" name="Unit" dataDxfId="83" totalsRowDxfId="20"/>
+    <tableColumn id="7" name="C" dataDxfId="82" totalsRowDxfId="19"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="81" totalsRowDxfId="18"/>
+    <tableColumn id="10" name="Column1" dataDxfId="80" totalsRowDxfId="17">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="80" totalsRowDxfId="17"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="79" totalsRowDxfId="16"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="78" totalsRowDxfId="15"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="77" totalsRowDxfId="14"/>
-    <tableColumn id="23" name="Amount" dataDxfId="76" totalsRowDxfId="13">
+    <tableColumn id="9" name="Item Description" dataDxfId="79" totalsRowDxfId="16"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="78" totalsRowDxfId="15"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="77" totalsRowDxfId="14"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="76" totalsRowDxfId="13"/>
+    <tableColumn id="23" name="Amount" dataDxfId="75" totalsRowDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="75" totalsRowDxfId="12"/>
-    <tableColumn id="15" name="edited :" dataDxfId="74" totalsRowDxfId="11"/>
-    <tableColumn id="21" name="h_id" dataDxfId="73" totalsRowDxfId="10">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="74" totalsRowDxfId="11"/>
+    <tableColumn id="15" name="edited :" dataDxfId="73" totalsRowDxfId="10"/>
+    <tableColumn id="21" name="h_id" dataDxfId="72" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="72" totalsRowDxfId="9">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="71" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="71" totalsRowDxfId="8">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="70" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="h_disc 1" dataDxfId="70" totalsRowDxfId="7">
+    <tableColumn id="31" name="h_disc 1" dataDxfId="69" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="h_disc 2" dataDxfId="69" totalsRowDxfId="6">
+    <tableColumn id="30" name="h_disc 2" dataDxfId="68" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="68" totalsRowDxfId="5">
+    <tableColumn id="25" name="h_diskon" dataDxfId="67" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="67" totalsRowDxfId="4">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="66" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="66" totalsRowDxfId="3">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="65" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="65" totalsRowDxfId="2"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="64" totalsRowDxfId="1">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="64" totalsRowDxfId="1"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="63" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14576,74 +14581,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="C4:O58" totalsRowCount="1" headerRowDxfId="59">
   <autoFilter ref="C4:O57"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="59">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="58">
       <calculatedColumnFormula>IF(ROW()-(COUNTBLANK($C$1:$C$3)+1)&lt;=jNota,A5,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="58">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="57">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="57">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="56">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="56">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="55">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="55">
+    <tableColumn id="5" name="Toko" dataDxfId="54">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="44">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="43">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="43">
+    <tableColumn id="15" name="edited" dataDxfId="42">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="4" dataDxfId="42"/>
+    <tableColumn id="12" name="4" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q4:W57" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="Q4:W57"/>
   <tableColumns count="7">
-    <tableColumn id="8" name="AM" dataDxfId="40">
+    <tableColumn id="8" name="AM" dataDxfId="39">
       <calculatedColumnFormula>Table4[[#Headers],[AM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="---" dataDxfId="39">
+    <tableColumn id="2" name="---" dataDxfId="38">
       <calculatedColumnFormula>R$3+ROW()-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No. Invoice :" dataDxfId="38">
+    <tableColumn id="7" name="No. Invoice :" dataDxfId="37">
       <calculatedColumnFormula>IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kode Sales :" dataDxfId="37">
+    <tableColumn id="9" name="Kode Sales :" dataDxfId="36">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="36">
+    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="35">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total Invoice" dataDxfId="35">
+    <tableColumn id="4" name="Total Invoice" dataDxfId="34">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pembuat nota" dataDxfId="34">
+    <tableColumn id="3" name="pembuat nota" dataDxfId="33">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14662,7 +14667,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="33">
+    <tableColumn id="5" name="e" dataDxfId="32">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14960,8 +14965,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF264"/>
   <sheetViews>
-    <sheetView topLeftCell="C160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T174" sqref="T174"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R177" sqref="R177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30650,76 +30655,109 @@
       </c>
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A176" s="288" t="str">
-        <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B176" s="288" t="str">
-        <f ca="1">IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C176" s="282" t="str">
+      <c r="A176" s="288">
+        <f>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
+        <v>176</v>
+      </c>
+      <c r="B176" s="288">
+        <v>23070030</v>
+      </c>
+      <c r="C176" s="282">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45129</v>
+      </c>
+      <c r="D176" s="293">
+        <v>22</v>
+      </c>
+      <c r="E176" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="F176" s="283" t="s">
+        <v>374</v>
+      </c>
+      <c r="G176" s="281" t="s">
+        <v>84</v>
       </c>
       <c r="H176" s="288" t="str">
-        <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
+        <v>AM 23070030</v>
       </c>
       <c r="I176" s="289" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 2393</v>
       </c>
       <c r="J176" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="K176" s="281">
+        <v>72</v>
+      </c>
+      <c r="L176" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="M176" s="281">
+        <v>1</v>
+      </c>
+      <c r="N176" s="281" t="s">
+        <v>335</v>
       </c>
       <c r="O176" s="288" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q176" s="284"/>
-      <c r="R176" s="285"/>
-      <c r="T176" s="284" t="str">
+        <v>CORRECTION FLUID KENKO KE-301</v>
+      </c>
+      <c r="P176" s="281" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q176" s="284">
+        <v>53400</v>
+      </c>
+      <c r="R176" s="285">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T176" s="284">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W176" s="288" t="str">
+        <v>3325752</v>
+      </c>
+      <c r="U176" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="W176" s="288">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X176" s="288" t="str">
+        <v>176</v>
+      </c>
+      <c r="X176" s="288">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y176" s="284" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y176" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z176" s="284" t="str">
+        <v>3844800</v>
+      </c>
+      <c r="Z176" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA176" s="284" t="str">
+        <v>519048.00000000006</v>
+      </c>
+      <c r="AA176" s="284">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB176" s="284" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB176" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC176" s="284" t="str">
+        <v>519048.00000000006</v>
+      </c>
+      <c r="AC176" s="284">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD176" s="284" t="str">
+        <v>3325752</v>
+      </c>
+      <c r="AD176" s="284">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>3325752</v>
       </c>
       <c r="AE176" s="284"/>
       <c r="AF176" s="284" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-301LSN53400</v>
       </c>
     </row>
     <row r="177" spans="1:32" x14ac:dyDescent="0.25">
@@ -37120,8 +37158,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37189,7 +37227,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D3">
         <f ca="1">COUNT(Table1[//])</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="295" t="str">
         <f>"["&amp;G2&amp;".xlsx]Invoice"</f>
@@ -37299,7 +37337,7 @@
       </c>
       <c r="Z4" s="279">
         <f ca="1">SUM(pajak[Total Invoice])</f>
-        <v>416008907.5</v>
+        <v>419334659.5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -37388,7 +37426,7 @@
       </c>
       <c r="Z5" s="87">
         <f ca="1">SUM(pajak[PPN 11%])</f>
-        <v>41226107.950450435</v>
+        <v>41555686.977477461</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -37474,7 +37512,7 @@
       </c>
       <c r="Z6" s="87">
         <f ca="1">(Z4/1.11)*11%</f>
-        <v>41226107.95045045</v>
+        <v>41555686.977477476</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -40924,50 +40962,52 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="292"/>
-      <c r="C49" s="85" t="str">
+      <c r="A49" s="292">
+        <v>176</v>
+      </c>
+      <c r="C49" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>176</v>
       </c>
       <c r="D49" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="E49" s="88" t="str">
+        <v>AM 23070030</v>
+      </c>
+      <c r="E49" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45129</v>
       </c>
       <c r="F49" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 2393</v>
       </c>
       <c r="G49" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="H49" s="87" t="str">
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="H49" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="I49" s="87" t="str">
+        <v>3844800</v>
+      </c>
+      <c r="I49" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="J49" s="87" t="str">
+        <v>519048.00000000006</v>
+      </c>
+      <c r="J49" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="K49" s="87" t="str">
+        <v>3325752</v>
+      </c>
+      <c r="K49" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="L49" s="87" t="str">
+        <v>329579.02702702698</v>
+      </c>
+      <c r="L49" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>3325752</v>
       </c>
       <c r="M49" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="N49" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -41004,9 +41044,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="292" t="s">
-        <v>55</v>
-      </c>
+      <c r="A50" s="292"/>
       <c r="C50" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -41086,6 +41124,9 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="292" t="s">
+        <v>55</v>
+      </c>
       <c r="C51" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -41645,23 +41686,23 @@
       <c r="E58"/>
       <c r="H58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total])</f>
-        <v>474469400</v>
+        <v>478314200</v>
       </c>
       <c r="I58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Diskon])</f>
-        <v>58460492.5</v>
+        <v>58979540.5</v>
       </c>
       <c r="J58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>416008907.5</v>
+        <v>419334659.5</v>
       </c>
       <c r="K58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>41226107.950450435</v>
+        <v>41555686.977477461</v>
       </c>
       <c r="L58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>416008907.5</v>
+        <v>419334659.5</v>
       </c>
       <c r="M58"/>
       <c r="N58"/>
@@ -41669,10 +41710,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F59:F1048576 F3:F57">
-    <cfRule type="duplicateValues" dxfId="63" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:W2 S4:W1048576">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41690,8 +41731,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -41711,7 +41752,7 @@
     <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -41761,7 +41802,7 @@
       </c>
       <c r="E3" s="8">
         <f ca="1">INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23070044</v>
+        <v>23070030</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
@@ -41799,7 +41840,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="318">
         <f ca="1">INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
-        <v>45138</v>
+        <v>45129</v>
       </c>
       <c r="E5" s="319"/>
       <c r="F5" s="317"/>
@@ -41838,7 +41879,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="19" t="str">
         <f ca="1">INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>KO 1816</v>
+        <v>KO 2393</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
@@ -41909,7 +41950,7 @@
       </c>
       <c r="B11" s="45">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="C11" s="45" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A11-1))</f>
@@ -41917,17 +41958,17 @@
       </c>
       <c r="D11" s="46">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="47" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
+        <v>CORRECTION FLUID KENKO KE-301</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="H11" s="50">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>12600</v>
+        <v>53400</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)))</f>
@@ -41939,7 +41980,7 @@
       </c>
       <c r="K11" s="52">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>3138912</v>
+        <v>3325752</v>
       </c>
       <c r="L11" s="35"/>
     </row>
@@ -42580,7 +42621,7 @@
       </c>
       <c r="J29" s="309">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>3138912</v>
+        <v>3325752</v>
       </c>
       <c r="K29" s="310"/>
       <c r="L29" s="35"/>
@@ -42633,7 +42674,7 @@
       </c>
       <c r="J33" s="309">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>311063.35135135136</v>
+        <v>329579.02702702698</v>
       </c>
       <c r="K33" s="310"/>
       <c r="L33" s="72"/>
@@ -42659,7 +42700,7 @@
       <c r="J35" s="75"/>
       <c r="K35" s="76">
         <f ca="1">INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>3138912</v>
+        <v>3325752</v>
       </c>
       <c r="L35" s="72"/>
     </row>
@@ -42743,7 +42784,7 @@
       </c>
       <c r="E41" s="194">
         <f ca="1">E3</f>
-        <v>23070044</v>
+        <v>23070030</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="196" t="s">
@@ -42782,7 +42823,7 @@
       <c r="C43" s="192"/>
       <c r="D43" s="331">
         <f ca="1">D5</f>
-        <v>45138</v>
+        <v>45129</v>
       </c>
       <c r="E43" s="332"/>
       <c r="F43" s="330"/>
@@ -42821,7 +42862,7 @@
       <c r="C45" s="192"/>
       <c r="D45" s="206" t="str">
         <f ca="1">D7</f>
-        <v>KO 1816</v>
+        <v>KO 2393</v>
       </c>
       <c r="E45" s="194"/>
       <c r="F45" s="207"/>
@@ -42896,7 +42937,7 @@
       </c>
       <c r="B49" s="233">
         <f t="shared" ref="B49:E64" ca="1" si="0">B11</f>
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="C49" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -42904,17 +42945,17 @@
       </c>
       <c r="D49" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
+        <v>CORRECTION FLUID KENKO KE-301</v>
       </c>
       <c r="F49" s="237"/>
       <c r="G49" s="238"/>
       <c r="H49" s="239">
         <f t="shared" ref="H49:K64" ca="1" si="1">H11</f>
-        <v>12600</v>
+        <v>53400</v>
       </c>
       <c r="I49" s="240">
         <f t="shared" ca="1" si="1"/>
@@ -42926,7 +42967,7 @@
       </c>
       <c r="K49" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>3138912</v>
+        <v>3325752</v>
       </c>
       <c r="L49" s="223"/>
     </row>
@@ -43572,7 +43613,7 @@
       </c>
       <c r="J67" s="340">
         <f ca="1">J29</f>
-        <v>3138912</v>
+        <v>3325752</v>
       </c>
       <c r="K67" s="341"/>
       <c r="L67" s="223"/>
@@ -43645,7 +43686,7 @@
       </c>
       <c r="J71" s="340">
         <f ca="1">J33</f>
-        <v>311063.35135135136</v>
+        <v>329579.02702702698</v>
       </c>
       <c r="K71" s="341"/>
       <c r="L71" s="261"/>
@@ -43679,7 +43720,7 @@
       <c r="J73" s="264"/>
       <c r="K73" s="265">
         <f ca="1">K35</f>
-        <v>3138912</v>
+        <v>3325752</v>
       </c>
       <c r="L73" s="261"/>
     </row>
@@ -43777,7 +43818,7 @@
       </c>
       <c r="E79" s="99">
         <f ca="1">E41</f>
-        <v>23070044</v>
+        <v>23070030</v>
       </c>
       <c r="F79" s="100"/>
       <c r="G79" s="101" t="s">
@@ -43816,7 +43857,7 @@
       <c r="C81" s="97"/>
       <c r="D81" s="350">
         <f ca="1">D43</f>
-        <v>45138</v>
+        <v>45129</v>
       </c>
       <c r="E81" s="351"/>
       <c r="F81" s="349"/>
@@ -43855,7 +43896,7 @@
       <c r="C83" s="97"/>
       <c r="D83" s="111" t="str">
         <f ca="1">D45</f>
-        <v>KO 1816</v>
+        <v>KO 2393</v>
       </c>
       <c r="E83" s="99"/>
       <c r="F83" s="112"/>
@@ -43930,7 +43971,7 @@
       </c>
       <c r="B87" s="138">
         <f t="shared" ref="B87:E102" ca="1" si="2">B49</f>
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="C87" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -43938,17 +43979,17 @@
       </c>
       <c r="D87" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BALLPEN JOYKO BP-338 VOCUS HITAM</v>
+        <v>CORRECTION FLUID KENKO KE-301</v>
       </c>
       <c r="F87" s="142"/>
       <c r="G87" s="143"/>
       <c r="H87" s="144">
         <f t="shared" ref="H87:K102" ca="1" si="3">H49</f>
-        <v>12600</v>
+        <v>53400</v>
       </c>
       <c r="I87" s="145">
         <f t="shared" ca="1" si="3"/>
@@ -43960,7 +44001,7 @@
       </c>
       <c r="K87" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>3138912</v>
+        <v>3325752</v>
       </c>
       <c r="L87" s="128"/>
     </row>
@@ -44606,7 +44647,7 @@
       </c>
       <c r="J105" s="359">
         <f ca="1">J67</f>
-        <v>3138912</v>
+        <v>3325752</v>
       </c>
       <c r="K105" s="360"/>
       <c r="L105" s="128"/>
@@ -44679,7 +44720,7 @@
       </c>
       <c r="J109" s="359">
         <f ca="1">J71</f>
-        <v>311063.35135135136</v>
+        <v>329579.02702702698</v>
       </c>
       <c r="K109" s="360"/>
       <c r="L109" s="166"/>
@@ -44713,7 +44754,7 @@
       <c r="J111" s="169"/>
       <c r="K111" s="170">
         <f ca="1">K73</f>
-        <v>3138912</v>
+        <v>3325752</v>
       </c>
       <c r="L111" s="166"/>
     </row>
